--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文哉雄\3.연구자료\92. 자격증\SC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\my-orgs\certificate\sc-japan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="589">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -10647,6 +10647,42 @@
   </si>
   <si>
     <t>페이지수</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>실제주</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10817,7 +10853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10873,9 +10909,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -10948,6 +10981,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11236,704 +11302,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="45.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="52.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11" style="21" customWidth="1"/>
-    <col min="6" max="6" width="78.875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9" style="21"/>
-    <col min="8" max="16384" width="9" style="17"/>
+    <col min="5" max="5" width="11" style="20" customWidth="1"/>
+    <col min="6" max="6" width="62.625" style="17" customWidth="1"/>
+    <col min="7" max="8" width="9" style="20"/>
+    <col min="9" max="9" width="9" style="46"/>
+    <col min="10" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="32">
+    <row r="2" spans="1:9">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="33">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="36">
+      <c r="H2" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="36">
+      <c r="H3" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>1.2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="36">
+      <c r="H4" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>1.2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="36">
+      <c r="H5" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>1.2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>516</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="36">
+      <c r="H6" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="35">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>1.2</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="36">
+      <c r="H7" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="35">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="36">
+      <c r="H8" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="36">
+      <c r="H9" s="45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="36">
+      <c r="H10" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="35">
         <v>1</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="36">
+      <c r="H11" s="45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="35">
         <v>1</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="37" t="s">
         <v>528</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>529</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="36">
+      <c r="H12" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="35">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="37" t="s">
         <v>530</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="36">
+      <c r="H13" s="45" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="35">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="36">
+      <c r="H14" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="35">
         <v>1</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>533</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>535</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="45" t="s">
+        <v>584</v>
+      </c>
+      <c r="I15" s="46">
         <f>39</f>
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="36">
+    <row r="16" spans="1:9">
+      <c r="A16" s="35">
         <v>1</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>538</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="36">
+      <c r="H16" s="45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="35">
         <v>1</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="36">
+      <c r="H17" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="35">
         <v>1</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="36" t="s">
         <v>541</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="36">
+      <c r="H18" s="45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="35">
         <v>1</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="39">
+      <c r="H19" s="45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="38">
         <v>1</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="32">
+      <c r="H20" s="47" t="s">
+        <v>585</v>
+      </c>
+      <c r="I20" s="48"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="31">
         <v>2</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="42" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="36">
+      <c r="H21" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="35">
         <v>2</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="36">
+      <c r="H22" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="35">
         <v>2</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="36">
+      <c r="H23" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="35">
         <v>2</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="36">
+      <c r="H24" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="35">
         <v>2</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="34" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="29">
+      <c r="H25" s="45" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="28">
         <v>2</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="29">
+      <c r="H26" s="49" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="28">
         <v>2</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="29">
+      <c r="H27" s="49" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="28">
         <v>2</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="29">
+      <c r="H28" s="49" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="28">
         <v>2</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="I29" s="46">
         <f>87-39</f>
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="13">
         <v>2</v>
       </c>
@@ -11952,11 +12109,12 @@
       <c r="F30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="13">
         <v>2</v>
       </c>
@@ -11975,11 +12133,12 @@
       <c r="F31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="25" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" s="50"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="13">
         <v>2</v>
       </c>
@@ -11998,11 +12157,12 @@
       <c r="F32" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="13">
         <v>2</v>
       </c>
@@ -12021,11 +12181,12 @@
       <c r="F33" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="50"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="13">
         <v>2</v>
       </c>
@@ -12044,11 +12205,12 @@
       <c r="F34" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="50"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="13">
         <v>2</v>
       </c>
@@ -12067,11 +12229,12 @@
       <c r="F35" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" s="50"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="13">
         <v>2</v>
       </c>
@@ -12090,11 +12253,12 @@
       <c r="F36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36" s="50"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="13">
         <v>2</v>
       </c>
@@ -12113,11 +12277,12 @@
       <c r="F37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="50"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="13">
         <v>2</v>
       </c>
@@ -12136,11 +12301,12 @@
       <c r="F38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38" s="50"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="13">
         <v>2</v>
       </c>
@@ -12159,11 +12325,12 @@
       <c r="F39" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="50"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="13">
         <v>2</v>
       </c>
@@ -12182,11 +12349,12 @@
       <c r="F40" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="50"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="13">
         <v>2</v>
       </c>
@@ -12205,11 +12373,12 @@
       <c r="F41" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41" s="50"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="13">
         <v>2</v>
       </c>
@@ -12228,11 +12397,12 @@
       <c r="F42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="50"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="13">
         <v>2</v>
       </c>
@@ -12251,15 +12421,16 @@
       <c r="F43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="G43" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="50"/>
+      <c r="I43" s="46">
         <f>132-87</f>
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="13">
         <v>2</v>
       </c>
@@ -12278,11 +12449,12 @@
       <c r="F44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="25" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44" s="50"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="13">
         <v>2</v>
       </c>
@@ -12301,11 +12473,12 @@
       <c r="F45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="25" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45" s="50"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="13">
         <v>2</v>
       </c>
@@ -12324,11 +12497,12 @@
       <c r="F46" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G46" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46" s="50"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="13">
         <v>2</v>
       </c>
@@ -12347,11 +12521,12 @@
       <c r="F47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47" s="50"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="13">
         <v>2</v>
       </c>
@@ -12370,11 +12545,12 @@
       <c r="F48" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="26" t="s">
+      <c r="G48" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48" s="50"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="13">
         <v>2</v>
       </c>
@@ -12393,11 +12569,12 @@
       <c r="F49" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="G49" s="25" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49" s="50"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="13">
         <v>2</v>
       </c>
@@ -12416,11 +12593,12 @@
       <c r="F50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G50" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50" s="50"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="13">
         <v>2</v>
       </c>
@@ -12439,11 +12617,12 @@
       <c r="F51" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G51" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51" s="50"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="13">
         <v>2</v>
       </c>
@@ -12462,11 +12641,12 @@
       <c r="F52" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52" s="50"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="13">
         <v>2</v>
       </c>
@@ -12485,11 +12665,12 @@
       <c r="F53" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="50"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="13">
         <v>2</v>
       </c>
@@ -12508,11 +12689,12 @@
       <c r="F54" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="50"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="13">
         <v>2</v>
       </c>
@@ -12531,11 +12713,12 @@
       <c r="F55" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G55" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55" s="50"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="13">
         <v>2</v>
       </c>
@@ -12554,11 +12737,12 @@
       <c r="F56" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="25" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="50"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="13">
         <v>2</v>
       </c>
@@ -12577,15 +12761,16 @@
       <c r="F57" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G57" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="50"/>
+      <c r="I57" s="46">
         <f>167-132</f>
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" s="13">
         <v>2</v>
       </c>
@@ -12604,11 +12789,12 @@
       <c r="F58" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="25" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58" s="50"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="13">
         <v>2</v>
       </c>
@@ -12627,11 +12813,12 @@
       <c r="F59" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G59" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="50"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="13">
         <v>2</v>
       </c>
@@ -12650,11 +12837,12 @@
       <c r="F60" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G60" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60" s="50"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="13">
         <v>2</v>
       </c>
@@ -12673,11 +12861,12 @@
       <c r="F61" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61" s="50"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="15">
         <v>2</v>
       </c>
@@ -12696,11 +12885,13 @@
       <c r="F62" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="26" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62" s="51"/>
+      <c r="I62" s="48"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="10">
         <v>3</v>
       </c>
@@ -12719,11 +12910,13 @@
       <c r="F63" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="24" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63" s="52"/>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="13">
         <v>3</v>
       </c>
@@ -12742,11 +12935,12 @@
       <c r="F64" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="G64" s="25" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="H64" s="50"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="13">
         <v>3</v>
       </c>
@@ -12765,11 +12959,12 @@
       <c r="F65" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="H65" s="50"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="13">
         <v>3</v>
       </c>
@@ -12788,11 +12983,12 @@
       <c r="F66" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="H66" s="50"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="13">
         <v>3</v>
       </c>
@@ -12811,11 +13007,12 @@
       <c r="F67" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="G67" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="50"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="13">
         <v>3</v>
       </c>
@@ -12834,11 +13031,12 @@
       <c r="F68" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="G68" s="25" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="H68" s="50"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="13">
         <v>3</v>
       </c>
@@ -12857,11 +13055,12 @@
       <c r="F69" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="25" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="H69" s="50"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="13">
         <v>3</v>
       </c>
@@ -12880,11 +13079,12 @@
       <c r="F70" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="G70" s="25" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="H70" s="50"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="13">
         <v>3</v>
       </c>
@@ -12903,15 +13103,16 @@
       <c r="F71" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="G71" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="50"/>
+      <c r="I71" s="46">
         <f>212-167</f>
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="13">
         <v>3</v>
       </c>
@@ -12930,11 +13131,12 @@
       <c r="F72" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="G72" s="25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="H72" s="50"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="13">
         <v>3</v>
       </c>
@@ -12953,11 +13155,12 @@
       <c r="F73" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="G73" s="25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="H73" s="50"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="13">
         <v>3</v>
       </c>
@@ -12976,11 +13179,12 @@
       <c r="F74" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="25" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="H74" s="50"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="13">
         <v>3</v>
       </c>
@@ -12999,11 +13203,12 @@
       <c r="F75" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G75" s="26" t="s">
+      <c r="G75" s="25" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="50"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="13">
         <v>3</v>
       </c>
@@ -13022,11 +13227,12 @@
       <c r="F76" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="G76" s="25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="H76" s="50"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="13">
         <v>3</v>
       </c>
@@ -13045,11 +13251,12 @@
       <c r="F77" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="G77" s="25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="H77" s="50"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="13">
         <v>3</v>
       </c>
@@ -13068,11 +13275,12 @@
       <c r="F78" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="G78" s="25" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="H78" s="50"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="13">
         <v>3</v>
       </c>
@@ -13091,11 +13299,12 @@
       <c r="F79" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G79" s="25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="50"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="15">
         <v>3</v>
       </c>
@@ -13114,11 +13323,13 @@
       <c r="F80" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="G80" s="26" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="H80" s="51"/>
+      <c r="I80" s="48"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="10">
         <v>4</v>
       </c>
@@ -13137,11 +13348,13 @@
       <c r="F81" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="24" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" s="52"/>
+      <c r="I81" s="44"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="13">
         <v>4</v>
       </c>
@@ -13160,11 +13373,12 @@
       <c r="F82" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G82" s="25" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="H82" s="50"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="13">
         <v>4</v>
       </c>
@@ -13183,11 +13397,12 @@
       <c r="F83" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G83" s="26" t="s">
+      <c r="G83" s="25" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="H83" s="50"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="13">
         <v>4</v>
       </c>
@@ -13206,11 +13421,12 @@
       <c r="F84" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G84" s="26" t="s">
+      <c r="G84" s="25" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="H84" s="50"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="13">
         <v>4</v>
       </c>
@@ -13229,15 +13445,16 @@
       <c r="F85" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G85" s="26" t="s">
+      <c r="G85" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="50"/>
+      <c r="I85" s="46">
         <f>253-212</f>
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" s="13">
         <v>4</v>
       </c>
@@ -13256,11 +13473,12 @@
       <c r="F86" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G86" s="26" t="s">
+      <c r="G86" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="H86" s="50"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="13">
         <v>4</v>
       </c>
@@ -13279,11 +13497,12 @@
       <c r="F87" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G87" s="26" t="s">
+      <c r="G87" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="H87" s="50"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="13">
         <v>4</v>
       </c>
@@ -13302,11 +13521,12 @@
       <c r="F88" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G88" s="26" t="s">
+      <c r="G88" s="25" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88" s="50"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="13">
         <v>4</v>
       </c>
@@ -13325,11 +13545,12 @@
       <c r="F89" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="H89" s="50"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="13">
         <v>4</v>
       </c>
@@ -13348,11 +13569,12 @@
       <c r="F90" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="H90" s="50"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="13">
         <v>4</v>
       </c>
@@ -13371,11 +13593,12 @@
       <c r="F91" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="H91" s="50"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="13">
         <v>4</v>
       </c>
@@ -13394,11 +13617,12 @@
       <c r="F92" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="H92" s="50"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="13">
         <v>4</v>
       </c>
@@ -13417,11 +13641,12 @@
       <c r="F93" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="25" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93" s="50"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="13">
         <v>4</v>
       </c>
@@ -13440,11 +13665,12 @@
       <c r="F94" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G94" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="H94" s="50"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="13">
         <v>4</v>
       </c>
@@ -13463,11 +13689,12 @@
       <c r="F95" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G95" s="26" t="s">
+      <c r="G95" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="H95" s="50"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="13">
         <v>4</v>
       </c>
@@ -13486,11 +13713,12 @@
       <c r="F96" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="H96" s="50"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="13">
         <v>4</v>
       </c>
@@ -13509,11 +13737,12 @@
       <c r="F97" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G97" s="26" t="s">
+      <c r="G97" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="H97" s="50"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="13">
         <v>4</v>
       </c>
@@ -13532,11 +13761,12 @@
       <c r="F98" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G98" s="26" t="s">
+      <c r="G98" s="25" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="H98" s="50"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="13">
         <v>4</v>
       </c>
@@ -13555,15 +13785,16 @@
       <c r="F99" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="H99" s="17">
+      <c r="H99" s="50"/>
+      <c r="I99" s="46">
         <f>307-253</f>
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100" s="13">
         <v>4</v>
       </c>
@@ -13582,11 +13813,12 @@
       <c r="F100" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="G100" s="26" t="s">
+      <c r="G100" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="H100" s="50"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="15">
         <v>4</v>
       </c>
@@ -13605,11 +13837,13 @@
       <c r="F101" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="G101" s="27" t="s">
+      <c r="G101" s="26" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="H101" s="51"/>
+      <c r="I101" s="48"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="10">
         <v>5</v>
       </c>
@@ -13628,11 +13862,12 @@
       <c r="F102" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="G102" s="25" t="s">
+      <c r="G102" s="24" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="13">
         <v>5</v>
       </c>
@@ -13651,11 +13886,12 @@
       <c r="F103" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="G103" s="26" t="s">
+      <c r="G103" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="13">
         <v>5</v>
       </c>
@@ -13674,11 +13910,12 @@
       <c r="F104" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G104" s="26" t="s">
+      <c r="G104" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="13">
         <v>5</v>
       </c>
@@ -13697,11 +13934,12 @@
       <c r="F105" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="G105" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="13">
         <v>5</v>
       </c>
@@ -13720,11 +13958,12 @@
       <c r="F106" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G106" s="26" t="s">
+      <c r="G106" s="25" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="13">
         <v>5</v>
       </c>
@@ -13743,11 +13982,12 @@
       <c r="F107" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G107" s="26" t="s">
+      <c r="G107" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="13">
         <v>5</v>
       </c>
@@ -13766,11 +14006,12 @@
       <c r="F108" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="G108" s="26" t="s">
+      <c r="G108" s="25" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="13">
         <v>5</v>
       </c>
@@ -13789,11 +14030,12 @@
       <c r="F109" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G109" s="26" t="s">
+      <c r="G109" s="25" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="13">
         <v>5</v>
       </c>
@@ -13812,11 +14054,12 @@
       <c r="F110" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G110" s="26" t="s">
+      <c r="G110" s="25" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="13">
         <v>5</v>
       </c>
@@ -13835,11 +14078,12 @@
       <c r="F111" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G111" s="26" t="s">
+      <c r="G111" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="13">
         <v>5</v>
       </c>
@@ -13858,11 +14102,12 @@
       <c r="F112" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="25" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="13">
         <v>5</v>
       </c>
@@ -13881,15 +14126,16 @@
       <c r="F113" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G113" s="26" t="s">
+      <c r="G113" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="H113" s="17">
+      <c r="H113" s="7"/>
+      <c r="I113" s="46">
         <f>361-307</f>
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:9">
       <c r="A114" s="13">
         <v>5</v>
       </c>
@@ -13908,11 +14154,12 @@
       <c r="F114" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G114" s="26" t="s">
+      <c r="G114" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="13">
         <v>5</v>
       </c>
@@ -13931,11 +14178,12 @@
       <c r="F115" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G115" s="26" t="s">
+      <c r="G115" s="25" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="13">
         <v>5</v>
       </c>
@@ -13954,11 +14202,12 @@
       <c r="F116" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="G116" s="26" t="s">
+      <c r="G116" s="25" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="13">
         <v>5</v>
       </c>
@@ -13977,11 +14226,12 @@
       <c r="F117" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G117" s="26" t="s">
+      <c r="G117" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="13">
         <v>5</v>
       </c>
@@ -14000,11 +14250,12 @@
       <c r="F118" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G118" s="26" t="s">
+      <c r="G118" s="25" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="13">
         <v>5</v>
       </c>
@@ -14023,11 +14274,12 @@
       <c r="F119" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G119" s="26" t="s">
+      <c r="G119" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="13">
         <v>5</v>
       </c>
@@ -14046,11 +14298,12 @@
       <c r="F120" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="G120" s="26" t="s">
+      <c r="G120" s="25" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="13">
         <v>5</v>
       </c>
@@ -14069,11 +14322,12 @@
       <c r="F121" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G121" s="26" t="s">
+      <c r="G121" s="25" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="13">
         <v>5</v>
       </c>
@@ -14092,11 +14346,12 @@
       <c r="F122" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G122" s="26" t="s">
+      <c r="G122" s="25" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="13">
         <v>5</v>
       </c>
@@ -14115,11 +14370,12 @@
       <c r="F123" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G123" s="26" t="s">
+      <c r="G123" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="13">
         <v>5</v>
       </c>
@@ -14138,11 +14394,12 @@
       <c r="F124" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="G124" s="26" t="s">
+      <c r="G124" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="13">
         <v>5</v>
       </c>
@@ -14161,11 +14418,12 @@
       <c r="F125" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G125" s="26" t="s">
+      <c r="G125" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="13">
         <v>5</v>
       </c>
@@ -14184,11 +14442,12 @@
       <c r="F126" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="G126" s="26" t="s">
+      <c r="G126" s="25" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="13">
         <v>5</v>
       </c>
@@ -14207,15 +14466,16 @@
       <c r="F127" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G127" s="26" t="s">
+      <c r="G127" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="H127" s="17">
+      <c r="H127" s="7"/>
+      <c r="I127" s="46">
         <f>408-361</f>
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:9">
       <c r="A128" s="13">
         <v>5</v>
       </c>
@@ -14234,11 +14494,12 @@
       <c r="F128" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G128" s="26" t="s">
+      <c r="G128" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="13">
         <v>5</v>
       </c>
@@ -14257,11 +14518,12 @@
       <c r="F129" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G129" s="26" t="s">
+      <c r="G129" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="13">
         <v>5</v>
       </c>
@@ -14280,11 +14542,12 @@
       <c r="F130" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G130" s="26" t="s">
+      <c r="G130" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="15">
         <v>5</v>
       </c>
@@ -14303,11 +14566,12 @@
       <c r="F131" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G131" s="27" t="s">
+      <c r="G131" s="26" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="10">
         <v>6</v>
       </c>
@@ -14326,11 +14590,12 @@
       <c r="F132" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G132" s="25" t="s">
+      <c r="G132" s="24" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="13">
         <v>6</v>
       </c>
@@ -14349,11 +14614,12 @@
       <c r="F133" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G133" s="26" t="s">
+      <c r="G133" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="13">
         <v>6</v>
       </c>
@@ -14372,11 +14638,12 @@
       <c r="F134" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G134" s="26" t="s">
+      <c r="G134" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="13">
         <v>6</v>
       </c>
@@ -14395,11 +14662,12 @@
       <c r="F135" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G135" s="26" t="s">
+      <c r="G135" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="13">
         <v>6</v>
       </c>
@@ -14418,11 +14686,12 @@
       <c r="F136" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G136" s="26" t="s">
+      <c r="G136" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="13">
         <v>6</v>
       </c>
@@ -14441,11 +14710,12 @@
       <c r="F137" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G137" s="26" t="s">
+      <c r="G137" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="13">
         <v>6</v>
       </c>
@@ -14464,11 +14734,12 @@
       <c r="F138" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G138" s="26" t="s">
+      <c r="G138" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="13">
         <v>6</v>
       </c>
@@ -14487,11 +14758,12 @@
       <c r="F139" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G139" s="26" t="s">
+      <c r="G139" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="13">
         <v>6</v>
       </c>
@@ -14510,11 +14782,12 @@
       <c r="F140" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G140" s="26" t="s">
+      <c r="G140" s="25" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="13">
         <v>6</v>
       </c>
@@ -14533,15 +14806,16 @@
       <c r="F141" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G141" s="26" t="s">
+      <c r="G141" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="H141" s="17">
+      <c r="H141" s="7"/>
+      <c r="I141" s="46">
         <f>447-408</f>
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:9">
       <c r="A142" s="13">
         <v>6</v>
       </c>
@@ -14560,11 +14834,12 @@
       <c r="F142" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G142" s="26" t="s">
+      <c r="G142" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="13">
         <v>6</v>
       </c>
@@ -14583,11 +14858,12 @@
       <c r="F143" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G143" s="26" t="s">
+      <c r="G143" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="13">
         <v>6</v>
       </c>
@@ -14606,11 +14882,12 @@
       <c r="F144" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G144" s="26" t="s">
+      <c r="G144" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="13">
         <v>6</v>
       </c>
@@ -14629,11 +14906,12 @@
       <c r="F145" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G145" s="26" t="s">
+      <c r="G145" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="13">
         <v>6</v>
       </c>
@@ -14652,11 +14930,12 @@
       <c r="F146" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G146" s="26" t="s">
+      <c r="G146" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="13">
         <v>6</v>
       </c>
@@ -14675,11 +14954,12 @@
       <c r="F147" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G147" s="26" t="s">
+      <c r="G147" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="13">
         <v>6</v>
       </c>
@@ -14698,11 +14978,12 @@
       <c r="F148" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G148" s="26" t="s">
+      <c r="G148" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="13">
         <v>6</v>
       </c>
@@ -14721,11 +15002,12 @@
       <c r="F149" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G149" s="26" t="s">
+      <c r="G149" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="13">
         <v>6</v>
       </c>
@@ -14744,11 +15026,12 @@
       <c r="F150" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G150" s="26" t="s">
+      <c r="G150" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="15">
         <v>6</v>
       </c>
@@ -14767,11 +15050,12 @@
       <c r="F151" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="G151" s="27" t="s">
+      <c r="G151" s="26" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="10">
         <v>7</v>
       </c>
@@ -14790,11 +15074,12 @@
       <c r="F152" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="G152" s="25" t="s">
+      <c r="G152" s="24" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="13">
         <v>7</v>
       </c>
@@ -14813,11 +15098,12 @@
       <c r="F153" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G153" s="26" t="s">
+      <c r="G153" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="13">
         <v>7</v>
       </c>
@@ -14836,11 +15122,12 @@
       <c r="F154" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="G154" s="26" t="s">
+      <c r="G154" s="25" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="13">
         <v>7</v>
       </c>
@@ -14859,15 +15146,16 @@
       <c r="F155" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G155" s="26" t="s">
+      <c r="G155" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="H155" s="17">
+      <c r="H155" s="7"/>
+      <c r="I155" s="46">
         <f>491-447</f>
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:9">
       <c r="A156" s="13">
         <v>7</v>
       </c>
@@ -14886,11 +15174,12 @@
       <c r="F156" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G156" s="26" t="s">
+      <c r="G156" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="13">
         <v>7</v>
       </c>
@@ -14909,11 +15198,12 @@
       <c r="F157" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G157" s="26" t="s">
+      <c r="G157" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="13">
         <v>7</v>
       </c>
@@ -14932,11 +15222,12 @@
       <c r="F158" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="G158" s="26" t="s">
+      <c r="G158" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="13">
         <v>7</v>
       </c>
@@ -14955,11 +15246,12 @@
       <c r="F159" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G159" s="26" t="s">
+      <c r="G159" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="13">
         <v>7</v>
       </c>
@@ -14978,11 +15270,12 @@
       <c r="F160" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="G160" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="13">
         <v>7</v>
       </c>
@@ -15001,11 +15294,12 @@
       <c r="F161" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="13">
         <v>7</v>
       </c>
@@ -15024,11 +15318,12 @@
       <c r="F162" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="13">
         <v>7</v>
       </c>
@@ -15047,11 +15342,12 @@
       <c r="F163" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="13">
         <v>7</v>
       </c>
@@ -15070,11 +15366,12 @@
       <c r="F164" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="13">
         <v>7</v>
       </c>
@@ -15093,11 +15390,12 @@
       <c r="F165" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G165" s="26" t="s">
+      <c r="G165" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="13">
         <v>7</v>
       </c>
@@ -15116,11 +15414,12 @@
       <c r="F166" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G166" s="26" t="s">
+      <c r="G166" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="13">
         <v>7</v>
       </c>
@@ -15139,11 +15438,12 @@
       <c r="F167" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G167" s="26" t="s">
+      <c r="G167" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="13">
         <v>7</v>
       </c>
@@ -15162,11 +15462,12 @@
       <c r="F168" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="G168" s="25" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="13">
         <v>7</v>
       </c>
@@ -15185,15 +15486,16 @@
       <c r="F169" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="G169" s="26" t="s">
+      <c r="G169" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="H169" s="17">
+      <c r="H169" s="7"/>
+      <c r="I169" s="46">
         <f>539-491</f>
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:9">
       <c r="A170" s="13">
         <v>7</v>
       </c>
@@ -15212,11 +15514,12 @@
       <c r="F170" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G170" s="26" t="s">
+      <c r="G170" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="13">
         <v>7</v>
       </c>
@@ -15235,11 +15538,12 @@
       <c r="F171" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G171" s="26" t="s">
+      <c r="G171" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="13">
         <v>7</v>
       </c>
@@ -15258,11 +15562,12 @@
       <c r="F172" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G172" s="26" t="s">
+      <c r="G172" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="13">
         <v>7</v>
       </c>
@@ -15281,11 +15586,12 @@
       <c r="F173" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="G173" s="26" t="s">
+      <c r="G173" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="H173" s="7"/>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="13">
         <v>7</v>
       </c>
@@ -15304,11 +15610,12 @@
       <c r="F174" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G174" s="26" t="s">
+      <c r="G174" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="13">
         <v>7</v>
       </c>
@@ -15327,11 +15634,12 @@
       <c r="F175" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G175" s="26" t="s">
+      <c r="G175" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="13">
         <v>7</v>
       </c>
@@ -15350,11 +15658,12 @@
       <c r="F176" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G176" s="26" t="s">
+      <c r="G176" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="13">
         <v>7</v>
       </c>
@@ -15373,11 +15682,12 @@
       <c r="F177" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="G177" s="26" t="s">
+      <c r="G177" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="13">
         <v>7</v>
       </c>
@@ -15396,11 +15706,12 @@
       <c r="F178" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="G178" s="26" t="s">
+      <c r="G178" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="13">
         <v>7</v>
       </c>
@@ -15419,11 +15730,12 @@
       <c r="F179" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="G179" s="26" t="s">
+      <c r="G179" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="13">
         <v>7</v>
       </c>
@@ -15442,11 +15754,12 @@
       <c r="F180" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G180" s="26" t="s">
+      <c r="G180" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="13">
         <v>7</v>
       </c>
@@ -15465,11 +15778,12 @@
       <c r="F181" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G181" s="26" t="s">
+      <c r="G181" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="H181" s="7"/>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="13">
         <v>7</v>
       </c>
@@ -15488,11 +15802,12 @@
       <c r="F182" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G182" s="26" t="s">
+      <c r="G182" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="H182" s="7"/>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="13">
         <v>7</v>
       </c>
@@ -15511,15 +15826,16 @@
       <c r="F183" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G183" s="26" t="s">
+      <c r="G183" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="H183" s="17">
+      <c r="H183" s="7"/>
+      <c r="I183" s="46">
         <f>585-539</f>
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:9">
       <c r="A184" s="15">
         <v>7</v>
       </c>
@@ -15538,11 +15854,12 @@
       <c r="F184" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G184" s="27" t="s">
+      <c r="G184" s="26" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
+      <c r="H184" s="7"/>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="10">
         <v>8</v>
       </c>
@@ -15561,11 +15878,12 @@
       <c r="F185" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="G185" s="25" t="s">
+      <c r="G185" s="24" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="13">
         <v>8</v>
       </c>
@@ -15584,11 +15902,12 @@
       <c r="F186" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="G186" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="187" spans="1:8">
+      <c r="H186" s="7"/>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="13">
         <v>8</v>
       </c>
@@ -15607,11 +15926,12 @@
       <c r="F187" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G187" s="26" t="s">
+      <c r="G187" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="13">
         <v>8</v>
       </c>
@@ -15630,11 +15950,12 @@
       <c r="F188" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G188" s="26" t="s">
+      <c r="G188" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="H188" s="7"/>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="13">
         <v>8</v>
       </c>
@@ -15653,11 +15974,12 @@
       <c r="F189" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="G189" s="26" t="s">
+      <c r="G189" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="H189" s="7"/>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="13">
         <v>8</v>
       </c>
@@ -15676,11 +15998,12 @@
       <c r="F190" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G190" s="26" t="s">
+      <c r="G190" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="H190" s="7"/>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="13">
         <v>8</v>
       </c>
@@ -15699,11 +16022,12 @@
       <c r="F191" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G191" s="26" t="s">
+      <c r="G191" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="H191" s="7"/>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="13">
         <v>8</v>
       </c>
@@ -15722,11 +16046,12 @@
       <c r="F192" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="G192" s="26" t="s">
+      <c r="G192" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="13">
         <v>8</v>
       </c>
@@ -15745,11 +16070,12 @@
       <c r="F193" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="G193" s="26" t="s">
+      <c r="G193" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="13">
         <v>8</v>
       </c>
@@ -15768,11 +16094,12 @@
       <c r="F194" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G194" s="26" t="s">
+      <c r="G194" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="13">
         <v>8</v>
       </c>
@@ -15791,11 +16118,12 @@
       <c r="F195" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G195" s="26" t="s">
+      <c r="G195" s="25" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="H195" s="7"/>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="15">
         <v>8</v>
       </c>
@@ -15811,14 +16139,15 @@
       <c r="E196" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="F196" s="24" t="s">
+      <c r="F196" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="G196" s="27" t="s">
+      <c r="G196" s="26" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="H196" s="7"/>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="10">
         <v>9</v>
       </c>
@@ -15837,15 +16166,16 @@
       <c r="F197" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="G197" s="25" t="s">
+      <c r="G197" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="H197" s="17">
+      <c r="H197" s="7"/>
+      <c r="I197" s="46">
         <f>638-585</f>
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:9">
       <c r="A198" s="13">
         <v>9</v>
       </c>
@@ -15864,11 +16194,12 @@
       <c r="F198" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="G198" s="26" t="s">
+      <c r="G198" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="H198" s="7"/>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="13">
         <v>9</v>
       </c>
@@ -15887,11 +16218,12 @@
       <c r="F199" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G199" s="26" t="s">
+      <c r="G199" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="13">
         <v>9</v>
       </c>
@@ -15910,11 +16242,12 @@
       <c r="F200" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G200" s="26" t="s">
+      <c r="G200" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="13">
         <v>9</v>
       </c>
@@ -15933,11 +16266,12 @@
       <c r="F201" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="G201" s="26" t="s">
+      <c r="G201" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="13">
         <v>9</v>
       </c>
@@ -15956,11 +16290,12 @@
       <c r="F202" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="G202" s="26" t="s">
+      <c r="G202" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="13">
         <v>9</v>
       </c>
@@ -15979,11 +16314,12 @@
       <c r="F203" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="G203" s="26" t="s">
+      <c r="G203" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="13">
         <v>9</v>
       </c>
@@ -16002,11 +16338,12 @@
       <c r="F204" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="G204" s="26" t="s">
+      <c r="G204" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="13">
         <v>9</v>
       </c>
@@ -16025,11 +16362,12 @@
       <c r="F205" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="G205" s="26" t="s">
+      <c r="G205" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="13">
         <v>9</v>
       </c>
@@ -16048,11 +16386,12 @@
       <c r="F206" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G206" s="26" t="s">
+      <c r="G206" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="13">
         <v>9</v>
       </c>
@@ -16071,11 +16410,12 @@
       <c r="F207" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="G207" s="26" t="s">
+      <c r="G207" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="13">
         <v>9</v>
       </c>
@@ -16094,11 +16434,12 @@
       <c r="F208" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="G208" s="26" t="s">
+      <c r="G208" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="13">
         <v>9</v>
       </c>
@@ -16117,11 +16458,12 @@
       <c r="F209" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="G209" s="26" t="s">
+      <c r="G209" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="H209" s="7"/>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="13">
         <v>9</v>
       </c>
@@ -16140,11 +16482,12 @@
       <c r="F210" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G210" s="26" t="s">
+      <c r="G210" s="25" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="H210" s="7"/>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="13">
         <v>9</v>
       </c>
@@ -16163,15 +16506,16 @@
       <c r="F211" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="G211" s="26" t="s">
+      <c r="G211" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="H211" s="17">
+      <c r="H211" s="7"/>
+      <c r="I211" s="46">
         <f>695-638</f>
         <v>57</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:9">
       <c r="A212" s="13">
         <v>9</v>
       </c>
@@ -16190,11 +16534,12 @@
       <c r="F212" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G212" s="26" t="s">
+      <c r="G212" s="25" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="13">
         <v>9</v>
       </c>
@@ -16213,11 +16558,12 @@
       <c r="F213" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="G213" s="26" t="s">
+      <c r="G213" s="25" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="H213" s="7"/>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="13">
         <v>9</v>
       </c>
@@ -16236,11 +16582,12 @@
       <c r="F214" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="G214" s="26" t="s">
+      <c r="G214" s="25" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="13">
         <v>9</v>
       </c>
@@ -16259,11 +16606,12 @@
       <c r="F215" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="G215" s="26" t="s">
+      <c r="G215" s="25" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="13">
         <v>9</v>
       </c>
@@ -16282,11 +16630,12 @@
       <c r="F216" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G216" s="26" t="s">
+      <c r="G216" s="25" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="13">
         <v>9</v>
       </c>
@@ -16305,11 +16654,12 @@
       <c r="F217" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="G217" s="26" t="s">
+      <c r="G217" s="25" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="15">
         <v>9</v>
       </c>
@@ -16328,10 +16678,11 @@
       <c r="F218" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="G218" s="27" t="s">
+      <c r="G218" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="H218" s="17">
+      <c r="H218" s="7"/>
+      <c r="I218" s="46">
         <f>716-695</f>
         <v>21</v>
       </c>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -10772,7 +10772,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -10924,16 +10924,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11225,8 +11225,8 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12161,154 +12161,156 @@
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>2</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="20">
         <v>43117</v>
       </c>
-      <c r="J33" s="17"/>
+      <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>2</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="20">
         <v>43117</v>
       </c>
-      <c r="J34" s="17"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>2</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I35" s="21">
-        <v>43118</v>
-      </c>
-      <c r="J35" s="17"/>
+      <c r="I35" s="20">
+        <v>43117</v>
+      </c>
+      <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>2</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I36" s="21">
-        <v>43118</v>
-      </c>
-      <c r="J36" s="17"/>
+      <c r="I36" s="20">
+        <v>43117</v>
+      </c>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>2</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I37" s="21">
-        <v>43119</v>
-      </c>
-      <c r="J37" s="17"/>
+      <c r="I37" s="20">
+        <v>43117</v>
+      </c>
+      <c r="J37" s="16">
+        <v>108</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="17">

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -11226,7 +11226,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12313,94 +12313,96 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>2</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I38" s="21">
-        <v>43119</v>
-      </c>
-      <c r="J38" s="17"/>
+      <c r="I38" s="20">
+        <v>43118</v>
+      </c>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I39" s="21">
-        <v>43120</v>
-      </c>
-      <c r="J39" s="17"/>
+      <c r="I39" s="20">
+        <v>43118</v>
+      </c>
+      <c r="J39" s="16"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>2</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="I40" s="21">
-        <v>43120</v>
-      </c>
-      <c r="J40" s="17"/>
+      <c r="I40" s="20">
+        <v>43118</v>
+      </c>
+      <c r="J40" s="16">
+        <v>117</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17">
@@ -12428,7 +12430,7 @@
         <v>589</v>
       </c>
       <c r="I41" s="21">
-        <v>43121</v>
+        <v>43119</v>
       </c>
       <c r="J41" s="17"/>
     </row>
@@ -12458,7 +12460,7 @@
         <v>589</v>
       </c>
       <c r="I42" s="21">
-        <v>43121</v>
+        <v>43119</v>
       </c>
       <c r="J42" s="17"/>
     </row>
@@ -12488,7 +12490,7 @@
         <v>589</v>
       </c>
       <c r="I43" s="21">
-        <v>43121</v>
+        <v>43119</v>
       </c>
       <c r="J43" s="17">
         <v>132</v>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="592">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -10513,10 +10513,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -10557,6 +10553,204 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>실제주</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>컴퓨팅과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가상화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클라이언트와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VDI</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -10565,205 +10759,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>실제주</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>일자</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>클라우드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>컴퓨팅과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가상화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기술</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>클라이언트와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> VDI</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11225,8 +11221,8 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11265,13 +11261,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -11297,7 +11293,7 @@
         <v>546</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="16"/>
@@ -11325,7 +11321,7 @@
         <v>546</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="16"/>
@@ -11353,7 +11349,7 @@
         <v>546</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="16"/>
@@ -11381,7 +11377,7 @@
         <v>546</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="16"/>
@@ -11409,7 +11405,7 @@
         <v>546</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="16"/>
@@ -11437,7 +11433,7 @@
         <v>546</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="16"/>
@@ -11465,7 +11461,7 @@
         <v>546</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="16"/>
@@ -11493,7 +11489,7 @@
         <v>546</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="16"/>
@@ -11521,7 +11517,7 @@
         <v>546</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="16"/>
@@ -11549,7 +11545,7 @@
         <v>546</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="16"/>
@@ -11577,7 +11573,7 @@
         <v>546</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="16"/>
@@ -11605,7 +11601,7 @@
         <v>546</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="16"/>
@@ -11633,7 +11629,7 @@
         <v>546</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="16"/>
@@ -11661,7 +11657,7 @@
         <v>546</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="16">
@@ -11691,7 +11687,7 @@
         <v>547</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="16"/>
@@ -11719,7 +11715,7 @@
         <v>547</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="16"/>
@@ -11747,7 +11743,7 @@
         <v>547</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="16"/>
@@ -11775,7 +11771,7 @@
         <v>547</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="16"/>
@@ -11791,19 +11787,19 @@
         <v>107</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>547</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="16"/>
@@ -11831,7 +11827,7 @@
         <v>547</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="16"/>
@@ -11859,7 +11855,7 @@
         <v>548</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="16"/>
@@ -11887,7 +11883,7 @@
         <v>547</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="16"/>
@@ -11915,7 +11911,7 @@
         <v>547</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="16"/>
@@ -11943,7 +11939,7 @@
         <v>547</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="16"/>
@@ -11971,7 +11967,7 @@
         <v>547</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I26" s="20">
         <v>43109</v>
@@ -12001,7 +11997,7 @@
         <v>547</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I27" s="20">
         <v>43109</v>
@@ -12031,7 +12027,7 @@
         <v>547</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I28" s="20">
         <v>43110</v>
@@ -12061,7 +12057,7 @@
         <v>547</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="I29" s="20">
         <v>43110</v>
@@ -12093,7 +12089,7 @@
         <v>549</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="I30" s="20">
         <v>43111</v>
@@ -12123,7 +12119,7 @@
         <v>550</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I31" s="20">
         <v>43116</v>
@@ -12153,7 +12149,7 @@
         <v>549</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I32" s="20">
         <v>43116</v>
@@ -12183,7 +12179,7 @@
         <v>549</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I33" s="20">
         <v>43117</v>
@@ -12213,7 +12209,7 @@
         <v>549</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I34" s="20">
         <v>43117</v>
@@ -12243,7 +12239,7 @@
         <v>549</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I35" s="20">
         <v>43117</v>
@@ -12273,7 +12269,7 @@
         <v>551</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I36" s="20">
         <v>43117</v>
@@ -12303,7 +12299,7 @@
         <v>549</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I37" s="20">
         <v>43117</v>
@@ -12335,7 +12331,7 @@
         <v>549</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I38" s="20">
         <v>43118</v>
@@ -12365,7 +12361,7 @@
         <v>549</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I39" s="20">
         <v>43118</v>
@@ -12395,7 +12391,7 @@
         <v>549</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I40" s="20">
         <v>43118</v>
@@ -12405,64 +12401,66 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>2</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I41" s="21">
+      <c r="H41" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="I41" s="20">
         <v>43119</v>
       </c>
-      <c r="J41" s="17"/>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>2</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="H42" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="I42" s="20">
         <v>43119</v>
       </c>
-      <c r="J42" s="17"/>
+      <c r="J42" s="16">
+        <v>123</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17">
@@ -12487,36 +12485,45 @@
         <v>549</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I43" s="21">
-        <v>43119</v>
+        <v>43121</v>
       </c>
       <c r="J43" s="17">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="8">
+      <c r="A44" s="17">
         <v>2</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>552</v>
+      <c r="G44" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="I44" s="21">
+        <v>43121</v>
+      </c>
+      <c r="J44" s="17">
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12539,7 +12546,7 @@
         <v>163</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12562,7 +12569,7 @@
         <v>165</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12585,7 +12592,7 @@
         <v>167</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12608,7 +12615,7 @@
         <v>169</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -12631,7 +12638,7 @@
         <v>171</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -12654,7 +12661,7 @@
         <v>173</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -12677,7 +12684,7 @@
         <v>175</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -12700,7 +12707,7 @@
         <v>182</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -12723,7 +12730,7 @@
         <v>179</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -12746,7 +12753,7 @@
         <v>181</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -12769,7 +12776,7 @@
         <v>184</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -12792,7 +12799,7 @@
         <v>186</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -12815,7 +12822,7 @@
         <v>188</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J57" s="8">
         <v>167</v>
@@ -12841,7 +12848,7 @@
         <v>190</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -12864,7 +12871,7 @@
         <v>192</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -12887,7 +12894,7 @@
         <v>194</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -12910,7 +12917,7 @@
         <v>196</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -12933,7 +12940,7 @@
         <v>198</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -12956,7 +12963,7 @@
         <v>200</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -12979,7 +12986,7 @@
         <v>202</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -13002,7 +13009,7 @@
         <v>204</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -13025,7 +13032,7 @@
         <v>206</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -13048,7 +13055,7 @@
         <v>208</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -13071,7 +13078,7 @@
         <v>210</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -13094,7 +13101,7 @@
         <v>212</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -13117,7 +13124,7 @@
         <v>214</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -13140,7 +13147,7 @@
         <v>216</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J71" s="8">
         <v>212</v>
@@ -13166,7 +13173,7 @@
         <v>218</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -13189,7 +13196,7 @@
         <v>220</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -13212,7 +13219,7 @@
         <v>222</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -13235,7 +13242,7 @@
         <v>224</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -13258,7 +13265,7 @@
         <v>227</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -13281,7 +13288,7 @@
         <v>229</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -13304,7 +13311,7 @@
         <v>231</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -13327,7 +13334,7 @@
         <v>233</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -13350,7 +13357,7 @@
         <v>235</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -13373,7 +13380,7 @@
         <v>237</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -13396,7 +13403,7 @@
         <v>239</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -13419,7 +13426,7 @@
         <v>241</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -13442,7 +13449,7 @@
         <v>243</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -13465,7 +13472,7 @@
         <v>247</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J85" s="8">
         <v>254</v>
@@ -13491,7 +13498,7 @@
         <v>248</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -13514,7 +13521,7 @@
         <v>250</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -13537,7 +13544,7 @@
         <v>252</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -13560,7 +13567,7 @@
         <v>254</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -13583,7 +13590,7 @@
         <v>256</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -13606,7 +13613,7 @@
         <v>258</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -13629,7 +13636,7 @@
         <v>260</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -13652,7 +13659,7 @@
         <v>262</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -13675,7 +13682,7 @@
         <v>264</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -13698,7 +13705,7 @@
         <v>266</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -13721,7 +13728,7 @@
         <v>268</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -13744,7 +13751,7 @@
         <v>270</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -13767,7 +13774,7 @@
         <v>272</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -13790,7 +13797,7 @@
         <v>274</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J99" s="8">
         <v>310</v>
@@ -13816,7 +13823,7 @@
         <v>277</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -13839,7 +13846,7 @@
         <v>279</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -13862,7 +13869,7 @@
         <v>281</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -13885,7 +13892,7 @@
         <v>283</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -13908,7 +13915,7 @@
         <v>285</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -13931,7 +13938,7 @@
         <v>59</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -13954,7 +13961,7 @@
         <v>61</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -13977,7 +13984,7 @@
         <v>60</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -14000,7 +14007,7 @@
         <v>287</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -14023,7 +14030,7 @@
         <v>289</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -14046,7 +14053,7 @@
         <v>291</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -14069,7 +14076,7 @@
         <v>293</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -14092,7 +14099,7 @@
         <v>295</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -14115,7 +14122,7 @@
         <v>297</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J113" s="8">
         <v>362</v>
@@ -14141,7 +14148,7 @@
         <v>299</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -14164,7 +14171,7 @@
         <v>302</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -14187,7 +14194,7 @@
         <v>303</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -14210,7 +14217,7 @@
         <v>305</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -14233,7 +14240,7 @@
         <v>307</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -14256,7 +14263,7 @@
         <v>309</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -14279,7 +14286,7 @@
         <v>311</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -14302,7 +14309,7 @@
         <v>313</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -14325,7 +14332,7 @@
         <v>317</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -14348,7 +14355,7 @@
         <v>319</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -14371,7 +14378,7 @@
         <v>321</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -14394,7 +14401,7 @@
         <v>325</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -14417,7 +14424,7 @@
         <v>327</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -14440,7 +14447,7 @@
         <v>329</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J127" s="8">
         <v>410</v>
@@ -14466,7 +14473,7 @@
         <v>331</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -14489,7 +14496,7 @@
         <v>334</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -14512,7 +14519,7 @@
         <v>336</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -14535,7 +14542,7 @@
         <v>338</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -14558,7 +14565,7 @@
         <v>340</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -14581,7 +14588,7 @@
         <v>342</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -14604,7 +14611,7 @@
         <v>344</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -14627,7 +14634,7 @@
         <v>346</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -14650,7 +14657,7 @@
         <v>348</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -14673,7 +14680,7 @@
         <v>350</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -14696,7 +14703,7 @@
         <v>352</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -14719,7 +14726,7 @@
         <v>354</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -14742,7 +14749,7 @@
         <v>356</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -14765,7 +14772,7 @@
         <v>358</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J141" s="8">
         <v>448</v>
@@ -14791,7 +14798,7 @@
         <v>360</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -14814,7 +14821,7 @@
         <v>362</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -14837,7 +14844,7 @@
         <v>364</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -14860,7 +14867,7 @@
         <v>366</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -14883,7 +14890,7 @@
         <v>368</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -14906,7 +14913,7 @@
         <v>370</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -14929,7 +14936,7 @@
         <v>372</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -14952,7 +14959,7 @@
         <v>374</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -14975,7 +14982,7 @@
         <v>376</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -14998,7 +15005,7 @@
         <v>378</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -15021,7 +15028,7 @@
         <v>380</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -15044,7 +15051,7 @@
         <v>382</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -15067,7 +15074,7 @@
         <v>384</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -15090,7 +15097,7 @@
         <v>386</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J155" s="8">
         <v>494</v>
@@ -15116,7 +15123,7 @@
         <v>388</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -15139,7 +15146,7 @@
         <v>391</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -15162,7 +15169,7 @@
         <v>394</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -15185,7 +15192,7 @@
         <v>395</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -15208,7 +15215,7 @@
         <v>396</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -15231,7 +15238,7 @@
         <v>398</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -15254,7 +15261,7 @@
         <v>400</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -15277,7 +15284,7 @@
         <v>402</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -15300,7 +15307,7 @@
         <v>404</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -15323,7 +15330,7 @@
         <v>406</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -15346,7 +15353,7 @@
         <v>408</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -15369,7 +15376,7 @@
         <v>410</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -15392,7 +15399,7 @@
         <v>412</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -15415,7 +15422,7 @@
         <v>414</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J169" s="8">
         <v>539</v>
@@ -15441,7 +15448,7 @@
         <v>416</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -15464,7 +15471,7 @@
         <v>418</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -15487,7 +15494,7 @@
         <v>420</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -15510,7 +15517,7 @@
         <v>422</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -15533,7 +15540,7 @@
         <v>424</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -15556,7 +15563,7 @@
         <v>426</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -15579,7 +15586,7 @@
         <v>428</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -15602,7 +15609,7 @@
         <v>430</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -15625,7 +15632,7 @@
         <v>432</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -15648,7 +15655,7 @@
         <v>434</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -15671,7 +15678,7 @@
         <v>436</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -15694,7 +15701,7 @@
         <v>438</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -15717,7 +15724,7 @@
         <v>440</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -15740,7 +15747,7 @@
         <v>442</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J183" s="8">
         <v>586</v>
@@ -15766,7 +15773,7 @@
         <v>444</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -15789,7 +15796,7 @@
         <v>446</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -15812,7 +15819,7 @@
         <v>448</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -15835,7 +15842,7 @@
         <v>450</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -15858,7 +15865,7 @@
         <v>452</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -15881,7 +15888,7 @@
         <v>454</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -15904,7 +15911,7 @@
         <v>455</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -15927,7 +15934,7 @@
         <v>458</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -15950,7 +15957,7 @@
         <v>460</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -15973,7 +15980,7 @@
         <v>462</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -15996,7 +16003,7 @@
         <v>464</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -16019,7 +16026,7 @@
         <v>466</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -16042,7 +16049,7 @@
         <v>468</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -16065,7 +16072,7 @@
         <v>470</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="J197" s="8">
         <v>641</v>
@@ -16091,7 +16098,7 @@
         <v>472</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -16114,7 +16121,7 @@
         <v>474</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -16137,7 +16144,7 @@
         <v>476</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -16160,7 +16167,7 @@
         <v>478</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -16183,7 +16190,7 @@
         <v>482</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -16206,7 +16213,7 @@
         <v>481</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -16229,7 +16236,7 @@
         <v>484</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -16252,7 +16259,7 @@
         <v>486</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -16275,7 +16282,7 @@
         <v>488</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -16298,7 +16305,7 @@
         <v>490</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -16321,7 +16328,7 @@
         <v>492</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -16344,7 +16351,7 @@
         <v>494</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -16367,7 +16374,7 @@
         <v>496</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -16390,7 +16397,7 @@
         <v>500</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J211" s="8">
         <v>697</v>
@@ -16416,7 +16423,7 @@
         <v>499</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -16439,7 +16446,7 @@
         <v>502</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -16462,7 +16469,7 @@
         <v>504</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -16485,7 +16492,7 @@
         <v>506</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -16508,7 +16515,7 @@
         <v>508</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16531,7 +16538,7 @@
         <v>510</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16554,7 +16561,7 @@
         <v>512</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="J218" s="8">
         <v>722</v>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -10828,13 +10828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10862,7 +10862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10902,16 +10902,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -10923,13 +10914,25 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11221,8 +11224,8 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11234,11 +11237,11 @@
     <col min="5" max="5" width="11" style="7" customWidth="1"/>
     <col min="6" max="6" width="47.875" style="8" customWidth="1"/>
     <col min="7" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="15" customFormat="1">
+    <row r="1" spans="1:10" s="13" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -11263,7 +11266,7 @@
       <c r="H1" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>584</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -11271,1199 +11274,1199 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>1.2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>1.2</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>1.2</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>1.2</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="16">
+      <c r="I15" s="17"/>
+      <c r="J15" s="14">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>2</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>2</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="17">
         <v>43109</v>
       </c>
-      <c r="J26" s="16"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="17">
         <v>43109</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>2</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>43110</v>
       </c>
-      <c r="J28" s="16"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>2</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <v>43110</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="14">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="17">
         <v>43111</v>
       </c>
-      <c r="J30" s="16"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>2</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="17">
         <v>43116</v>
       </c>
-      <c r="J31" s="16"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>2</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="17">
         <v>43116</v>
       </c>
-      <c r="J32" s="16"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>2</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="17">
         <v>43117</v>
       </c>
-      <c r="J33" s="16"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>2</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="17">
         <v>43117</v>
       </c>
-      <c r="J34" s="16"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>2</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="17">
         <v>43117</v>
       </c>
-      <c r="J35" s="16"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>2</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="17">
         <v>43117</v>
       </c>
-      <c r="J36" s="16"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>2</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="17">
         <v>43117</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="14">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>2</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="17">
         <v>43118</v>
       </c>
-      <c r="J38" s="16"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="16">
+      <c r="A39" s="14">
         <v>2</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="17">
         <v>43118</v>
       </c>
-      <c r="J39" s="16"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="16">
+      <c r="A40" s="14">
         <v>2</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="17">
         <v>43118</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="14">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>2</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="17">
         <v>43119</v>
       </c>
-      <c r="J41" s="16"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>2</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="17">
         <v>43119</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="14">
         <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="17">
+      <c r="A43" s="14">
         <v>2</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -12487,15 +12490,15 @@
       <c r="H43" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I43" s="21">
-        <v>43121</v>
-      </c>
-      <c r="J43" s="17">
+      <c r="I43" s="17">
+        <v>43120</v>
+      </c>
+      <c r="J43" s="14">
         <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="17">
+      <c r="A44" s="14">
         <v>2</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -12519,359 +12522,405 @@
       <c r="H44" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="17">
         <v>43121</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="14">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="8">
+      <c r="A45" s="19">
         <v>2</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="21" t="s">
         <v>552</v>
       </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="8">
+      <c r="A46" s="19">
         <v>2</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="8">
+      <c r="A47" s="19">
         <v>2</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="8">
+      <c r="A48" s="19">
         <v>2</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="8">
+      <c r="A49" s="19">
         <v>2</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="21" t="s">
         <v>552</v>
       </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="8">
+      <c r="A50" s="19">
         <v>2</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="8">
+      <c r="A51" s="19">
         <v>2</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H51" s="21"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="19"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="8">
+      <c r="A52" s="19">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H52" s="21"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="8">
+      <c r="A53" s="19">
         <v>2</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="8">
+      <c r="A54" s="19">
         <v>2</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="19"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="8">
+      <c r="A55" s="19">
         <v>2</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="8">
+      <c r="A56" s="19">
         <v>2</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="21" t="s">
         <v>553</v>
       </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="19"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="8">
+      <c r="A57" s="19">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="J57" s="8">
+      <c r="H57" s="21"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="19">
         <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="8">
+      <c r="A58" s="19">
         <v>2</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="21" t="s">
         <v>552</v>
       </c>
+      <c r="H58" s="21"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="8">
+      <c r="A59" s="19">
         <v>2</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="21" t="s">
         <v>552</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="19">
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -15001,7 +15050,7 @@
       <c r="E151" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="15" t="s">
         <v>378</v>
       </c>
       <c r="G151" s="7" t="s">

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="9810"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21180" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="전체 주제" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="593">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -3850,18 +3850,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>부정한 스크립트나 명령을 실행시키는 공격의 종류</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2.8.2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>크로스 사이트 스크립팅</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2.8.3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -10760,6 +10752,315 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어플리케이션에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명령을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행시키는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>부정한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립트나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명령을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행시키는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>크로스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립팅</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11224,8 +11525,8 @@
   <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11264,13 +11565,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -11293,10 +11594,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="14"/>
@@ -11321,10 +11622,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="14"/>
@@ -11349,10 +11650,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="14"/>
@@ -11371,16 +11672,16 @@
         <v>12</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="14"/>
@@ -11399,16 +11700,16 @@
         <v>12</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
@@ -11427,16 +11728,16 @@
         <v>12</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>518</v>
-      </c>
       <c r="G7" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="14"/>
@@ -11455,16 +11756,16 @@
         <v>104</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="14"/>
@@ -11483,16 +11784,16 @@
         <v>104</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="14"/>
@@ -11511,16 +11812,16 @@
         <v>104</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="14"/>
@@ -11539,16 +11840,16 @@
         <v>106</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="14"/>
@@ -11567,16 +11868,16 @@
         <v>106</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="14"/>
@@ -11595,16 +11896,16 @@
         <v>106</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="14"/>
@@ -11623,16 +11924,16 @@
         <v>106</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="14"/>
@@ -11651,16 +11952,16 @@
         <v>106</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>534</v>
-      </c>
       <c r="G15" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="14">
@@ -11681,16 +11982,16 @@
         <v>106</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>537</v>
-      </c>
       <c r="G16" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="14"/>
@@ -11709,16 +12010,16 @@
         <v>106</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>538</v>
-      </c>
       <c r="G17" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="14"/>
@@ -11737,16 +12038,16 @@
         <v>106</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="14"/>
@@ -11771,10 +12072,10 @@
         <v>110</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="14"/>
@@ -11790,19 +12091,19 @@
         <v>107</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="14"/>
@@ -11827,10 +12128,10 @@
         <v>113</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="14"/>
@@ -11855,10 +12156,10 @@
         <v>115</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="14"/>
@@ -11883,10 +12184,10 @@
         <v>117</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="14"/>
@@ -11911,10 +12212,10 @@
         <v>119</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="14"/>
@@ -11939,10 +12240,10 @@
         <v>121</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="14"/>
@@ -11967,10 +12268,10 @@
         <v>123</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I26" s="17">
         <v>43109</v>
@@ -11997,10 +12298,10 @@
         <v>125</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I27" s="17">
         <v>43109</v>
@@ -12027,10 +12328,10 @@
         <v>127</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I28" s="17">
         <v>43110</v>
@@ -12057,10 +12358,10 @@
         <v>130</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I29" s="17">
         <v>43110</v>
@@ -12089,10 +12390,10 @@
         <v>132</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I30" s="17">
         <v>43111</v>
@@ -12119,10 +12420,10 @@
         <v>134</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I31" s="17">
         <v>43116</v>
@@ -12149,10 +12450,10 @@
         <v>153</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I32" s="17">
         <v>43116</v>
@@ -12179,10 +12480,10 @@
         <v>137</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I33" s="17">
         <v>43117</v>
@@ -12209,10 +12510,10 @@
         <v>139</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I34" s="17">
         <v>43117</v>
@@ -12239,10 +12540,10 @@
         <v>141</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I35" s="17">
         <v>43117</v>
@@ -12269,10 +12570,10 @@
         <v>143</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I36" s="17">
         <v>43117</v>
@@ -12299,10 +12600,10 @@
         <v>145</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I37" s="17">
         <v>43117</v>
@@ -12331,10 +12632,10 @@
         <v>148</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I38" s="17">
         <v>43118</v>
@@ -12361,10 +12662,10 @@
         <v>150</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I39" s="17">
         <v>43118</v>
@@ -12391,10 +12692,10 @@
         <v>152</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I40" s="17">
         <v>43118</v>
@@ -12423,10 +12724,10 @@
         <v>155</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I41" s="17">
         <v>43119</v>
@@ -12438,7 +12739,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>95</v>
@@ -12453,10 +12754,10 @@
         <v>157</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I42" s="17">
         <v>43119</v>
@@ -12485,10 +12786,10 @@
         <v>159</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I43" s="17">
         <v>43120</v>
@@ -12517,10 +12818,10 @@
         <v>161</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I44" s="17">
         <v>43121</v>
@@ -12540,19 +12841,21 @@
         <v>99</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>100</v>
+        <v>590</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>163</v>
+        <v>591</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H45" s="21"/>
-      <c r="I45" s="23"/>
+      <c r="I45" s="23">
+        <v>43123</v>
+      </c>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10">
@@ -12569,16 +12872,18 @@
         <v>100</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>165</v>
+        <v>592</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H46" s="21"/>
-      <c r="I46" s="23"/>
+      <c r="I46" s="23">
+        <v>43123</v>
+      </c>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10">
@@ -12595,13 +12900,13 @@
         <v>100</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="23"/>
@@ -12621,13 +12926,13 @@
         <v>100</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="23"/>
@@ -12647,13 +12952,13 @@
         <v>100</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="23"/>
@@ -12673,13 +12978,13 @@
         <v>100</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="23"/>
@@ -12699,17 +13004,19 @@
         <v>100</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="19"/>
+      <c r="J51" s="19">
+        <v>161</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="19">
@@ -12725,13 +13032,13 @@
         <v>102</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="23"/>
@@ -12751,13 +13058,13 @@
         <v>102</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="23"/>
@@ -12777,13 +13084,13 @@
         <v>102</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="23"/>
@@ -12803,13 +13110,13 @@
         <v>102</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="23"/>
@@ -12829,13 +13136,13 @@
         <v>102</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H56" s="21"/>
       <c r="I56" s="23"/>
@@ -12855,13 +13162,13 @@
         <v>102</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="23"/>
@@ -12883,13 +13190,13 @@
         <v>102</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="23"/>
@@ -12909,13 +13216,13 @@
         <v>102</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="23"/>
@@ -12937,13 +13244,13 @@
         <v>102</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -12960,13 +13267,13 @@
         <v>102</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -12980,16 +13287,16 @@
         <v>101</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -13006,13 +13313,13 @@
         <v>76</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -13029,13 +13336,13 @@
         <v>76</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -13052,13 +13359,13 @@
         <v>77</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -13075,13 +13382,13 @@
         <v>77</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -13098,13 +13405,13 @@
         <v>79</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -13121,13 +13428,13 @@
         <v>79</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -13144,13 +13451,13 @@
         <v>81</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -13167,13 +13474,13 @@
         <v>81</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -13190,13 +13497,13 @@
         <v>81</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J71" s="8">
         <v>212</v>
@@ -13216,13 +13523,13 @@
         <v>81</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -13239,13 +13546,13 @@
         <v>83</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -13262,13 +13569,13 @@
         <v>83</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -13285,13 +13592,13 @@
         <v>83</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -13308,13 +13615,13 @@
         <v>85</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -13331,13 +13638,13 @@
         <v>85</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -13354,13 +13661,13 @@
         <v>85</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -13377,13 +13684,13 @@
         <v>85</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -13397,16 +13704,16 @@
         <v>84</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -13423,13 +13730,13 @@
         <v>64</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -13446,13 +13753,13 @@
         <v>64</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -13469,13 +13776,13 @@
         <v>64</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -13492,13 +13799,13 @@
         <v>64</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -13512,16 +13819,16 @@
         <v>4.2</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J85" s="8">
         <v>254</v>
@@ -13538,16 +13845,16 @@
         <v>4.2</v>
       </c>
       <c r="D86" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E86" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="G86" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -13561,16 +13868,16 @@
         <v>4.2</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -13587,13 +13894,13 @@
         <v>65</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -13610,13 +13917,13 @@
         <v>65</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -13633,13 +13940,13 @@
         <v>66</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -13656,13 +13963,13 @@
         <v>67</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -13679,13 +13986,13 @@
         <v>67</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -13702,13 +14009,13 @@
         <v>67</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -13725,13 +14032,13 @@
         <v>68</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -13748,13 +14055,13 @@
         <v>68</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -13771,13 +14078,13 @@
         <v>69</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -13794,13 +14101,13 @@
         <v>70</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -13817,13 +14124,13 @@
         <v>71</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -13840,13 +14147,13 @@
         <v>71</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J99" s="8">
         <v>310</v>
@@ -13866,13 +14173,13 @@
         <v>73</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -13886,16 +14193,16 @@
         <v>72</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -13912,13 +14219,13 @@
         <v>51</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -13935,13 +14242,13 @@
         <v>52</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -13958,13 +14265,13 @@
         <v>52</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -13987,7 +14294,7 @@
         <v>59</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -14010,7 +14317,7 @@
         <v>61</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -14033,7 +14340,7 @@
         <v>60</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -14050,13 +14357,13 @@
         <v>54</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -14073,13 +14380,13 @@
         <v>55</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -14096,13 +14403,13 @@
         <v>55</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -14119,13 +14426,13 @@
         <v>55</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -14142,13 +14449,13 @@
         <v>55</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -14165,13 +14472,13 @@
         <v>55</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J113" s="8">
         <v>362</v>
@@ -14191,13 +14498,13 @@
         <v>55</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -14214,13 +14521,13 @@
         <v>57</v>
       </c>
       <c r="E115" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="G115" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -14237,13 +14544,13 @@
         <v>57</v>
       </c>
       <c r="E116" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="G116" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -14260,13 +14567,13 @@
         <v>57</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -14283,13 +14590,13 @@
         <v>57</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -14306,13 +14613,13 @@
         <v>57</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -14329,13 +14636,13 @@
         <v>57</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -14346,19 +14653,19 @@
         <v>18</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -14369,19 +14676,19 @@
         <v>18</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -14392,19 +14699,19 @@
         <v>18</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -14418,16 +14725,16 @@
         <v>5.7</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -14438,19 +14745,19 @@
         <v>18</v>
       </c>
       <c r="C125" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="F125" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="G125" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -14461,19 +14768,19 @@
         <v>18</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -14484,19 +14791,19 @@
         <v>18</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J127" s="8">
         <v>410</v>
@@ -14510,19 +14817,19 @@
         <v>18</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -14536,16 +14843,16 @@
         <v>5.9</v>
       </c>
       <c r="D129" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="G129" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -14559,16 +14866,16 @@
         <v>5.9</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -14582,16 +14889,16 @@
         <v>5.9</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -14608,13 +14915,13 @@
         <v>43</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -14631,13 +14938,13 @@
         <v>43</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -14648,19 +14955,19 @@
         <v>19</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -14671,19 +14978,19 @@
         <v>19</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -14700,13 +15007,13 @@
         <v>45</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -14723,13 +15030,13 @@
         <v>46</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -14746,13 +15053,13 @@
         <v>46</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -14769,13 +15076,13 @@
         <v>46</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -14792,13 +15099,13 @@
         <v>47</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -14815,13 +15122,13 @@
         <v>47</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J141" s="8">
         <v>448</v>
@@ -14841,13 +15148,13 @@
         <v>47</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -14864,13 +15171,13 @@
         <v>48</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -14887,13 +15194,13 @@
         <v>48</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -14910,13 +15217,13 @@
         <v>49</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -14933,13 +15240,13 @@
         <v>49</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -14956,13 +15263,13 @@
         <v>49</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -14979,13 +15286,13 @@
         <v>49</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -15002,13 +15309,13 @@
         <v>49</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -15025,13 +15332,13 @@
         <v>50</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -15048,13 +15355,13 @@
         <v>50</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -15071,13 +15378,13 @@
         <v>34</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -15094,13 +15401,13 @@
         <v>34</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -15117,13 +15424,13 @@
         <v>34</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -15140,13 +15447,13 @@
         <v>34</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J155" s="8">
         <v>494</v>
@@ -15166,13 +15473,13 @@
         <v>35</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -15189,13 +15496,13 @@
         <v>36</v>
       </c>
       <c r="E157" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="G157" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -15212,13 +15519,13 @@
         <v>36</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -15235,13 +15542,13 @@
         <v>36</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -15258,13 +15565,13 @@
         <v>36</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -15281,13 +15588,13 @@
         <v>37</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -15304,13 +15611,13 @@
         <v>37</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -15327,13 +15634,13 @@
         <v>37</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -15350,13 +15657,13 @@
         <v>37</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -15373,13 +15680,13 @@
         <v>38</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -15396,13 +15703,13 @@
         <v>38</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -15419,13 +15726,13 @@
         <v>38</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -15442,13 +15749,13 @@
         <v>38</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -15465,13 +15772,13 @@
         <v>38</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J169" s="8">
         <v>539</v>
@@ -15491,13 +15798,13 @@
         <v>38</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -15514,13 +15821,13 @@
         <v>39</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -15537,13 +15844,13 @@
         <v>39</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -15560,13 +15867,13 @@
         <v>40</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -15583,13 +15890,13 @@
         <v>40</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -15606,13 +15913,13 @@
         <v>40</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -15629,13 +15936,13 @@
         <v>40</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -15652,13 +15959,13 @@
         <v>40</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -15675,13 +15982,13 @@
         <v>41</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -15698,13 +16005,13 @@
         <v>41</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -15721,13 +16028,13 @@
         <v>42</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G180" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -15744,13 +16051,13 @@
         <v>42</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G181" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -15767,13 +16074,13 @@
         <v>42</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G182" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -15790,13 +16097,13 @@
         <v>42</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="J183" s="8">
         <v>586</v>
@@ -15816,13 +16123,13 @@
         <v>42</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -15839,13 +16146,13 @@
         <v>30</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -15862,13 +16169,13 @@
         <v>30</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -15885,13 +16192,13 @@
         <v>32</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -15908,13 +16215,13 @@
         <v>32</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G188" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -15931,13 +16238,13 @@
         <v>31</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G189" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -15954,13 +16261,13 @@
         <v>31</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -15977,13 +16284,13 @@
         <v>31</v>
       </c>
       <c r="E191" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F191" s="4" t="s">
-        <v>458</v>
-      </c>
       <c r="G191" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -16000,13 +16307,13 @@
         <v>33</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -16023,13 +16330,13 @@
         <v>33</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -16046,13 +16353,13 @@
         <v>33</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -16069,13 +16376,13 @@
         <v>33</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -16092,13 +16399,13 @@
         <v>33</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -16115,13 +16422,13 @@
         <v>23</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J197" s="8">
         <v>641</v>
@@ -16141,13 +16448,13 @@
         <v>23</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -16164,13 +16471,13 @@
         <v>23</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -16187,13 +16494,13 @@
         <v>23</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -16210,13 +16517,13 @@
         <v>23</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -16233,13 +16540,13 @@
         <v>24</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -16256,13 +16563,13 @@
         <v>24</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -16279,13 +16586,13 @@
         <v>24</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -16302,13 +16609,13 @@
         <v>25</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -16325,13 +16632,13 @@
         <v>25</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -16348,13 +16655,13 @@
         <v>25</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -16371,13 +16678,13 @@
         <v>25</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -16394,13 +16701,13 @@
         <v>25</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -16417,13 +16724,13 @@
         <v>26</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -16440,13 +16747,13 @@
         <v>26</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J211" s="8">
         <v>697</v>
@@ -16466,13 +16773,13 @@
         <v>26</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G212" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -16489,13 +16796,13 @@
         <v>26</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -16512,13 +16819,13 @@
         <v>28</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -16535,13 +16842,13 @@
         <v>28</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -16558,13 +16865,13 @@
         <v>29</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G216" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -16581,13 +16888,13 @@
         <v>29</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -16604,13 +16911,13 @@
         <v>29</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J218" s="8">
         <v>722</v>
@@ -16635,13 +16942,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -16745,7 +17052,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B11" s="3">
         <f>SUM(B2:B10)</f>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21180" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21180" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="전체 주제" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="595">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -11061,6 +11061,14 @@
       </rPr>
       <t>스크립팅</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11163,7 +11171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11234,6 +11242,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11526,7 +11537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47:F51"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12831,60 +12842,64 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="19">
+      <c r="A45" s="14">
         <v>2</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="23">
+      <c r="H45" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="I45" s="17">
         <v>43123</v>
       </c>
-      <c r="J45" s="19"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="19">
+      <c r="A46" s="14">
         <v>2</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="I46" s="23">
+      <c r="H46" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I46" s="17">
         <v>43123</v>
       </c>
-      <c r="J46" s="19"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="19">
@@ -12909,7 +12924,9 @@
         <v>551</v>
       </c>
       <c r="H47" s="21"/>
-      <c r="I47" s="23"/>
+      <c r="I47" s="23">
+        <v>43123</v>
+      </c>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10">

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="599">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -10735,10 +10735,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -11064,11 +11060,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>대략 주당 50페이지</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11143,12 +11159,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -11165,13 +11181,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11229,6 +11254,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -11244,7 +11272,16 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11533,11 +11570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11553,7 +11590,7 @@
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1">
+    <row r="1" spans="1:11" s="13" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -11584,8 +11621,11 @@
       <c r="J1" s="9" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -11613,7 +11653,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -11641,7 +11681,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -11669,7 +11709,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -11697,7 +11737,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -11725,7 +11765,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="14">
         <v>1</v>
       </c>
@@ -11753,7 +11793,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -11781,7 +11821,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -11809,7 +11849,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -11837,7 +11877,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="14">
         <v>1</v>
       </c>
@@ -11865,7 +11905,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="14">
         <v>1</v>
       </c>
@@ -11893,7 +11933,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="14">
         <v>1</v>
       </c>
@@ -11921,7 +11961,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="14">
         <v>1</v>
       </c>
@@ -11949,7 +11989,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -11979,7 +12019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="14">
         <v>1</v>
       </c>
@@ -12750,7 +12790,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>585</v>
+        <v>15</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>95</v>
@@ -12832,7 +12872,7 @@
         <v>547</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I44" s="17">
         <v>43121</v>
@@ -12852,19 +12892,19 @@
         <v>99</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>591</v>
+      <c r="F45" s="19" t="s">
+        <v>590</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>550</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I45" s="17">
         <v>43123</v>
@@ -12887,14 +12927,14 @@
       <c r="E46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>592</v>
+      <c r="F46" s="19" t="s">
+        <v>591</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>551</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="I46" s="17">
         <v>43123</v>
@@ -12902,1068 +12942,1305 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="19">
+      <c r="A47" s="14">
         <v>2</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="23">
-        <v>43123</v>
-      </c>
-      <c r="J47" s="19"/>
+      <c r="H47" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="I47" s="17">
+        <v>43124</v>
+      </c>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="19">
+      <c r="A48" s="14">
         <v>2</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="19"/>
+      <c r="H48" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="I48" s="17">
+        <v>43125</v>
+      </c>
+      <c r="J48" s="14">
+        <v>155</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="19">
+      <c r="A49" s="14">
         <v>2</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="19"/>
+      <c r="H49" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I49" s="17">
+        <v>43132</v>
+      </c>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="19">
+      <c r="A50" s="14">
         <v>2</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="19"/>
+      <c r="H50" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I50" s="17">
+        <v>43132</v>
+      </c>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="19">
+      <c r="A51" s="14">
         <v>2</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="19">
+      <c r="H51" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I51" s="17">
+        <v>43132</v>
+      </c>
+      <c r="J51" s="14">
         <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="19">
+      <c r="A52" s="14">
         <v>2</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="19"/>
+      <c r="H52" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I52" s="17">
+        <v>43132</v>
+      </c>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="19">
+      <c r="A53" s="14">
         <v>2</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="19"/>
+      <c r="H53" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I53" s="17">
+        <v>43132</v>
+      </c>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="19">
+      <c r="A54" s="14">
         <v>2</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="19"/>
+      <c r="H54" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I54" s="17">
+        <v>43133</v>
+      </c>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="19">
+      <c r="A55" s="14">
         <v>2</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="19"/>
+      <c r="H55" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I55" s="17">
+        <v>43133</v>
+      </c>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="19">
+      <c r="A56" s="14">
         <v>2</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="H56" s="21"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="19"/>
+      <c r="H56" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I56" s="17">
+        <v>43133</v>
+      </c>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="19">
+      <c r="A57" s="14">
         <v>2</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="H57" s="21"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="19">
+      <c r="H57" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I57" s="17">
+        <v>43133</v>
+      </c>
+      <c r="J57" s="14">
         <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="19">
+      <c r="A58" s="14">
         <v>2</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="19"/>
+      <c r="H58" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I58" s="17">
+        <v>43134</v>
+      </c>
+      <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="19">
+      <c r="A59" s="14">
         <v>2</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F59" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="H59" s="21"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="19">
+      <c r="H59" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I59" s="17">
+        <v>43134</v>
+      </c>
+      <c r="J59" s="14">
         <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="8">
+      <c r="A60" s="14">
         <v>2</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H60" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I60" s="17">
+        <v>43134</v>
+      </c>
+      <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="8">
+      <c r="A61" s="14">
         <v>2</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H61" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I61" s="17">
+        <v>43134</v>
+      </c>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="8">
+      <c r="A62" s="14">
         <v>2</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H62" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I62" s="17">
+        <v>43135</v>
+      </c>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="8">
+      <c r="A63" s="14">
         <v>3</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H63" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I63" s="17">
+        <v>43135</v>
+      </c>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="8">
+      <c r="A64" s="14">
         <v>3</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="12" t="s">
         <v>554</v>
       </c>
+      <c r="H64" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I64" s="17">
+        <v>43135</v>
+      </c>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="8">
+      <c r="A65" s="14">
         <v>3</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H65" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I65" s="17">
+        <v>43135</v>
+      </c>
+      <c r="J65" s="14"/>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="8">
+      <c r="A66" s="14">
         <v>3</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H66" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I66" s="17">
+        <v>43135</v>
+      </c>
+      <c r="J66" s="14">
+        <v>195</v>
+      </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="8">
+      <c r="A67" s="14">
         <v>3</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H67" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I67" s="17">
+        <v>43138</v>
+      </c>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="8">
+      <c r="A68" s="14">
         <v>3</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="12" t="s">
         <v>553</v>
       </c>
+      <c r="H68" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I68" s="17">
+        <v>43138</v>
+      </c>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="8">
+      <c r="A69" s="14">
         <v>3</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="12" t="s">
         <v>555</v>
       </c>
+      <c r="H69" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="I69" s="17">
+        <v>43138</v>
+      </c>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="8">
+      <c r="A70" s="14">
         <v>3</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="12" t="s">
         <v>552</v>
       </c>
+      <c r="H70" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I70" s="17">
+        <v>43138</v>
+      </c>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="8">
+      <c r="A71" s="14">
         <v>3</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="J71" s="8">
+      <c r="H71" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I71" s="17">
+        <v>43138</v>
+      </c>
+      <c r="J71" s="14">
         <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="8">
+      <c r="A72" s="14">
         <v>3</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="12" t="s">
         <v>552</v>
       </c>
+      <c r="H72" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="I72" s="17">
+        <v>43138</v>
+      </c>
+      <c r="J72" s="14">
+        <v>217</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="8">
+      <c r="A73" s="20">
         <v>3</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="22" t="s">
         <v>552</v>
       </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J73" s="20"/>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="8">
+      <c r="A74" s="20">
         <v>3</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="22" t="s">
         <v>552</v>
       </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J74" s="20"/>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="8">
+      <c r="A75" s="20">
         <v>3</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>586</v>
-      </c>
+      <c r="G75" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="8">
+      <c r="A76" s="20">
         <v>3</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="22" t="s">
         <v>556</v>
       </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J76" s="20"/>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="8">
+      <c r="A77" s="20">
         <v>3</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="22" t="s">
         <v>556</v>
       </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J77" s="20"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="8">
+      <c r="A78" s="20">
         <v>3</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="22" t="s">
         <v>557</v>
       </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="8">
+      <c r="A79" s="20">
         <v>3</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="22" t="s">
         <v>556</v>
       </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J79" s="20"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="8">
+      <c r="A80" s="20">
         <v>3</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="22" t="s">
         <v>557</v>
       </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="24">
+        <v>43140</v>
+      </c>
+      <c r="J80" s="20">
+        <v>236</v>
+      </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="8">
+      <c r="A81" s="20">
         <v>4</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="22" t="s">
         <v>557</v>
       </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="8">
+      <c r="A82" s="20">
         <v>4</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="22" t="s">
         <v>556</v>
       </c>
+      <c r="H82" s="22"/>
+      <c r="I82" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J82" s="20"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="8">
+      <c r="A83" s="20">
         <v>4</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="22" t="s">
         <v>557</v>
       </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J83" s="20"/>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="8">
+      <c r="A84" s="20">
         <v>4</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="22">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="22" t="s">
         <v>557</v>
       </c>
+      <c r="H84" s="22"/>
+      <c r="I84" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J84" s="20"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="8">
+      <c r="A85" s="20">
         <v>4</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="22">
         <v>4.2</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="J85" s="8">
+      <c r="H85" s="22"/>
+      <c r="I85" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="20">
+        <v>4</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="22">
+        <v>4.2</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H86" s="22"/>
+      <c r="I86" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="20">
+        <v>4</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="22">
+        <v>4.2</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H87" s="22"/>
+      <c r="I87" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="20">
+        <v>4</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="22">
+        <v>4.3</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H88" s="22"/>
+      <c r="I88" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="20">
+        <v>4</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="22">
+        <v>4.3</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="H89" s="22"/>
+      <c r="I89" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J89" s="20"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="20">
+        <v>4</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" s="23" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="8">
-        <v>4</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="G90" s="22" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="8">
-        <v>4</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="8">
-        <v>4</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="8">
-        <v>4</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="8">
-        <v>4</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>556</v>
+      <c r="H90" s="22"/>
+      <c r="I90" s="24">
+        <v>43142</v>
+      </c>
+      <c r="J90" s="20">
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -14567,7 +14844,7 @@
         <v>301</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -14892,7 +15169,7 @@
         <v>334</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -14984,7 +15261,7 @@
         <v>342</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -16914,29 +17191,31 @@
         <v>569</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="8">
+    <row r="218" spans="1:10" s="25" customFormat="1">
+      <c r="A218" s="25">
         <v>9</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="B218" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="27">
         <v>9.6</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="D218" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="E218" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="G218" s="7" t="s">
+      <c r="G218" s="27" t="s">
         <v>569</v>
       </c>
-      <c r="J218" s="8">
+      <c r="H218" s="27"/>
+      <c r="I218" s="28"/>
+      <c r="J218" s="25">
         <v>722</v>
       </c>
     </row>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -11704,7 +11704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11714,12 +11714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11824,7 +11818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11894,21 +11888,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -11948,9 +11927,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -11979,9 +11955,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12273,8 +12246,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12295,8 +12268,8 @@
         <v>617</v>
       </c>
       <c r="C1" s="8" t="str">
-        <f>ROUND(89/217*100,0)&amp;"%"</f>
-        <v>41%</v>
+        <f>ROUND(96/217*100,0)&amp;"%"</f>
+        <v>44%</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1">
@@ -12338,7 +12311,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="50">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
       <c r="B3" s="14">
@@ -12369,7 +12342,7 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="51">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
       <c r="B4" s="14">
@@ -12400,7 +12373,7 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="51">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
       <c r="B5" s="14">
@@ -12431,7 +12404,7 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="51">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
       <c r="B6" s="14">
@@ -12462,7 +12435,7 @@
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="51">
+      <c r="A7" s="45">
         <v>5</v>
       </c>
       <c r="B7" s="14">
@@ -12493,7 +12466,7 @@
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="51">
+      <c r="A8" s="45">
         <v>6</v>
       </c>
       <c r="B8" s="14">
@@ -12524,7 +12497,7 @@
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="51">
+      <c r="A9" s="45">
         <v>7</v>
       </c>
       <c r="B9" s="14">
@@ -12555,7 +12528,7 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="51">
+      <c r="A10" s="45">
         <v>8</v>
       </c>
       <c r="B10" s="14">
@@ -12586,7 +12559,7 @@
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="51">
+      <c r="A11" s="45">
         <v>9</v>
       </c>
       <c r="B11" s="14">
@@ -12617,7 +12590,7 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="51">
+      <c r="A12" s="45">
         <v>10</v>
       </c>
       <c r="B12" s="14">
@@ -12648,7 +12621,7 @@
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="51">
+      <c r="A13" s="45">
         <v>11</v>
       </c>
       <c r="B13" s="14">
@@ -12679,7 +12652,7 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="51">
+      <c r="A14" s="45">
         <v>12</v>
       </c>
       <c r="B14" s="14">
@@ -12710,7 +12683,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="51">
+      <c r="A15" s="45">
         <v>13</v>
       </c>
       <c r="B15" s="14">
@@ -12741,7 +12714,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="51">
+      <c r="A16" s="45">
         <v>14</v>
       </c>
       <c r="B16" s="14">
@@ -12774,7 +12747,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="51">
+      <c r="A17" s="45">
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -12805,7 +12778,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="51">
+      <c r="A18" s="45">
         <v>16</v>
       </c>
       <c r="B18" s="14">
@@ -12836,7 +12809,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="51">
+      <c r="A19" s="45">
         <v>17</v>
       </c>
       <c r="B19" s="14">
@@ -12867,7 +12840,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="51">
+      <c r="A20" s="45">
         <v>18</v>
       </c>
       <c r="B20" s="14">
@@ -12898,7 +12871,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="51">
+      <c r="A21" s="45">
         <v>19</v>
       </c>
       <c r="B21" s="14">
@@ -12929,7 +12902,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="51">
+      <c r="A22" s="45">
         <v>20</v>
       </c>
       <c r="B22" s="14">
@@ -12960,7 +12933,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="51">
+      <c r="A23" s="45">
         <v>21</v>
       </c>
       <c r="B23" s="14">
@@ -12991,7 +12964,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="51">
+      <c r="A24" s="45">
         <v>22</v>
       </c>
       <c r="B24" s="14">
@@ -13022,7 +12995,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="51">
+      <c r="A25" s="45">
         <v>23</v>
       </c>
       <c r="B25" s="14">
@@ -13053,7 +13026,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="51">
+      <c r="A26" s="45">
         <v>24</v>
       </c>
       <c r="B26" s="14">
@@ -13084,7 +13057,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="51">
+      <c r="A27" s="45">
         <v>25</v>
       </c>
       <c r="B27" s="14">
@@ -13117,7 +13090,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="51">
+      <c r="A28" s="45">
         <v>26</v>
       </c>
       <c r="B28" s="14">
@@ -13150,7 +13123,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="51">
+      <c r="A29" s="45">
         <v>27</v>
       </c>
       <c r="B29" s="14">
@@ -13183,7 +13156,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="51">
+      <c r="A30" s="45">
         <v>28</v>
       </c>
       <c r="B30" s="14">
@@ -13218,7 +13191,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="51">
+      <c r="A31" s="45">
         <v>29</v>
       </c>
       <c r="B31" s="14">
@@ -13251,7 +13224,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="51">
+      <c r="A32" s="45">
         <v>30</v>
       </c>
       <c r="B32" s="14">
@@ -13284,7 +13257,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="51">
+      <c r="A33" s="45">
         <v>31</v>
       </c>
       <c r="B33" s="14">
@@ -13317,7 +13290,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="51">
+      <c r="A34" s="45">
         <v>32</v>
       </c>
       <c r="B34" s="14">
@@ -13350,7 +13323,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="51">
+      <c r="A35" s="45">
         <v>33</v>
       </c>
       <c r="B35" s="14">
@@ -13383,7 +13356,7 @@
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="51">
+      <c r="A36" s="45">
         <v>34</v>
       </c>
       <c r="B36" s="14">
@@ -13416,7 +13389,7 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="51">
+      <c r="A37" s="45">
         <v>35</v>
       </c>
       <c r="B37" s="14">
@@ -13449,7 +13422,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="51">
+      <c r="A38" s="45">
         <v>36</v>
       </c>
       <c r="B38" s="14">
@@ -13484,7 +13457,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="51">
+      <c r="A39" s="45">
         <v>37</v>
       </c>
       <c r="B39" s="14">
@@ -13517,7 +13490,7 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="51">
+      <c r="A40" s="45">
         <v>38</v>
       </c>
       <c r="B40" s="14">
@@ -13550,7 +13523,7 @@
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="51">
+      <c r="A41" s="45">
         <v>39</v>
       </c>
       <c r="B41" s="14">
@@ -13585,7 +13558,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="51">
+      <c r="A42" s="45">
         <v>40</v>
       </c>
       <c r="B42" s="14">
@@ -13618,7 +13591,7 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="51">
+      <c r="A43" s="45">
         <v>41</v>
       </c>
       <c r="B43" s="14">
@@ -13653,7 +13626,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="51">
+      <c r="A44" s="45">
         <v>42</v>
       </c>
       <c r="B44" s="14">
@@ -13688,7 +13661,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="51">
+      <c r="A45" s="45">
         <v>43</v>
       </c>
       <c r="B45" s="14">
@@ -13723,7 +13696,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="51">
+      <c r="A46" s="45">
         <v>44</v>
       </c>
       <c r="B46" s="14">
@@ -13756,7 +13729,7 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="51">
+      <c r="A47" s="45">
         <v>45</v>
       </c>
       <c r="B47" s="14">
@@ -13789,7 +13762,7 @@
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="51">
+      <c r="A48" s="45">
         <v>46</v>
       </c>
       <c r="B48" s="14">
@@ -13822,7 +13795,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="51">
+      <c r="A49" s="45">
         <v>47</v>
       </c>
       <c r="B49" s="14">
@@ -13857,7 +13830,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="51">
+      <c r="A50" s="45">
         <v>48</v>
       </c>
       <c r="B50" s="14">
@@ -13890,7 +13863,7 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="51">
+      <c r="A51" s="45">
         <v>49</v>
       </c>
       <c r="B51" s="14">
@@ -13923,7 +13896,7 @@
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="51">
+      <c r="A52" s="45">
         <v>50</v>
       </c>
       <c r="B52" s="14">
@@ -13958,7 +13931,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="51">
+      <c r="A53" s="45">
         <v>51</v>
       </c>
       <c r="B53" s="14">
@@ -13991,7 +13964,7 @@
       <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="51">
+      <c r="A54" s="45">
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -14024,7 +13997,7 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="51">
+      <c r="A55" s="45">
         <v>53</v>
       </c>
       <c r="B55" s="14">
@@ -14057,7 +14030,7 @@
       <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="51">
+      <c r="A56" s="45">
         <v>54</v>
       </c>
       <c r="B56" s="14">
@@ -14090,7 +14063,7 @@
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="51">
+      <c r="A57" s="45">
         <v>55</v>
       </c>
       <c r="B57" s="14">
@@ -14123,7 +14096,7 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="51">
+      <c r="A58" s="45">
         <v>56</v>
       </c>
       <c r="B58" s="14">
@@ -14158,7 +14131,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="51">
+      <c r="A59" s="45">
         <v>57</v>
       </c>
       <c r="B59" s="14">
@@ -14191,7 +14164,7 @@
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="51">
+      <c r="A60" s="45">
         <v>58</v>
       </c>
       <c r="B60" s="14">
@@ -14226,7 +14199,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="51">
+      <c r="A61" s="45">
         <v>59</v>
       </c>
       <c r="B61" s="14">
@@ -14259,7 +14232,7 @@
       <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="51">
+      <c r="A62" s="45">
         <v>60</v>
       </c>
       <c r="B62" s="14">
@@ -14292,7 +14265,7 @@
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="51">
+      <c r="A63" s="45">
         <v>61</v>
       </c>
       <c r="B63" s="14">
@@ -14325,7 +14298,7 @@
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="51">
+      <c r="A64" s="45">
         <v>62</v>
       </c>
       <c r="B64" s="14">
@@ -14358,7 +14331,7 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="51">
+      <c r="A65" s="45">
         <v>63</v>
       </c>
       <c r="B65" s="14">
@@ -14391,7 +14364,7 @@
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="51">
+      <c r="A66" s="45">
         <v>64</v>
       </c>
       <c r="B66" s="14">
@@ -14424,7 +14397,7 @@
       <c r="K66" s="14"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="51">
+      <c r="A67" s="45">
         <v>65</v>
       </c>
       <c r="B67" s="14">
@@ -14459,40 +14432,40 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="51">
+      <c r="A68" s="45">
         <v>66</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="31">
         <v>3</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="35" t="s">
+      <c r="F68" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="H68" s="35" t="s">
+      <c r="H68" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="I68" s="35" t="s">
+      <c r="I68" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="J68" s="38">
+      <c r="J68" s="33">
         <v>43138</v>
       </c>
-      <c r="K68" s="39"/>
+      <c r="K68" s="34"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="51">
+      <c r="A69" s="45">
         <v>67</v>
       </c>
       <c r="B69" s="14">
@@ -14522,10 +14495,10 @@
       <c r="J69" s="16">
         <v>43138</v>
       </c>
-      <c r="K69" s="40"/>
+      <c r="K69" s="35"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="51">
+      <c r="A70" s="45">
         <v>68</v>
       </c>
       <c r="B70" s="14">
@@ -14555,10 +14528,10 @@
       <c r="J70" s="16">
         <v>43138</v>
       </c>
-      <c r="K70" s="40"/>
+      <c r="K70" s="35"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="51">
+      <c r="A71" s="45">
         <v>69</v>
       </c>
       <c r="B71" s="14">
@@ -14588,10 +14561,10 @@
       <c r="J71" s="16">
         <v>43138</v>
       </c>
-      <c r="K71" s="40"/>
+      <c r="K71" s="35"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="51">
+      <c r="A72" s="45">
         <v>70</v>
       </c>
       <c r="B72" s="14">
@@ -14621,12 +14594,12 @@
       <c r="J72" s="16">
         <v>43138</v>
       </c>
-      <c r="K72" s="40">
+      <c r="K72" s="35">
         <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="51">
+      <c r="A73" s="45">
         <v>71</v>
       </c>
       <c r="B73" s="14">
@@ -14656,12 +14629,12 @@
       <c r="J73" s="16">
         <v>43138</v>
       </c>
-      <c r="K73" s="40">
+      <c r="K73" s="35">
         <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="51">
+      <c r="A74" s="45">
         <v>72</v>
       </c>
       <c r="B74" s="14">
@@ -14691,10 +14664,10 @@
       <c r="J74" s="16">
         <v>43142</v>
       </c>
-      <c r="K74" s="40"/>
+      <c r="K74" s="35"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="51">
+      <c r="A75" s="45">
         <v>73</v>
       </c>
       <c r="B75" s="14">
@@ -14724,10 +14697,10 @@
       <c r="J75" s="16">
         <v>43142</v>
       </c>
-      <c r="K75" s="40"/>
+      <c r="K75" s="35"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="51">
+      <c r="A76" s="45">
         <v>74</v>
       </c>
       <c r="B76" s="14">
@@ -14757,78 +14730,78 @@
       <c r="J76" s="16">
         <v>43142</v>
       </c>
-      <c r="K76" s="40"/>
+      <c r="K76" s="35"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="51">
+      <c r="A77" s="45">
         <v>75</v>
       </c>
-      <c r="B77" s="44">
+      <c r="B77" s="38">
         <v>3</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="44" t="s">
+      <c r="E77" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="F77" s="45" t="s">
+      <c r="F77" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="G77" s="45" t="s">
+      <c r="G77" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="H77" s="45" t="s">
+      <c r="H77" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I77" s="45" t="s">
+      <c r="I77" s="39" t="s">
         <v>607</v>
       </c>
-      <c r="J77" s="46">
+      <c r="J77" s="40">
         <v>43142</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="41">
         <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="51">
+      <c r="A78" s="45">
         <v>76</v>
       </c>
-      <c r="B78" s="44">
+      <c r="B78" s="38">
         <v>3</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="38" t="s">
         <v>610</v>
       </c>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="E78" s="44" t="s">
+      <c r="E78" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="F78" s="45" t="s">
+      <c r="F78" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G78" s="45" t="s">
+      <c r="G78" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="H78" s="45" t="s">
+      <c r="H78" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I78" s="45" t="s">
+      <c r="I78" s="39" t="s">
         <v>607</v>
       </c>
-      <c r="J78" s="46">
+      <c r="J78" s="40">
         <v>43142</v>
       </c>
-      <c r="K78" s="47"/>
+      <c r="K78" s="41"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="51">
+      <c r="A79" s="45">
         <v>77</v>
       </c>
       <c r="B79" s="14">
@@ -14858,10 +14831,10 @@
       <c r="J79" s="16">
         <v>43142</v>
       </c>
-      <c r="K79" s="40"/>
+      <c r="K79" s="35"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="51">
+      <c r="A80" s="45">
         <v>78</v>
       </c>
       <c r="B80" s="14">
@@ -14891,10 +14864,10 @@
       <c r="J80" s="16">
         <v>43142</v>
       </c>
-      <c r="K80" s="40"/>
+      <c r="K80" s="35"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="51">
+      <c r="A81" s="45">
         <v>79</v>
       </c>
       <c r="B81" s="14">
@@ -14924,10 +14897,10 @@
       <c r="J81" s="16">
         <v>43142</v>
       </c>
-      <c r="K81" s="40"/>
+      <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="51">
+      <c r="A82" s="45">
         <v>80</v>
       </c>
       <c r="B82" s="14">
@@ -14957,12 +14930,12 @@
       <c r="J82" s="16">
         <v>43142</v>
       </c>
-      <c r="K82" s="40">
+      <c r="K82" s="35">
         <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="51">
+      <c r="A83" s="45">
         <v>81</v>
       </c>
       <c r="B83" s="14">
@@ -14992,10 +14965,10 @@
       <c r="J83" s="16">
         <v>43142</v>
       </c>
-      <c r="K83" s="40"/>
+      <c r="K83" s="35"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="51">
+      <c r="A84" s="45">
         <v>82</v>
       </c>
       <c r="B84" s="14">
@@ -15025,10 +14998,10 @@
       <c r="J84" s="16">
         <v>43142</v>
       </c>
-      <c r="K84" s="40"/>
+      <c r="K84" s="35"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="51">
+      <c r="A85" s="45">
         <v>83</v>
       </c>
       <c r="B85" s="14">
@@ -15058,10 +15031,10 @@
       <c r="J85" s="16">
         <v>43142</v>
       </c>
-      <c r="K85" s="40"/>
+      <c r="K85" s="35"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="51">
+      <c r="A86" s="45">
         <v>84</v>
       </c>
       <c r="B86" s="14">
@@ -15091,12 +15064,12 @@
       <c r="J86" s="16">
         <v>43142</v>
       </c>
-      <c r="K86" s="40">
+      <c r="K86" s="35">
         <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="51">
+      <c r="A87" s="45">
         <v>85</v>
       </c>
       <c r="B87" s="14">
@@ -15126,10 +15099,10 @@
       <c r="J87" s="16">
         <v>43142</v>
       </c>
-      <c r="K87" s="40"/>
+      <c r="K87" s="35"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="51">
+      <c r="A88" s="45">
         <v>86</v>
       </c>
       <c r="B88" s="14">
@@ -15159,10 +15132,10 @@
       <c r="J88" s="16">
         <v>43142</v>
       </c>
-      <c r="K88" s="40"/>
+      <c r="K88" s="35"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="51">
+      <c r="A89" s="45">
         <v>87</v>
       </c>
       <c r="B89" s="14">
@@ -15192,12 +15165,12 @@
       <c r="J89" s="16">
         <v>43142</v>
       </c>
-      <c r="K89" s="40">
+      <c r="K89" s="35">
         <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="51">
+      <c r="A90" s="45">
         <v>88</v>
       </c>
       <c r="B90" s="14">
@@ -15227,10 +15200,10 @@
       <c r="J90" s="16">
         <v>43142</v>
       </c>
-      <c r="K90" s="40"/>
+      <c r="K90" s="35"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="51">
+      <c r="A91" s="45">
         <v>89</v>
       </c>
       <c r="B91" s="14">
@@ -15260,247 +15233,247 @@
       <c r="J91" s="16">
         <v>43142</v>
       </c>
-      <c r="K91" s="40">
+      <c r="K91" s="35">
         <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="52">
+      <c r="A92" s="45">
         <v>90</v>
       </c>
-      <c r="B92" s="23">
+      <c r="B92" s="14">
         <v>4</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="25">
+      <c r="D92" s="12">
         <v>4.5</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G92" s="26" t="s">
+      <c r="G92" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="H92" s="25" t="s">
+      <c r="H92" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="I92" s="25" t="s">
+      <c r="I92" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J92" s="27">
+      <c r="J92" s="16">
         <v>43143</v>
       </c>
-      <c r="K92" s="41">
+      <c r="K92" s="35">
         <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="52">
+      <c r="A93" s="45">
         <v>91</v>
       </c>
-      <c r="B93" s="23">
+      <c r="B93" s="14">
         <v>4</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="25">
+      <c r="D93" s="12">
         <v>4.5</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="G93" s="26" t="s">
+      <c r="G93" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="H93" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="I93" s="25" t="s">
+      <c r="I93" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J93" s="27">
+      <c r="J93" s="16">
         <v>43143</v>
       </c>
-      <c r="K93" s="41"/>
+      <c r="K93" s="35"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="52">
+      <c r="A94" s="45">
         <v>92</v>
       </c>
-      <c r="B94" s="23">
+      <c r="B94" s="14">
         <v>4</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D94" s="25">
+      <c r="D94" s="12">
         <v>4.5</v>
       </c>
-      <c r="E94" s="24" t="s">
+      <c r="E94" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F94" s="25" t="s">
+      <c r="F94" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="G94" s="26" t="s">
+      <c r="G94" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="I94" s="25" t="s">
+      <c r="I94" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J94" s="27">
+      <c r="J94" s="16">
         <v>43143</v>
       </c>
-      <c r="K94" s="41"/>
+      <c r="K94" s="35"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="48">
+      <c r="A95" s="45">
         <v>93</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="14">
         <v>4</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J95" s="17">
+      <c r="J95" s="16">
         <v>43143</v>
       </c>
-      <c r="K95" s="32">
+      <c r="K95" s="35">
         <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="48">
+      <c r="A96" s="45">
         <v>94</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="14">
         <v>4</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J96" s="16">
         <v>43143</v>
       </c>
-      <c r="K96" s="32"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="48">
+      <c r="A97" s="45">
         <v>95</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="14">
         <v>4</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="12">
         <v>4.7</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J97" s="17">
+      <c r="J97" s="16">
         <v>43143</v>
       </c>
-      <c r="K97" s="32"/>
+      <c r="K97" s="35"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="48">
+      <c r="A98" s="45">
         <v>96</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="14">
         <v>4</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="12">
         <v>4.8</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="J98" s="17">
+      <c r="J98" s="16">
         <v>43143</v>
       </c>
-      <c r="K98" s="32"/>
+      <c r="K98" s="35"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="48">
+      <c r="A99" s="42">
         <v>97</v>
       </c>
       <c r="B99" s="8">
@@ -15527,15 +15500,12 @@
       <c r="I99" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J99" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K99" s="32">
+      <c r="K99" s="27">
         <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="48">
+      <c r="A100" s="42">
         <v>98</v>
       </c>
       <c r="B100" s="8">
@@ -15562,13 +15532,10 @@
       <c r="I100" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J100" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K100" s="32"/>
+      <c r="K100" s="27"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="48">
+      <c r="A101" s="42">
         <v>99</v>
       </c>
       <c r="B101" s="8">
@@ -15595,13 +15562,10 @@
       <c r="I101" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J101" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K101" s="32"/>
+      <c r="K101" s="27"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="48">
+      <c r="A102" s="42">
         <v>100</v>
       </c>
       <c r="B102" s="8">
@@ -15628,13 +15592,10 @@
       <c r="I102" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J102" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K102" s="32"/>
+      <c r="K102" s="27"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="48">
+      <c r="A103" s="42">
         <v>101</v>
       </c>
       <c r="B103" s="8">
@@ -15661,15 +15622,12 @@
       <c r="I103" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J103" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K103" s="32">
+      <c r="K103" s="27">
         <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="48">
+      <c r="A104" s="42">
         <v>102</v>
       </c>
       <c r="B104" s="8">
@@ -15696,13 +15654,10 @@
       <c r="I104" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J104" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K104" s="32"/>
+      <c r="K104" s="27"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="48">
+      <c r="A105" s="42">
         <v>103</v>
       </c>
       <c r="B105" s="8">
@@ -15729,13 +15684,10 @@
       <c r="I105" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J105" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K105" s="32"/>
+      <c r="K105" s="27"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="48">
+      <c r="A106" s="42">
         <v>104</v>
       </c>
       <c r="B106" s="8">
@@ -15762,13 +15714,10 @@
       <c r="I106" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J106" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K106" s="32"/>
+      <c r="K106" s="27"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="48">
+      <c r="A107" s="42">
         <v>105</v>
       </c>
       <c r="B107" s="8">
@@ -15795,13 +15744,10 @@
       <c r="I107" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J107" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K107" s="32"/>
+      <c r="K107" s="27"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="48">
+      <c r="A108" s="42">
         <v>106</v>
       </c>
       <c r="B108" s="8">
@@ -15828,13 +15774,10 @@
       <c r="I108" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="J108" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K108" s="32"/>
+      <c r="K108" s="27"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="48">
+      <c r="A109" s="42">
         <v>107</v>
       </c>
       <c r="B109" s="19">
@@ -15861,50 +15804,47 @@
       <c r="I109" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="J109" s="17">
-        <v>43143</v>
-      </c>
-      <c r="K109" s="33">
+      <c r="K109" s="28">
         <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="48">
+      <c r="A110" s="42">
         <v>108</v>
       </c>
-      <c r="B110" s="42">
+      <c r="B110" s="36">
         <v>5</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="24">
         <v>5.5</v>
       </c>
-      <c r="E110" s="28" t="s">
+      <c r="E110" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="I110" s="29" t="s">
+      <c r="I110" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="J110" s="30">
+      <c r="J110" s="25">
         <v>43144</v>
       </c>
-      <c r="K110" s="31">
+      <c r="K110" s="26">
         <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="48">
+      <c r="A111" s="42">
         <v>109</v>
       </c>
       <c r="B111" s="8">
@@ -15934,10 +15874,10 @@
       <c r="J111" s="17">
         <v>43144</v>
       </c>
-      <c r="K111" s="32"/>
+      <c r="K111" s="27"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="48">
+      <c r="A112" s="42">
         <v>110</v>
       </c>
       <c r="B112" s="8">
@@ -15967,10 +15907,10 @@
       <c r="J112" s="17">
         <v>43144</v>
       </c>
-      <c r="K112" s="32"/>
+      <c r="K112" s="27"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="48">
+      <c r="A113" s="42">
         <v>111</v>
       </c>
       <c r="B113" s="8">
@@ -16000,10 +15940,10 @@
       <c r="J113" s="17">
         <v>43144</v>
       </c>
-      <c r="K113" s="32"/>
+      <c r="K113" s="27"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="48">
+      <c r="A114" s="42">
         <v>112</v>
       </c>
       <c r="B114" s="8">
@@ -16033,10 +15973,10 @@
       <c r="J114" s="17">
         <v>43144</v>
       </c>
-      <c r="K114" s="32"/>
+      <c r="K114" s="27"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="48">
+      <c r="A115" s="42">
         <v>113</v>
       </c>
       <c r="B115" s="8">
@@ -16066,10 +16006,10 @@
       <c r="J115" s="17">
         <v>43144</v>
       </c>
-      <c r="K115" s="32"/>
+      <c r="K115" s="27"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="48">
+      <c r="A116" s="42">
         <v>114</v>
       </c>
       <c r="B116" s="8">
@@ -16099,12 +16039,12 @@
       <c r="J116" s="17">
         <v>43145</v>
       </c>
-      <c r="K116" s="32">
+      <c r="K116" s="27">
         <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="48">
+      <c r="A117" s="42">
         <v>115</v>
       </c>
       <c r="B117" s="8">
@@ -16134,10 +16074,10 @@
       <c r="J117" s="17">
         <v>43145</v>
       </c>
-      <c r="K117" s="32"/>
+      <c r="K117" s="27"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="48">
+      <c r="A118" s="42">
         <v>116</v>
       </c>
       <c r="B118" s="8">
@@ -16167,10 +16107,10 @@
       <c r="J118" s="17">
         <v>43145</v>
       </c>
-      <c r="K118" s="32"/>
+      <c r="K118" s="27"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="48">
+      <c r="A119" s="42">
         <v>117</v>
       </c>
       <c r="B119" s="8">
@@ -16200,10 +16140,10 @@
       <c r="J119" s="17">
         <v>43145</v>
       </c>
-      <c r="K119" s="32"/>
+      <c r="K119" s="27"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="48">
+      <c r="A120" s="42">
         <v>118</v>
       </c>
       <c r="B120" s="8">
@@ -16233,10 +16173,10 @@
       <c r="J120" s="17">
         <v>43145</v>
       </c>
-      <c r="K120" s="32"/>
+      <c r="K120" s="27"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="48">
+      <c r="A121" s="42">
         <v>119</v>
       </c>
       <c r="B121" s="8">
@@ -16266,10 +16206,10 @@
       <c r="J121" s="17">
         <v>43145</v>
       </c>
-      <c r="K121" s="32"/>
+      <c r="K121" s="27"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="48">
+      <c r="A122" s="42">
         <v>120</v>
       </c>
       <c r="B122" s="8">
@@ -16299,10 +16239,10 @@
       <c r="J122" s="17">
         <v>43146</v>
       </c>
-      <c r="K122" s="32"/>
+      <c r="K122" s="27"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="48">
+      <c r="A123" s="42">
         <v>121</v>
       </c>
       <c r="B123" s="8">
@@ -16332,10 +16272,10 @@
       <c r="J123" s="17">
         <v>43146</v>
       </c>
-      <c r="K123" s="32"/>
+      <c r="K123" s="27"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="48">
+      <c r="A124" s="42">
         <v>122</v>
       </c>
       <c r="B124" s="8">
@@ -16365,10 +16305,10 @@
       <c r="J124" s="17">
         <v>43146</v>
       </c>
-      <c r="K124" s="32"/>
+      <c r="K124" s="27"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="48">
+      <c r="A125" s="42">
         <v>123</v>
       </c>
       <c r="B125" s="8">
@@ -16398,10 +16338,10 @@
       <c r="J125" s="17">
         <v>43146</v>
       </c>
-      <c r="K125" s="32"/>
+      <c r="K125" s="27"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="48">
+      <c r="A126" s="42">
         <v>124</v>
       </c>
       <c r="B126" s="8">
@@ -16431,10 +16371,10 @@
       <c r="J126" s="17">
         <v>43146</v>
       </c>
-      <c r="K126" s="32"/>
+      <c r="K126" s="27"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="48">
+      <c r="A127" s="42">
         <v>125</v>
       </c>
       <c r="B127" s="8">
@@ -16464,10 +16404,10 @@
       <c r="J127" s="17">
         <v>43146</v>
       </c>
-      <c r="K127" s="32"/>
+      <c r="K127" s="27"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="48">
+      <c r="A128" s="42">
         <v>126</v>
       </c>
       <c r="B128" s="8">
@@ -16497,10 +16437,10 @@
       <c r="J128" s="17">
         <v>43147</v>
       </c>
-      <c r="K128" s="32"/>
+      <c r="K128" s="27"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="48">
+      <c r="A129" s="42">
         <v>127</v>
       </c>
       <c r="B129" s="8">
@@ -16530,10 +16470,10 @@
       <c r="J129" s="17">
         <v>43147</v>
       </c>
-      <c r="K129" s="32"/>
+      <c r="K129" s="27"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="48">
+      <c r="A130" s="42">
         <v>128</v>
       </c>
       <c r="B130" s="8">
@@ -16563,10 +16503,10 @@
       <c r="J130" s="17">
         <v>43147</v>
       </c>
-      <c r="K130" s="32"/>
+      <c r="K130" s="27"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="48">
+      <c r="A131" s="42">
         <v>129</v>
       </c>
       <c r="B131" s="8">
@@ -16596,10 +16536,10 @@
       <c r="J131" s="17">
         <v>43147</v>
       </c>
-      <c r="K131" s="32"/>
+      <c r="K131" s="27"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="48">
+      <c r="A132" s="42">
         <v>130</v>
       </c>
       <c r="B132" s="8">
@@ -16629,10 +16569,10 @@
       <c r="J132" s="17">
         <v>43147</v>
       </c>
-      <c r="K132" s="32"/>
+      <c r="K132" s="27"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="48">
+      <c r="A133" s="42">
         <v>131</v>
       </c>
       <c r="B133" s="8">
@@ -16662,10 +16602,10 @@
       <c r="J133" s="17">
         <v>43147</v>
       </c>
-      <c r="K133" s="32"/>
+      <c r="K133" s="27"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="48">
+      <c r="A134" s="42">
         <v>132</v>
       </c>
       <c r="B134" s="8">
@@ -16695,10 +16635,10 @@
       <c r="J134" s="17">
         <v>43149</v>
       </c>
-      <c r="K134" s="32"/>
+      <c r="K134" s="27"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="48">
+      <c r="A135" s="42">
         <v>133</v>
       </c>
       <c r="B135" s="8">
@@ -16728,10 +16668,10 @@
       <c r="J135" s="17">
         <v>43149</v>
       </c>
-      <c r="K135" s="32"/>
+      <c r="K135" s="27"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="48">
+      <c r="A136" s="42">
         <v>134</v>
       </c>
       <c r="B136" s="8">
@@ -16761,10 +16701,10 @@
       <c r="J136" s="17">
         <v>43149</v>
       </c>
-      <c r="K136" s="32"/>
+      <c r="K136" s="27"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="48">
+      <c r="A137" s="42">
         <v>135</v>
       </c>
       <c r="B137" s="8">
@@ -16794,10 +16734,10 @@
       <c r="J137" s="17">
         <v>43149</v>
       </c>
-      <c r="K137" s="32"/>
+      <c r="K137" s="27"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="48">
+      <c r="A138" s="42">
         <v>136</v>
       </c>
       <c r="B138" s="8">
@@ -16827,10 +16767,10 @@
       <c r="J138" s="17">
         <v>43149</v>
       </c>
-      <c r="K138" s="32"/>
+      <c r="K138" s="27"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="48">
+      <c r="A139" s="42">
         <v>137</v>
       </c>
       <c r="B139" s="8">
@@ -16860,10 +16800,10 @@
       <c r="J139" s="17">
         <v>43149</v>
       </c>
-      <c r="K139" s="32"/>
+      <c r="K139" s="27"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="48">
+      <c r="A140" s="42">
         <v>138</v>
       </c>
       <c r="B140" s="8">
@@ -16893,10 +16833,10 @@
       <c r="J140" s="17">
         <v>43149</v>
       </c>
-      <c r="K140" s="32"/>
+      <c r="K140" s="27"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="48">
+      <c r="A141" s="42">
         <v>139</v>
       </c>
       <c r="B141" s="8">
@@ -16926,10 +16866,10 @@
       <c r="J141" s="17">
         <v>43149</v>
       </c>
-      <c r="K141" s="32"/>
+      <c r="K141" s="27"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="48">
+      <c r="A142" s="42">
         <v>140</v>
       </c>
       <c r="B142" s="8">
@@ -16959,10 +16899,10 @@
       <c r="J142" s="17">
         <v>43149</v>
       </c>
-      <c r="K142" s="32"/>
+      <c r="K142" s="27"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="48">
+      <c r="A143" s="42">
         <v>141</v>
       </c>
       <c r="B143" s="8">
@@ -16992,10 +16932,10 @@
       <c r="J143" s="17">
         <v>43149</v>
       </c>
-      <c r="K143" s="32"/>
+      <c r="K143" s="27"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="48">
+      <c r="A144" s="42">
         <v>142</v>
       </c>
       <c r="B144" s="8">
@@ -17025,10 +16965,10 @@
       <c r="J144" s="17">
         <v>43149</v>
       </c>
-      <c r="K144" s="32"/>
+      <c r="K144" s="27"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="48">
+      <c r="A145" s="42">
         <v>143</v>
       </c>
       <c r="B145" s="8">
@@ -17058,10 +16998,10 @@
       <c r="J145" s="17">
         <v>43149</v>
       </c>
-      <c r="K145" s="32"/>
+      <c r="K145" s="27"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="48">
+      <c r="A146" s="42">
         <v>144</v>
       </c>
       <c r="B146" s="8">
@@ -17091,10 +17031,10 @@
       <c r="J146" s="17">
         <v>43149</v>
       </c>
-      <c r="K146" s="32"/>
+      <c r="K146" s="27"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="48">
+      <c r="A147" s="42">
         <v>145</v>
       </c>
       <c r="B147" s="8">
@@ -17124,10 +17064,10 @@
       <c r="J147" s="17">
         <v>43149</v>
       </c>
-      <c r="K147" s="32"/>
+      <c r="K147" s="27"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="48">
+      <c r="A148" s="42">
         <v>146</v>
       </c>
       <c r="B148" s="8">
@@ -17157,10 +17097,10 @@
       <c r="J148" s="17">
         <v>43149</v>
       </c>
-      <c r="K148" s="32"/>
+      <c r="K148" s="27"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="48">
+      <c r="A149" s="42">
         <v>147</v>
       </c>
       <c r="B149" s="8">
@@ -17190,10 +17130,10 @@
       <c r="J149" s="17">
         <v>43149</v>
       </c>
-      <c r="K149" s="32"/>
+      <c r="K149" s="27"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="48">
+      <c r="A150" s="42">
         <v>148</v>
       </c>
       <c r="B150" s="8">
@@ -17223,10 +17163,10 @@
       <c r="J150" s="17">
         <v>43149</v>
       </c>
-      <c r="K150" s="32"/>
+      <c r="K150" s="27"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="48">
+      <c r="A151" s="42">
         <v>149</v>
       </c>
       <c r="B151" s="8">
@@ -17256,10 +17196,10 @@
       <c r="J151" s="17">
         <v>43149</v>
       </c>
-      <c r="K151" s="32"/>
+      <c r="K151" s="27"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="48">
+      <c r="A152" s="42">
         <v>150</v>
       </c>
       <c r="B152" s="19">
@@ -17277,7 +17217,7 @@
       <c r="F152" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="G152" s="43" t="s">
+      <c r="G152" s="37" t="s">
         <v>371</v>
       </c>
       <c r="H152" s="21" t="s">
@@ -17289,12 +17229,12 @@
       <c r="J152" s="22">
         <v>43149</v>
       </c>
-      <c r="K152" s="33">
+      <c r="K152" s="28">
         <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="48">
+      <c r="A153" s="42">
         <v>151</v>
       </c>
       <c r="B153" s="8">
@@ -17318,10 +17258,10 @@
       <c r="H153" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K153" s="32"/>
+      <c r="K153" s="27"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="48">
+      <c r="A154" s="42">
         <v>152</v>
       </c>
       <c r="B154" s="8">
@@ -17345,10 +17285,10 @@
       <c r="H154" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K154" s="32"/>
+      <c r="K154" s="27"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="48">
+      <c r="A155" s="42">
         <v>153</v>
       </c>
       <c r="B155" s="8">
@@ -17372,10 +17312,10 @@
       <c r="H155" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K155" s="32"/>
+      <c r="K155" s="27"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="48">
+      <c r="A156" s="42">
         <v>154</v>
       </c>
       <c r="B156" s="8">
@@ -17399,10 +17339,10 @@
       <c r="H156" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K156" s="32"/>
+      <c r="K156" s="27"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="48">
+      <c r="A157" s="42">
         <v>155</v>
       </c>
       <c r="B157" s="8">
@@ -17426,10 +17366,10 @@
       <c r="H157" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K157" s="32"/>
+      <c r="K157" s="27"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="48">
+      <c r="A158" s="42">
         <v>156</v>
       </c>
       <c r="B158" s="8">
@@ -17453,10 +17393,10 @@
       <c r="H158" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K158" s="32"/>
+      <c r="K158" s="27"/>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="48">
+      <c r="A159" s="42">
         <v>157</v>
       </c>
       <c r="B159" s="8">
@@ -17480,10 +17420,10 @@
       <c r="H159" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K159" s="32"/>
+      <c r="K159" s="27"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="48">
+      <c r="A160" s="42">
         <v>158</v>
       </c>
       <c r="B160" s="8">
@@ -17507,10 +17447,10 @@
       <c r="H160" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K160" s="32"/>
+      <c r="K160" s="27"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="48">
+      <c r="A161" s="42">
         <v>159</v>
       </c>
       <c r="B161" s="8">
@@ -17534,10 +17474,10 @@
       <c r="H161" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K161" s="32"/>
+      <c r="K161" s="27"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="48">
+      <c r="A162" s="42">
         <v>160</v>
       </c>
       <c r="B162" s="8">
@@ -17561,10 +17501,10 @@
       <c r="H162" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K162" s="32"/>
+      <c r="K162" s="27"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="48">
+      <c r="A163" s="42">
         <v>161</v>
       </c>
       <c r="B163" s="8">
@@ -17588,10 +17528,10 @@
       <c r="H163" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K163" s="32"/>
+      <c r="K163" s="27"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="48">
+      <c r="A164" s="42">
         <v>162</v>
       </c>
       <c r="B164" s="8">
@@ -17615,12 +17555,12 @@
       <c r="H164" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K164" s="32">
+      <c r="K164" s="27">
         <v>527</v>
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="48">
+      <c r="A165" s="42">
         <v>163</v>
       </c>
       <c r="B165" s="8">
@@ -17644,10 +17584,10 @@
       <c r="H165" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K165" s="32"/>
+      <c r="K165" s="27"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="48">
+      <c r="A166" s="42">
         <v>164</v>
       </c>
       <c r="B166" s="8">
@@ -17671,10 +17611,10 @@
       <c r="H166" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K166" s="32"/>
+      <c r="K166" s="27"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="48">
+      <c r="A167" s="42">
         <v>165</v>
       </c>
       <c r="B167" s="8">
@@ -17698,10 +17638,10 @@
       <c r="H167" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="K167" s="32"/>
+      <c r="K167" s="27"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="48">
+      <c r="A168" s="42">
         <v>166</v>
       </c>
       <c r="B168" s="8">
@@ -17725,10 +17665,10 @@
       <c r="H168" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K168" s="32"/>
+      <c r="K168" s="27"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="48">
+      <c r="A169" s="42">
         <v>167</v>
       </c>
       <c r="B169" s="8">
@@ -17752,10 +17692,10 @@
       <c r="H169" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K169" s="32"/>
+      <c r="K169" s="27"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="48">
+      <c r="A170" s="42">
         <v>168</v>
       </c>
       <c r="B170" s="8">
@@ -17779,10 +17719,10 @@
       <c r="H170" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K170" s="32"/>
+      <c r="K170" s="27"/>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="48">
+      <c r="A171" s="42">
         <v>169</v>
       </c>
       <c r="B171" s="8">
@@ -17806,10 +17746,10 @@
       <c r="H171" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K171" s="32"/>
+      <c r="K171" s="27"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="48">
+      <c r="A172" s="42">
         <v>170</v>
       </c>
       <c r="B172" s="8">
@@ -17833,10 +17773,10 @@
       <c r="H172" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K172" s="32"/>
+      <c r="K172" s="27"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="48">
+      <c r="A173" s="42">
         <v>171</v>
       </c>
       <c r="B173" s="8">
@@ -17860,10 +17800,10 @@
       <c r="H173" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="K173" s="32"/>
+      <c r="K173" s="27"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="48">
+      <c r="A174" s="42">
         <v>172</v>
       </c>
       <c r="B174" s="8">
@@ -17887,10 +17827,10 @@
       <c r="H174" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K174" s="32"/>
+      <c r="K174" s="27"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="48">
+      <c r="A175" s="42">
         <v>173</v>
       </c>
       <c r="B175" s="8">
@@ -17914,10 +17854,10 @@
       <c r="H175" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K175" s="32"/>
+      <c r="K175" s="27"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="48">
+      <c r="A176" s="42">
         <v>174</v>
       </c>
       <c r="B176" s="8">
@@ -17941,10 +17881,10 @@
       <c r="H176" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="K176" s="32"/>
+      <c r="K176" s="27"/>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="48">
+      <c r="A177" s="42">
         <v>175</v>
       </c>
       <c r="B177" s="8">
@@ -17968,10 +17908,10 @@
       <c r="H177" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K177" s="32"/>
+      <c r="K177" s="27"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="48">
+      <c r="A178" s="42">
         <v>176</v>
       </c>
       <c r="B178" s="8">
@@ -17995,10 +17935,10 @@
       <c r="H178" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K178" s="32"/>
+      <c r="K178" s="27"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="48">
+      <c r="A179" s="42">
         <v>177</v>
       </c>
       <c r="B179" s="8">
@@ -18022,10 +17962,10 @@
       <c r="H179" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="K179" s="32"/>
+      <c r="K179" s="27"/>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="48">
+      <c r="A180" s="42">
         <v>178</v>
       </c>
       <c r="B180" s="8">
@@ -18049,10 +17989,10 @@
       <c r="H180" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K180" s="32"/>
+      <c r="K180" s="27"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="48">
+      <c r="A181" s="42">
         <v>179</v>
       </c>
       <c r="B181" s="8">
@@ -18076,10 +18016,10 @@
       <c r="H181" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K181" s="32"/>
+      <c r="K181" s="27"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="48">
+      <c r="A182" s="42">
         <v>180</v>
       </c>
       <c r="B182" s="8">
@@ -18103,10 +18043,10 @@
       <c r="H182" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="K182" s="32"/>
+      <c r="K182" s="27"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="48">
+      <c r="A183" s="42">
         <v>181</v>
       </c>
       <c r="B183" s="8">
@@ -18130,10 +18070,10 @@
       <c r="H183" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="K183" s="32"/>
+      <c r="K183" s="27"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="48">
+      <c r="A184" s="42">
         <v>182</v>
       </c>
       <c r="B184" s="8">
@@ -18157,10 +18097,10 @@
       <c r="H184" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K184" s="32"/>
+      <c r="K184" s="27"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="48">
+      <c r="A185" s="42">
         <v>183</v>
       </c>
       <c r="B185" s="19">
@@ -18186,12 +18126,12 @@
       </c>
       <c r="I185" s="21"/>
       <c r="J185" s="22"/>
-      <c r="K185" s="33">
+      <c r="K185" s="28">
         <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="48">
+      <c r="A186" s="42">
         <v>184</v>
       </c>
       <c r="B186" s="8">
@@ -18215,10 +18155,10 @@
       <c r="H186" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K186" s="32"/>
+      <c r="K186" s="27"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="48">
+      <c r="A187" s="42">
         <v>185</v>
       </c>
       <c r="B187" s="8">
@@ -18242,10 +18182,10 @@
       <c r="H187" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K187" s="32"/>
+      <c r="K187" s="27"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="48">
+      <c r="A188" s="42">
         <v>186</v>
       </c>
       <c r="B188" s="8">
@@ -18269,10 +18209,10 @@
       <c r="H188" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K188" s="32"/>
+      <c r="K188" s="27"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="48">
+      <c r="A189" s="42">
         <v>187</v>
       </c>
       <c r="B189" s="8">
@@ -18296,10 +18236,10 @@
       <c r="H189" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K189" s="32"/>
+      <c r="K189" s="27"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="48">
+      <c r="A190" s="42">
         <v>188</v>
       </c>
       <c r="B190" s="8">
@@ -18323,10 +18263,10 @@
       <c r="H190" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K190" s="32"/>
+      <c r="K190" s="27"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="48">
+      <c r="A191" s="42">
         <v>189</v>
       </c>
       <c r="B191" s="8">
@@ -18350,10 +18290,10 @@
       <c r="H191" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K191" s="32"/>
+      <c r="K191" s="27"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="48">
+      <c r="A192" s="42">
         <v>190</v>
       </c>
       <c r="B192" s="8">
@@ -18377,10 +18317,10 @@
       <c r="H192" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K192" s="32"/>
+      <c r="K192" s="27"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="48">
+      <c r="A193" s="42">
         <v>191</v>
       </c>
       <c r="B193" s="8">
@@ -18404,10 +18344,10 @@
       <c r="H193" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K193" s="32"/>
+      <c r="K193" s="27"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="48">
+      <c r="A194" s="42">
         <v>192</v>
       </c>
       <c r="B194" s="8">
@@ -18431,10 +18371,10 @@
       <c r="H194" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K194" s="32"/>
+      <c r="K194" s="27"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="48">
+      <c r="A195" s="42">
         <v>193</v>
       </c>
       <c r="B195" s="8">
@@ -18458,10 +18398,10 @@
       <c r="H195" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K195" s="32"/>
+      <c r="K195" s="27"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="48">
+      <c r="A196" s="42">
         <v>194</v>
       </c>
       <c r="B196" s="8">
@@ -18485,10 +18425,10 @@
       <c r="H196" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K196" s="32"/>
+      <c r="K196" s="27"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="48">
+      <c r="A197" s="42">
         <v>195</v>
       </c>
       <c r="B197" s="8">
@@ -18512,10 +18452,10 @@
       <c r="H197" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K197" s="32"/>
+      <c r="K197" s="27"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="48">
+      <c r="A198" s="42">
         <v>196</v>
       </c>
       <c r="B198" s="8">
@@ -18539,10 +18479,10 @@
       <c r="H198" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K198" s="32"/>
+      <c r="K198" s="27"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="48">
+      <c r="A199" s="42">
         <v>197</v>
       </c>
       <c r="B199" s="8">
@@ -18566,10 +18506,10 @@
       <c r="H199" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K199" s="32"/>
+      <c r="K199" s="27"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="48">
+      <c r="A200" s="42">
         <v>198</v>
       </c>
       <c r="B200" s="8">
@@ -18593,10 +18533,10 @@
       <c r="H200" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K200" s="32"/>
+      <c r="K200" s="27"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="48">
+      <c r="A201" s="42">
         <v>199</v>
       </c>
       <c r="B201" s="8">
@@ -18620,10 +18560,10 @@
       <c r="H201" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K201" s="32"/>
+      <c r="K201" s="27"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="48">
+      <c r="A202" s="42">
         <v>200</v>
       </c>
       <c r="B202" s="8">
@@ -18647,10 +18587,10 @@
       <c r="H202" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K202" s="32"/>
+      <c r="K202" s="27"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="48">
+      <c r="A203" s="42">
         <v>201</v>
       </c>
       <c r="B203" s="8">
@@ -18674,10 +18614,10 @@
       <c r="H203" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K203" s="32"/>
+      <c r="K203" s="27"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="48">
+      <c r="A204" s="42">
         <v>202</v>
       </c>
       <c r="B204" s="8">
@@ -18701,10 +18641,10 @@
       <c r="H204" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K204" s="32"/>
+      <c r="K204" s="27"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="48">
+      <c r="A205" s="42">
         <v>203</v>
       </c>
       <c r="B205" s="8">
@@ -18728,10 +18668,10 @@
       <c r="H205" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K205" s="32"/>
+      <c r="K205" s="27"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="48">
+      <c r="A206" s="42">
         <v>204</v>
       </c>
       <c r="B206" s="8">
@@ -18755,10 +18695,10 @@
       <c r="H206" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K206" s="32"/>
+      <c r="K206" s="27"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="48">
+      <c r="A207" s="42">
         <v>205</v>
       </c>
       <c r="B207" s="8">
@@ -18782,10 +18722,10 @@
       <c r="H207" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K207" s="32"/>
+      <c r="K207" s="27"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="48">
+      <c r="A208" s="42">
         <v>206</v>
       </c>
       <c r="B208" s="8">
@@ -18809,10 +18749,10 @@
       <c r="H208" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K208" s="32"/>
+      <c r="K208" s="27"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="48">
+      <c r="A209" s="42">
         <v>207</v>
       </c>
       <c r="B209" s="8">
@@ -18836,10 +18776,10 @@
       <c r="H209" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K209" s="32"/>
+      <c r="K209" s="27"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="48">
+      <c r="A210" s="42">
         <v>208</v>
       </c>
       <c r="B210" s="8">
@@ -18863,10 +18803,10 @@
       <c r="H210" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K210" s="32"/>
+      <c r="K210" s="27"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="48">
+      <c r="A211" s="42">
         <v>209</v>
       </c>
       <c r="B211" s="8">
@@ -18890,10 +18830,10 @@
       <c r="H211" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K211" s="32"/>
+      <c r="K211" s="27"/>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="48">
+      <c r="A212" s="42">
         <v>210</v>
       </c>
       <c r="B212" s="8">
@@ -18917,10 +18857,10 @@
       <c r="H212" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K212" s="32"/>
+      <c r="K212" s="27"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="48">
+      <c r="A213" s="42">
         <v>211</v>
       </c>
       <c r="B213" s="8">
@@ -18944,10 +18884,10 @@
       <c r="H213" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K213" s="32"/>
+      <c r="K213" s="27"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="48">
+      <c r="A214" s="42">
         <v>212</v>
       </c>
       <c r="B214" s="8">
@@ -18971,10 +18911,10 @@
       <c r="H214" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K214" s="32"/>
+      <c r="K214" s="27"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="48">
+      <c r="A215" s="42">
         <v>213</v>
       </c>
       <c r="B215" s="8">
@@ -18998,10 +18938,10 @@
       <c r="H215" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K215" s="32"/>
+      <c r="K215" s="27"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="48">
+      <c r="A216" s="42">
         <v>214</v>
       </c>
       <c r="B216" s="8">
@@ -19025,10 +18965,10 @@
       <c r="H216" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K216" s="32"/>
+      <c r="K216" s="27"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="48">
+      <c r="A217" s="42">
         <v>215</v>
       </c>
       <c r="B217" s="8">
@@ -19052,10 +18992,10 @@
       <c r="H217" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K217" s="32"/>
+      <c r="K217" s="27"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="48">
+      <c r="A218" s="42">
         <v>216</v>
       </c>
       <c r="B218" s="8">
@@ -19079,10 +19019,10 @@
       <c r="H218" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K218" s="32"/>
+      <c r="K218" s="27"/>
     </row>
     <row r="219" spans="1:11" s="19" customFormat="1">
-      <c r="A219" s="49">
+      <c r="A219" s="43">
         <v>217</v>
       </c>
       <c r="B219" s="19">
@@ -19108,7 +19048,7 @@
       </c>
       <c r="I219" s="21"/>
       <c r="J219" s="22"/>
-      <c r="K219" s="33">
+      <c r="K219" s="28">
         <v>722</v>
       </c>
     </row>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="622">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -11624,6 +11624,34 @@
         <scheme val="minor"/>
       </rPr>
       <t>보안</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>정보보안관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실천</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -11704,7 +11732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11714,6 +11742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11818,7 +11852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11955,6 +11989,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12246,8 +12301,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12268,8 +12323,8 @@
         <v>617</v>
       </c>
       <c r="C1" s="8" t="str">
-        <f>ROUND(96/217*100,0)&amp;"%"</f>
-        <v>44%</v>
+        <f>ROUND(98/217*100,0)&amp;"%"</f>
+        <v>45%</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1">
@@ -15473,126 +15528,134 @@
       <c r="K98" s="35"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="42">
+      <c r="A99" s="45">
         <v>97</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="14">
         <v>4</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="K99" s="27">
+      <c r="J99" s="16">
+        <v>43144</v>
+      </c>
+      <c r="K99" s="35">
         <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="42">
+      <c r="A100" s="45">
         <v>98</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="14">
         <v>4</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="K100" s="27"/>
+      <c r="J100" s="16">
+        <v>43144</v>
+      </c>
+      <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="42">
+      <c r="A101" s="46">
         <v>99</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="47">
         <v>4</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="D101" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="G101" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H101" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="I101" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="J101" s="51"/>
+      <c r="K101" s="52"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="46">
+        <v>100</v>
+      </c>
+      <c r="B102" s="47">
+        <v>4</v>
+      </c>
+      <c r="C102" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D102" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="I101" s="7" t="s">
+      <c r="E102" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="F102" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="G102" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H102" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="I102" s="49" t="s">
         <v>619</v>
       </c>
-      <c r="K101" s="27"/>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="42">
-        <v>100</v>
-      </c>
-      <c r="B102" s="8">
-        <v>4</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K102" s="27"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="52"/>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="42">

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="621">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -1476,10 +1476,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">호스트 및 요새화 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>취약점 검사</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -11004,10 +11000,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>대략 주당 50페이지</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -11653,6 +11645,10 @@
       </rPr>
       <t>실천</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">호스트의 요새화 </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11732,7 +11728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11751,8 +11747,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -11769,90 +11771,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11910,63 +11835,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -11974,24 +11842,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -12009,7 +11859,25 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12301,8 +12169,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12320,16 +12188,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C1" s="8" t="str">
-        <f>ROUND(98/217*100,0)&amp;"%"</f>
-        <v>45%</v>
+        <f>ROUND(100/217*100,0)&amp;"%"</f>
+        <v>46%</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -12347,26 +12215,24 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>578</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="44">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="14">
@@ -12388,16 +12254,16 @@
         <v>5</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="45">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="14">
@@ -12419,16 +12285,16 @@
         <v>7</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="14">
@@ -12450,16 +12316,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="45">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="14">
@@ -12475,22 +12341,22 @@
         <v>12</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>507</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="14">
@@ -12506,22 +12372,22 @@
         <v>12</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="45">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="14">
@@ -12537,22 +12403,22 @@
         <v>12</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="45">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="14">
@@ -12562,28 +12428,28 @@
         <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="F9" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>513</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="45">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="14">
@@ -12593,28 +12459,28 @@
         <v>11</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="F10" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>515</v>
-      </c>
       <c r="H10" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="45">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="14">
@@ -12624,28 +12490,28 @@
         <v>11</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>103</v>
-      </c>
       <c r="F11" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>517</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="45">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="14">
@@ -12655,28 +12521,28 @@
         <v>11</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F12" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>519</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="45">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="14">
@@ -12686,28 +12552,28 @@
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F13" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>521</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="45">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="14">
@@ -12717,28 +12583,28 @@
         <v>11</v>
       </c>
       <c r="D14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F14" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>523</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="45">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="14">
@@ -12748,28 +12614,28 @@
         <v>11</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J15" s="16"/>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="45">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="14">
@@ -12779,22 +12645,22 @@
         <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="14">
@@ -12802,7 +12668,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="45">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -12812,28 +12678,28 @@
         <v>11</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F17" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="45">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
       <c r="B18" s="14">
@@ -12843,28 +12709,28 @@
         <v>11</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="45">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="14">
@@ -12874,28 +12740,28 @@
         <v>11</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F19" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>533</v>
-      </c>
       <c r="H19" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="45">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
       <c r="B20" s="14">
@@ -12905,28 +12771,28 @@
         <v>11</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="H20" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="45">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
       <c r="B21" s="14">
@@ -12936,28 +12802,28 @@
         <v>11</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>569</v>
-      </c>
       <c r="H21" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="45">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="14">
@@ -12967,28 +12833,28 @@
         <v>15</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="F22" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="45">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
       <c r="B23" s="14">
@@ -12998,28 +12864,28 @@
         <v>15</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="F23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="H23" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J23" s="16"/>
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="45">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
       <c r="B24" s="14">
@@ -13029,28 +12895,28 @@
         <v>15</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="F24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>116</v>
-      </c>
       <c r="H24" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="45">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="14">
@@ -13060,28 +12926,28 @@
         <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="F25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="H25" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="45">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
       <c r="B26" s="14">
@@ -13091,28 +12957,28 @@
         <v>15</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="F26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>120</v>
-      </c>
       <c r="H26" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="45">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
       <c r="B27" s="14">
@@ -13122,22 +12988,22 @@
         <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="F27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="H27" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J27" s="16">
         <v>43109</v>
@@ -13145,7 +13011,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="45">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="14">
@@ -13155,22 +13021,22 @@
         <v>15</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="F28" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="H28" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J28" s="16">
         <v>43109</v>
@@ -13178,7 +13044,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="45">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
       <c r="B29" s="14">
@@ -13188,22 +13054,22 @@
         <v>15</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="F29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="H29" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J29" s="16">
         <v>43110</v>
@@ -13211,7 +13077,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="45">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
       <c r="B30" s="14">
@@ -13221,22 +13087,22 @@
         <v>15</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="F30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="H30" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J30" s="16">
         <v>43110</v>
@@ -13246,7 +13112,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="45">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="14">
@@ -13256,22 +13122,22 @@
         <v>15</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="F31" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="H31" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J31" s="16">
         <v>43111</v>
@@ -13279,7 +13145,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="45">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
       <c r="B32" s="14">
@@ -13289,22 +13155,22 @@
         <v>15</v>
       </c>
       <c r="D32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="F32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="H32" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J32" s="16">
         <v>43116</v>
@@ -13312,7 +13178,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="45">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
       <c r="B33" s="14">
@@ -13322,22 +13188,22 @@
         <v>15</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="F33" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J33" s="16">
         <v>43116</v>
@@ -13345,7 +13211,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="45">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="14">
@@ -13355,22 +13221,22 @@
         <v>15</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="H34" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J34" s="16">
         <v>43117</v>
@@ -13378,7 +13244,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45">
+      <c r="A35" s="14">
         <v>33</v>
       </c>
       <c r="B35" s="14">
@@ -13388,22 +13254,22 @@
         <v>15</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="H35" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J35" s="16">
         <v>43117</v>
@@ -13411,7 +13277,7 @@
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="14">
@@ -13421,22 +13287,22 @@
         <v>15</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F36" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="H36" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J36" s="16">
         <v>43117</v>
@@ -13444,7 +13310,7 @@
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="14">
@@ -13454,22 +13320,22 @@
         <v>15</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>142</v>
-      </c>
       <c r="H37" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J37" s="16">
         <v>43117</v>
@@ -13477,7 +13343,7 @@
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45">
+      <c r="A38" s="14">
         <v>36</v>
       </c>
       <c r="B38" s="14">
@@ -13487,22 +13353,22 @@
         <v>15</v>
       </c>
       <c r="D38" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="F38" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="H38" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J38" s="16">
         <v>43117</v>
@@ -13512,7 +13378,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="45">
+      <c r="A39" s="14">
         <v>37</v>
       </c>
       <c r="B39" s="14">
@@ -13522,22 +13388,22 @@
         <v>15</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="F39" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="H39" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J39" s="16">
         <v>43118</v>
@@ -13545,7 +13411,7 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="14">
@@ -13555,22 +13421,22 @@
         <v>15</v>
       </c>
       <c r="D40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="F40" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="H40" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J40" s="16">
         <v>43118</v>
@@ -13578,7 +13444,7 @@
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="45">
+      <c r="A41" s="14">
         <v>39</v>
       </c>
       <c r="B41" s="14">
@@ -13588,22 +13454,22 @@
         <v>15</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="F41" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="H41" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J41" s="16">
         <v>43118</v>
@@ -13613,7 +13479,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="45">
+      <c r="A42" s="14">
         <v>40</v>
       </c>
       <c r="B42" s="14">
@@ -13623,22 +13489,22 @@
         <v>15</v>
       </c>
       <c r="D42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="F42" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="H42" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J42" s="16">
         <v>43119</v>
@@ -13646,7 +13512,7 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="45">
+      <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="14">
@@ -13656,22 +13522,22 @@
         <v>15</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="F43" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="H43" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J43" s="16">
         <v>43119</v>
@@ -13681,7 +13547,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="45">
+      <c r="A44" s="14">
         <v>42</v>
       </c>
       <c r="B44" s="14">
@@ -13691,22 +13557,22 @@
         <v>15</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="F44" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="H44" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J44" s="16">
         <v>43120</v>
@@ -13716,7 +13582,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="45">
+      <c r="A45" s="14">
         <v>43</v>
       </c>
       <c r="B45" s="14">
@@ -13726,22 +13592,22 @@
         <v>15</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="F45" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="H45" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J45" s="16">
         <v>43121</v>
@@ -13751,7 +13617,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="45">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="14">
@@ -13761,22 +13627,22 @@
         <v>15</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>573</v>
-      </c>
       <c r="H46" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J46" s="16">
         <v>43123</v>
@@ -13784,7 +13650,7 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="45">
+      <c r="A47" s="14">
         <v>45</v>
       </c>
       <c r="B47" s="14">
@@ -13794,22 +13660,22 @@
         <v>15</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F47" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J47" s="16">
         <v>43123</v>
@@ -13817,7 +13683,7 @@
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="45">
+      <c r="A48" s="14">
         <v>46</v>
       </c>
       <c r="B48" s="14">
@@ -13827,22 +13693,22 @@
         <v>15</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F48" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="H48" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J48" s="16">
         <v>43124</v>
@@ -13850,7 +13716,7 @@
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="45">
+      <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="14">
@@ -13860,22 +13726,22 @@
         <v>15</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F49" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="H49" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J49" s="16">
         <v>43125</v>
@@ -13885,7 +13751,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="45">
+      <c r="A50" s="14">
         <v>48</v>
       </c>
       <c r="B50" s="14">
@@ -13895,22 +13761,22 @@
         <v>15</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F50" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>168</v>
-      </c>
       <c r="H50" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J50" s="16">
         <v>43132</v>
@@ -13918,7 +13784,7 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="45">
+      <c r="A51" s="14">
         <v>49</v>
       </c>
       <c r="B51" s="14">
@@ -13928,22 +13794,22 @@
         <v>15</v>
       </c>
       <c r="D51" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F51" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>170</v>
-      </c>
       <c r="H51" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J51" s="16">
         <v>43132</v>
@@ -13951,7 +13817,7 @@
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="45">
+      <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="14">
@@ -13961,22 +13827,22 @@
         <v>15</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>99</v>
-      </c>
       <c r="F52" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>172</v>
-      </c>
       <c r="H52" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J52" s="16">
         <v>43132</v>
@@ -13986,7 +13852,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="45">
+      <c r="A53" s="14">
         <v>51</v>
       </c>
       <c r="B53" s="14">
@@ -13996,22 +13862,22 @@
         <v>15</v>
       </c>
       <c r="D53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F53" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J53" s="16">
         <v>43132</v>
@@ -14019,7 +13885,7 @@
       <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="45">
+      <c r="A54" s="14">
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -14029,22 +13895,22 @@
         <v>15</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F54" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>176</v>
-      </c>
       <c r="H54" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J54" s="16">
         <v>43132</v>
@@ -14052,7 +13918,7 @@
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="45">
+      <c r="A55" s="14">
         <v>53</v>
       </c>
       <c r="B55" s="14">
@@ -14062,22 +13928,22 @@
         <v>15</v>
       </c>
       <c r="D55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F55" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G55" s="18" t="s">
-        <v>178</v>
-      </c>
       <c r="H55" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J55" s="16">
         <v>43133</v>
@@ -14085,7 +13951,7 @@
       <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="45">
+      <c r="A56" s="14">
         <v>54</v>
       </c>
       <c r="B56" s="14">
@@ -14095,22 +13961,22 @@
         <v>15</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F56" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>181</v>
-      </c>
       <c r="H56" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J56" s="16">
         <v>43133</v>
@@ -14118,7 +13984,7 @@
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="45">
+      <c r="A57" s="14">
         <v>55</v>
       </c>
       <c r="B57" s="14">
@@ -14128,22 +13994,22 @@
         <v>15</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F57" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="H57" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J57" s="16">
         <v>43133</v>
@@ -14151,7 +14017,7 @@
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="45">
+      <c r="A58" s="14">
         <v>56</v>
       </c>
       <c r="B58" s="14">
@@ -14161,22 +14027,22 @@
         <v>15</v>
       </c>
       <c r="D58" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F58" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G58" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="H58" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J58" s="16">
         <v>43133</v>
@@ -14186,7 +14052,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="45">
+      <c r="A59" s="14">
         <v>57</v>
       </c>
       <c r="B59" s="14">
@@ -14196,22 +14062,22 @@
         <v>15</v>
       </c>
       <c r="D59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F59" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>187</v>
-      </c>
       <c r="H59" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J59" s="16">
         <v>43134</v>
@@ -14219,7 +14085,7 @@
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="45">
+      <c r="A60" s="14">
         <v>58</v>
       </c>
       <c r="B60" s="14">
@@ -14229,22 +14095,22 @@
         <v>15</v>
       </c>
       <c r="D60" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F60" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="H60" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J60" s="16">
         <v>43134</v>
@@ -14254,7 +14120,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="45">
+      <c r="A61" s="14">
         <v>59</v>
       </c>
       <c r="B61" s="14">
@@ -14264,22 +14130,22 @@
         <v>15</v>
       </c>
       <c r="D61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E61" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F61" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="H61" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J61" s="16">
         <v>43134</v>
@@ -14287,7 +14153,7 @@
       <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="45">
+      <c r="A62" s="14">
         <v>60</v>
       </c>
       <c r="B62" s="14">
@@ -14297,22 +14163,22 @@
         <v>15</v>
       </c>
       <c r="D62" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="F62" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="H62" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J62" s="16">
         <v>43134</v>
@@ -14320,7 +14186,7 @@
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="45">
+      <c r="A63" s="14">
         <v>61</v>
       </c>
       <c r="B63" s="14">
@@ -14330,22 +14196,22 @@
         <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F63" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>195</v>
-      </c>
       <c r="H63" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J63" s="16">
         <v>43135</v>
@@ -14353,7 +14219,7 @@
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="45">
+      <c r="A64" s="14">
         <v>62</v>
       </c>
       <c r="B64" s="14">
@@ -14363,22 +14229,22 @@
         <v>16</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="H64" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J64" s="16">
         <v>43135</v>
@@ -14386,7 +14252,7 @@
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="45">
+      <c r="A65" s="14">
         <v>63</v>
       </c>
       <c r="B65" s="14">
@@ -14396,22 +14262,22 @@
         <v>16</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>199</v>
-      </c>
       <c r="H65" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J65" s="16">
         <v>43135</v>
@@ -14419,7 +14285,7 @@
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="45">
+      <c r="A66" s="14">
         <v>64</v>
       </c>
       <c r="B66" s="14">
@@ -14429,22 +14295,22 @@
         <v>16</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F66" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="18" t="s">
-        <v>201</v>
-      </c>
       <c r="H66" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J66" s="16">
         <v>43135</v>
@@ -14452,7 +14318,7 @@
       <c r="K66" s="14"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="45">
+      <c r="A67" s="14">
         <v>65</v>
       </c>
       <c r="B67" s="14">
@@ -14462,22 +14328,22 @@
         <v>16</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G67" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="18" t="s">
-        <v>203</v>
-      </c>
       <c r="H67" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J67" s="16">
         <v>43135</v>
@@ -14487,40 +14353,40 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="45">
+      <c r="A68" s="14">
         <v>66</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="14">
         <v>3</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="G68" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>548</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="J68" s="33">
+      <c r="H68" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="J68" s="16">
         <v>43138</v>
       </c>
-      <c r="K68" s="34"/>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="45">
+      <c r="A69" s="14">
         <v>67</v>
       </c>
       <c r="B69" s="14">
@@ -14530,30 +14396,30 @@
         <v>16</v>
       </c>
       <c r="D69" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="F69" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G69" s="18" t="s">
-        <v>207</v>
-      </c>
       <c r="H69" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J69" s="16">
         <v>43138</v>
       </c>
-      <c r="K69" s="35"/>
+      <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="45">
+      <c r="A70" s="14">
         <v>68</v>
       </c>
       <c r="B70" s="14">
@@ -14563,30 +14429,30 @@
         <v>16</v>
       </c>
       <c r="D70" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F70" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G70" s="18" t="s">
-        <v>209</v>
-      </c>
       <c r="H70" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J70" s="16">
         <v>43138</v>
       </c>
-      <c r="K70" s="35"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="45">
+      <c r="A71" s="14">
         <v>69</v>
       </c>
       <c r="B71" s="14">
@@ -14596,30 +14462,30 @@
         <v>16</v>
       </c>
       <c r="D71" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E71" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F71" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="18" t="s">
-        <v>211</v>
-      </c>
       <c r="H71" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J71" s="16">
         <v>43138</v>
       </c>
-      <c r="K71" s="35"/>
+      <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="45">
+      <c r="A72" s="14">
         <v>70</v>
       </c>
       <c r="B72" s="14">
@@ -14629,32 +14495,32 @@
         <v>16</v>
       </c>
       <c r="D72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F72" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G72" s="18" t="s">
-        <v>213</v>
-      </c>
       <c r="H72" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J72" s="16">
         <v>43138</v>
       </c>
-      <c r="K72" s="35">
+      <c r="K72" s="14">
         <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="45">
+      <c r="A73" s="14">
         <v>71</v>
       </c>
       <c r="B73" s="14">
@@ -14664,32 +14530,32 @@
         <v>16</v>
       </c>
       <c r="D73" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E73" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="F73" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G73" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G73" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="H73" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J73" s="16">
         <v>43138</v>
       </c>
-      <c r="K73" s="35">
+      <c r="K73" s="14">
         <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="45">
+      <c r="A74" s="14">
         <v>72</v>
       </c>
       <c r="B74" s="14">
@@ -14699,30 +14565,30 @@
         <v>16</v>
       </c>
       <c r="D74" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="F74" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>217</v>
-      </c>
       <c r="H74" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J74" s="16">
         <v>43142</v>
       </c>
-      <c r="K74" s="35"/>
+      <c r="K74" s="14"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="45">
+      <c r="A75" s="14">
         <v>73</v>
       </c>
       <c r="B75" s="14">
@@ -14732,30 +14598,30 @@
         <v>16</v>
       </c>
       <c r="D75" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E75" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="F75" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>219</v>
-      </c>
       <c r="H75" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J75" s="16">
         <v>43142</v>
       </c>
-      <c r="K75" s="35"/>
+      <c r="K75" s="14"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="45">
+      <c r="A76" s="14">
         <v>74</v>
       </c>
       <c r="B76" s="14">
@@ -14765,98 +14631,98 @@
         <v>16</v>
       </c>
       <c r="D76" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E76" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="F76" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G76" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G76" s="18" t="s">
-        <v>221</v>
-      </c>
       <c r="H76" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J76" s="16">
         <v>43142</v>
       </c>
-      <c r="K76" s="35"/>
+      <c r="K76" s="14"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="45">
+      <c r="A77" s="14">
         <v>75</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B77" s="19">
         <v>3</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G77" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="38" t="s">
+      <c r="H77" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="I77" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="J77" s="21">
+        <v>43142</v>
+      </c>
+      <c r="K77" s="32">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="14">
+        <v>76</v>
+      </c>
+      <c r="B78" s="19">
+        <v>3</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>609</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="F77" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>612</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="I77" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="J77" s="40">
+      <c r="H78" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="I78" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="J78" s="21">
         <v>43142</v>
       </c>
-      <c r="K77" s="41">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="45">
-        <v>76</v>
-      </c>
-      <c r="B78" s="38">
-        <v>3</v>
-      </c>
-      <c r="C78" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="F78" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G78" s="39" t="s">
-        <v>613</v>
-      </c>
-      <c r="H78" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="I78" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="J78" s="40">
-        <v>43142</v>
-      </c>
-      <c r="K78" s="41"/>
+      <c r="K78" s="32"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="45">
+      <c r="A79" s="14">
         <v>77</v>
       </c>
       <c r="B79" s="14">
@@ -14866,30 +14732,30 @@
         <v>16</v>
       </c>
       <c r="D79" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="F79" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G79" s="18" t="s">
-        <v>226</v>
-      </c>
       <c r="H79" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J79" s="16">
         <v>43142</v>
       </c>
-      <c r="K79" s="35"/>
+      <c r="K79" s="14"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="45">
+      <c r="A80" s="14">
         <v>78</v>
       </c>
       <c r="B80" s="14">
@@ -14899,30 +14765,30 @@
         <v>16</v>
       </c>
       <c r="D80" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="F80" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J80" s="16">
         <v>43142</v>
       </c>
-      <c r="K80" s="35"/>
+      <c r="K80" s="14"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="45">
+      <c r="A81" s="14">
         <v>79</v>
       </c>
       <c r="B81" s="14">
@@ -14932,30 +14798,30 @@
         <v>16</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J81" s="16">
         <v>43142</v>
       </c>
-      <c r="K81" s="35"/>
+      <c r="K81" s="14"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="45">
+      <c r="A82" s="14">
         <v>80</v>
       </c>
       <c r="B82" s="14">
@@ -14968,29 +14834,29 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F82" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G82" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="H82" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J82" s="16">
         <v>43142</v>
       </c>
-      <c r="K82" s="35">
+      <c r="K82" s="14">
         <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="45">
+      <c r="A83" s="14">
         <v>81</v>
       </c>
       <c r="B83" s="14">
@@ -15003,27 +14869,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F83" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G83" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G83" s="18" t="s">
-        <v>232</v>
-      </c>
       <c r="H83" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J83" s="16">
         <v>43142</v>
       </c>
-      <c r="K83" s="35"/>
+      <c r="K83" s="14"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="45">
+      <c r="A84" s="14">
         <v>82</v>
       </c>
       <c r="B84" s="14">
@@ -15036,27 +14902,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F84" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>234</v>
-      </c>
       <c r="H84" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J84" s="16">
         <v>43142</v>
       </c>
-      <c r="K84" s="35"/>
+      <c r="K84" s="14"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="45">
+      <c r="A85" s="14">
         <v>83</v>
       </c>
       <c r="B85" s="14">
@@ -15069,27 +14935,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="G85" s="18" t="s">
-        <v>236</v>
-      </c>
       <c r="H85" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J85" s="16">
         <v>43142</v>
       </c>
-      <c r="K85" s="35"/>
+      <c r="K85" s="14"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="45">
+      <c r="A86" s="14">
         <v>84</v>
       </c>
       <c r="B86" s="14">
@@ -15102,29 +14968,29 @@
         <v>4.2</v>
       </c>
       <c r="E86" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F86" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>240</v>
-      </c>
       <c r="H86" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J86" s="16">
         <v>43142</v>
       </c>
-      <c r="K86" s="35">
+      <c r="K86" s="14">
         <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="45">
+      <c r="A87" s="14">
         <v>85</v>
       </c>
       <c r="B87" s="14">
@@ -15137,27 +15003,27 @@
         <v>4.2</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J87" s="16">
         <v>43142</v>
       </c>
-      <c r="K87" s="35"/>
+      <c r="K87" s="14"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="45">
+      <c r="A88" s="14">
         <v>86</v>
       </c>
       <c r="B88" s="14">
@@ -15170,27 +15036,27 @@
         <v>4.2</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F88" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="G88" s="18" t="s">
-        <v>243</v>
-      </c>
       <c r="H88" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J88" s="16">
         <v>43142</v>
       </c>
-      <c r="K88" s="35"/>
+      <c r="K88" s="14"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="45">
+      <c r="A89" s="14">
         <v>87</v>
       </c>
       <c r="B89" s="14">
@@ -15203,29 +15069,29 @@
         <v>4.3</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F89" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G89" s="18" t="s">
-        <v>245</v>
-      </c>
       <c r="H89" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J89" s="16">
         <v>43142</v>
       </c>
-      <c r="K89" s="35">
+      <c r="K89" s="14">
         <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="45">
+      <c r="A90" s="14">
         <v>88</v>
       </c>
       <c r="B90" s="14">
@@ -15238,27 +15104,27 @@
         <v>4.3</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F90" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="G90" s="18" t="s">
-        <v>247</v>
-      </c>
       <c r="H90" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J90" s="16">
         <v>43142</v>
       </c>
-      <c r="K90" s="35"/>
+      <c r="K90" s="14"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="45">
+      <c r="A91" s="14">
         <v>89</v>
       </c>
       <c r="B91" s="14">
@@ -15271,29 +15137,29 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F91" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G91" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G91" s="18" t="s">
-        <v>249</v>
-      </c>
       <c r="H91" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J91" s="16">
         <v>43142</v>
       </c>
-      <c r="K91" s="35">
+      <c r="K91" s="14">
         <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="45">
+      <c r="A92" s="14">
         <v>90</v>
       </c>
       <c r="B92" s="14">
@@ -15306,29 +15172,29 @@
         <v>4.5</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F92" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G92" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="H92" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J92" s="16">
         <v>43143</v>
       </c>
-      <c r="K92" s="35">
+      <c r="K92" s="14">
         <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="45">
+      <c r="A93" s="14">
         <v>91</v>
       </c>
       <c r="B93" s="14">
@@ -15341,27 +15207,27 @@
         <v>4.5</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F93" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G93" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G93" s="18" t="s">
-        <v>253</v>
-      </c>
       <c r="H93" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J93" s="16">
         <v>43143</v>
       </c>
-      <c r="K93" s="35"/>
+      <c r="K93" s="14"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="45">
+      <c r="A94" s="14">
         <v>92</v>
       </c>
       <c r="B94" s="14">
@@ -15374,27 +15240,27 @@
         <v>4.5</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F94" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G94" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="G94" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="H94" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J94" s="16">
         <v>43143</v>
       </c>
-      <c r="K94" s="35"/>
+      <c r="K94" s="14"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="45">
+      <c r="A95" s="14">
         <v>93</v>
       </c>
       <c r="B95" s="14">
@@ -15407,29 +15273,29 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F95" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G95" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G95" s="18" t="s">
-        <v>257</v>
-      </c>
       <c r="H95" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J95" s="16">
         <v>43143</v>
       </c>
-      <c r="K95" s="35">
+      <c r="K95" s="14">
         <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="45">
+      <c r="A96" s="14">
         <v>94</v>
       </c>
       <c r="B96" s="14">
@@ -15442,27 +15308,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F96" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G96" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="G96" s="18" t="s">
-        <v>259</v>
-      </c>
       <c r="H96" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J96" s="16">
         <v>43143</v>
       </c>
-      <c r="K96" s="35"/>
+      <c r="K96" s="14"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="45">
+      <c r="A97" s="14">
         <v>95</v>
       </c>
       <c r="B97" s="14">
@@ -15475,27 +15341,27 @@
         <v>4.7</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F97" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G97" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="G97" s="18" t="s">
-        <v>261</v>
-      </c>
       <c r="H97" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J97" s="16">
         <v>43143</v>
       </c>
-      <c r="K97" s="35"/>
+      <c r="K97" s="14"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="45">
+      <c r="A98" s="14">
         <v>96</v>
       </c>
       <c r="B98" s="14">
@@ -15508,27 +15374,27 @@
         <v>4.8</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F98" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G98" s="18" t="s">
-        <v>263</v>
-      </c>
       <c r="H98" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J98" s="16">
         <v>43143</v>
       </c>
-      <c r="K98" s="35"/>
+      <c r="K98" s="14"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="45">
+      <c r="A99" s="14">
         <v>97</v>
       </c>
       <c r="B99" s="14">
@@ -15541,29 +15407,29 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F99" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G99" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G99" s="18" t="s">
-        <v>265</v>
-      </c>
       <c r="H99" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J99" s="16">
         <v>43144</v>
       </c>
-      <c r="K99" s="35">
+      <c r="K99" s="14">
         <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="45">
+      <c r="A100" s="14">
         <v>98</v>
       </c>
       <c r="B100" s="14">
@@ -15576,1066 +15442,1033 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F100" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G100" s="18" t="s">
-        <v>267</v>
-      </c>
       <c r="H100" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J100" s="16">
         <v>43144</v>
       </c>
-      <c r="K100" s="35"/>
+      <c r="K100" s="14"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="46">
+      <c r="A101" s="14">
         <v>99</v>
       </c>
-      <c r="B101" s="47">
+      <c r="B101" s="14">
         <v>4</v>
       </c>
-      <c r="C101" s="48" t="s">
-        <v>621</v>
-      </c>
-      <c r="D101" s="49" t="s">
+      <c r="C101" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E101" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F101" s="49" t="s">
+      <c r="F101" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G101" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="G101" s="50" t="s">
+      <c r="H101" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="J101" s="16">
+        <v>43145</v>
+      </c>
+      <c r="K101" s="14"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="14">
+        <v>100</v>
+      </c>
+      <c r="B102" s="14">
+        <v>4</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="H101" s="49" t="s">
-        <v>586</v>
-      </c>
-      <c r="I101" s="49" t="s">
-        <v>619</v>
-      </c>
-      <c r="J101" s="51"/>
-      <c r="K101" s="52"/>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="46">
-        <v>100</v>
-      </c>
-      <c r="B102" s="47">
-        <v>4</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E102" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="F102" s="49" t="s">
+      <c r="G102" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="G102" s="48" t="s">
+      <c r="H102" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="J102" s="16">
+        <v>43145</v>
+      </c>
+      <c r="K102" s="14"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="14">
+        <v>101</v>
+      </c>
+      <c r="B103" s="14">
+        <v>5</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H102" s="49" t="s">
-        <v>551</v>
-      </c>
-      <c r="I102" s="49" t="s">
-        <v>619</v>
-      </c>
-      <c r="J102" s="51"/>
-      <c r="K102" s="52"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="42">
-        <v>101</v>
-      </c>
-      <c r="B103" s="8">
+      <c r="G103" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="J103" s="16">
+        <v>43145</v>
+      </c>
+      <c r="K103" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="22">
+        <v>102</v>
+      </c>
+      <c r="B104" s="22">
         <v>5</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G103" s="4" t="s">
+      <c r="D104" s="24">
+        <v>5.2</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="F104" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="G104" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="J104" s="26"/>
+      <c r="K104" s="22"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="27">
+        <v>103</v>
+      </c>
+      <c r="B105" s="27">
+        <v>5</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="I105" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J105" s="31"/>
+      <c r="K105" s="27"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="27">
+        <v>104</v>
+      </c>
+      <c r="B106" s="27">
+        <v>5</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="I106" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J106" s="31"/>
+      <c r="K106" s="27"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="27">
+        <v>105</v>
+      </c>
+      <c r="B107" s="27">
+        <v>5</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="I107" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J107" s="31"/>
+      <c r="K107" s="27"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="27">
+        <v>106</v>
+      </c>
+      <c r="B108" s="27">
+        <v>5</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="E108" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K103" s="27">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="42">
-        <v>102</v>
-      </c>
-      <c r="B104" s="8">
+      <c r="I108" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J108" s="31"/>
+      <c r="K108" s="27"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="27">
+        <v>107</v>
+      </c>
+      <c r="B109" s="27">
         <v>5</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C109" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K104" s="27"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="42">
-        <v>103</v>
-      </c>
-      <c r="B105" s="8">
+      <c r="D109" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H109" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="I109" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J109" s="31"/>
+      <c r="K109" s="27">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="27">
+        <v>108</v>
+      </c>
+      <c r="B110" s="27">
         <v>5</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C110" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K105" s="27"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="42">
-        <v>104</v>
-      </c>
-      <c r="B106" s="8">
+      <c r="D110" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E110" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H110" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I110" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J110" s="31"/>
+      <c r="K110" s="27">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="27">
+        <v>109</v>
+      </c>
+      <c r="B111" s="27">
         <v>5</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C111" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K106" s="27"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="42">
-        <v>105</v>
-      </c>
-      <c r="B107" s="8">
+      <c r="D111" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I111" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J111" s="31"/>
+      <c r="K111" s="27"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="27">
+        <v>110</v>
+      </c>
+      <c r="B112" s="27">
         <v>5</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C112" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K107" s="27"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="42">
-        <v>106</v>
-      </c>
-      <c r="B108" s="8">
+      <c r="D112" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G112" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I112" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J112" s="31"/>
+      <c r="K112" s="27"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="27">
+        <v>111</v>
+      </c>
+      <c r="B113" s="27">
         <v>5</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C113" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="K108" s="27"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="42">
-        <v>107</v>
-      </c>
-      <c r="B109" s="19">
+      <c r="D113" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="G113" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I113" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J113" s="31"/>
+      <c r="K113" s="27"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="27">
+        <v>112</v>
+      </c>
+      <c r="B114" s="27">
         <v>5</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C114" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="21">
-        <v>5.4</v>
-      </c>
-      <c r="E109" s="20" t="s">
+      <c r="D114" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E114" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="H109" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="I109" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="K109" s="28">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="42">
-        <v>108</v>
-      </c>
-      <c r="B110" s="36">
+      <c r="F114" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G114" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I114" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J114" s="31"/>
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="27">
+        <v>113</v>
+      </c>
+      <c r="B115" s="27">
         <v>5</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C115" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D115" s="29">
         <v>5.5</v>
       </c>
-      <c r="E110" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="J110" s="25">
-        <v>43144</v>
-      </c>
-      <c r="K110" s="26">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="42">
-        <v>109</v>
-      </c>
-      <c r="B111" s="8">
+      <c r="E115" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G115" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I115" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J115" s="31"/>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="27">
+        <v>114</v>
+      </c>
+      <c r="B116" s="27">
         <v>5</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C116" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J111" s="17">
-        <v>43144</v>
-      </c>
-      <c r="K111" s="27"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="42">
-        <v>110</v>
-      </c>
-      <c r="B112" s="8">
-        <v>5</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J112" s="17">
-        <v>43144</v>
-      </c>
-      <c r="K112" s="27"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="42">
-        <v>111</v>
-      </c>
-      <c r="B113" s="8">
-        <v>5</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J113" s="17">
-        <v>43144</v>
-      </c>
-      <c r="K113" s="27"/>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="42">
-        <v>112</v>
-      </c>
-      <c r="B114" s="8">
-        <v>5</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J114" s="17">
-        <v>43144</v>
-      </c>
-      <c r="K114" s="27"/>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="42">
-        <v>113</v>
-      </c>
-      <c r="B115" s="8">
-        <v>5</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G115" s="4" t="s">
+      <c r="D116" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F116" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="H115" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J115" s="17">
-        <v>43144</v>
-      </c>
-      <c r="K115" s="27"/>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="42">
-        <v>114</v>
-      </c>
-      <c r="B116" s="8">
-        <v>5</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J116" s="17">
-        <v>43145</v>
-      </c>
+      <c r="G116" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I116" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J116" s="31"/>
       <c r="K116" s="27">
         <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="42">
+      <c r="A117" s="27">
         <v>115</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="27">
         <v>5</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="29">
         <v>5.6</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G117" s="4" t="s">
+      <c r="E117" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="G117" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I117" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J117" s="31"/>
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="27">
+        <v>116</v>
+      </c>
+      <c r="B118" s="27">
+        <v>5</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F118" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="H117" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J117" s="17">
-        <v>43145</v>
-      </c>
-      <c r="K117" s="27"/>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="42">
-        <v>116</v>
-      </c>
-      <c r="B118" s="8">
+      <c r="G118" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I118" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J118" s="31"/>
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="27">
+        <v>117</v>
+      </c>
+      <c r="B119" s="27">
         <v>5</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D119" s="29">
         <v>5.6</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G118" s="4" t="s">
+      <c r="E119" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F119" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="H118" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J118" s="17">
-        <v>43145</v>
-      </c>
-      <c r="K118" s="27"/>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="42">
-        <v>117</v>
-      </c>
-      <c r="B119" s="8">
+      <c r="G119" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I119" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J119" s="31"/>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="27">
+        <v>118</v>
+      </c>
+      <c r="B120" s="27">
         <v>5</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D120" s="29">
         <v>5.6</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G119" s="4" t="s">
+      <c r="E120" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="H119" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J119" s="17">
-        <v>43145</v>
-      </c>
-      <c r="K119" s="27"/>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="42">
-        <v>118</v>
-      </c>
-      <c r="B120" s="8">
+      <c r="G120" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I120" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J120" s="31"/>
+      <c r="K120" s="27"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="27">
+        <v>119</v>
+      </c>
+      <c r="B121" s="27">
         <v>5</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D121" s="29">
         <v>5.6</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G120" s="4" t="s">
+      <c r="E121" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="H120" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J120" s="17">
-        <v>43145</v>
-      </c>
-      <c r="K120" s="27"/>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="42">
-        <v>119</v>
-      </c>
-      <c r="B121" s="8">
+      <c r="G121" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I121" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J121" s="31"/>
+      <c r="K121" s="27"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="27">
+        <v>120</v>
+      </c>
+      <c r="B122" s="27">
         <v>5</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G121" s="4" t="s">
+      <c r="D122" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E122" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="H121" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J121" s="17">
-        <v>43145</v>
-      </c>
-      <c r="K121" s="27"/>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="42">
-        <v>120</v>
-      </c>
-      <c r="B122" s="8">
+      <c r="G122" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I122" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J122" s="31"/>
+      <c r="K122" s="27"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="27">
+        <v>121</v>
+      </c>
+      <c r="B123" s="27">
         <v>5</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D123" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F123" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G122" s="4" t="s">
+      <c r="G123" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I123" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J123" s="31"/>
+      <c r="K123" s="27"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="27">
+        <v>122</v>
+      </c>
+      <c r="B124" s="27">
+        <v>5</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I124" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J124" s="31"/>
+      <c r="K124" s="27"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="27">
+        <v>123</v>
+      </c>
+      <c r="B125" s="27">
+        <v>5</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="E125" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="H122" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J122" s="17">
-        <v>43146</v>
-      </c>
-      <c r="K122" s="27"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="42">
-        <v>121</v>
-      </c>
-      <c r="B123" s="8">
+      <c r="F125" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="G125" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I125" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J125" s="31"/>
+      <c r="K125" s="27"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="27">
+        <v>124</v>
+      </c>
+      <c r="B126" s="27">
         <v>5</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C126" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J123" s="17">
-        <v>43146</v>
-      </c>
-      <c r="K123" s="27"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="42">
-        <v>122</v>
-      </c>
-      <c r="B124" s="8">
+      <c r="D126" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I126" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J126" s="31"/>
+      <c r="K126" s="27"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="27">
+        <v>125</v>
+      </c>
+      <c r="B127" s="27">
         <v>5</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C127" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J124" s="17">
-        <v>43146</v>
-      </c>
-      <c r="K124" s="27"/>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="42">
-        <v>123</v>
-      </c>
-      <c r="B125" s="8">
+      <c r="D127" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H127" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I127" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J127" s="31"/>
+      <c r="K127" s="27"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="27">
+        <v>126</v>
+      </c>
+      <c r="B128" s="27">
         <v>5</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C128" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G125" s="8" t="s">
+      <c r="D128" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="H125" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J125" s="17">
-        <v>43146</v>
-      </c>
-      <c r="K125" s="27"/>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="42">
-        <v>124</v>
-      </c>
-      <c r="B126" s="8">
+      <c r="E128" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I128" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J128" s="31"/>
+      <c r="K128" s="27"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="27">
+        <v>127</v>
+      </c>
+      <c r="B129" s="27">
         <v>5</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C129" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D129" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E129" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J126" s="17">
-        <v>43146</v>
-      </c>
-      <c r="K126" s="27"/>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="42">
-        <v>125</v>
-      </c>
-      <c r="B127" s="8">
+      <c r="F129" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="H129" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I129" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J129" s="31"/>
+      <c r="K129" s="27"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="27">
+        <v>128</v>
+      </c>
+      <c r="B130" s="27">
         <v>5</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C130" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J127" s="17">
-        <v>43146</v>
-      </c>
-      <c r="K127" s="27"/>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="42">
-        <v>126</v>
-      </c>
-      <c r="B128" s="8">
+      <c r="D130" s="27">
+        <v>5.9</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="H130" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I130" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J130" s="31"/>
+      <c r="K130" s="27"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="27">
+        <v>129</v>
+      </c>
+      <c r="B131" s="27">
         <v>5</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C131" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J128" s="17">
-        <v>43147</v>
-      </c>
-      <c r="K128" s="27"/>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="42">
-        <v>127</v>
-      </c>
-      <c r="B129" s="8">
+      <c r="D131" s="27">
+        <v>5.9</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="H131" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I131" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J131" s="31"/>
+      <c r="K131" s="27"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="27">
+        <v>130</v>
+      </c>
+      <c r="B132" s="27">
         <v>5</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C132" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G129" s="4" t="s">
+      <c r="D132" s="27">
+        <v>5.9</v>
+      </c>
+      <c r="E132" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="H129" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J129" s="17">
-        <v>43147</v>
-      </c>
-      <c r="K129" s="27"/>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="42">
-        <v>128</v>
-      </c>
-      <c r="B130" s="8">
-        <v>5</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J130" s="17">
-        <v>43147</v>
-      </c>
-      <c r="K130" s="27"/>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="42">
-        <v>129</v>
-      </c>
-      <c r="B131" s="8">
-        <v>5</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G131" s="4" t="s">
+      <c r="F132" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="H131" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J131" s="17">
-        <v>43147</v>
-      </c>
-      <c r="K131" s="27"/>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="42">
-        <v>130</v>
-      </c>
-      <c r="B132" s="8">
-        <v>5</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F132" s="7" t="s">
+      <c r="G132" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J132" s="17">
-        <v>43147</v>
-      </c>
+      <c r="H132" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="I132" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="J132" s="31"/>
       <c r="K132" s="27"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="42">
+      <c r="A133" s="8">
         <v>131</v>
       </c>
       <c r="B133" s="8">
@@ -16651,24 +16484,20 @@
         <v>43</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>333</v>
-      </c>
       <c r="H133" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J133" s="17">
-        <v>43147</v>
-      </c>
-      <c r="K133" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="42">
+      <c r="A134" s="8">
         <v>132</v>
       </c>
       <c r="B134" s="8">
@@ -16684,24 +16513,20 @@
         <v>43</v>
       </c>
       <c r="F134" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>335</v>
-      </c>
       <c r="H134" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J134" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K134" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="42">
+      <c r="A135" s="8">
         <v>133</v>
       </c>
       <c r="B135" s="8">
@@ -16711,30 +16536,26 @@
         <v>19</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F135" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="H135" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J135" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K135" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="42">
+      <c r="A136" s="8">
         <v>134</v>
       </c>
       <c r="B136" s="8">
@@ -16744,30 +16565,26 @@
         <v>19</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="H136" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J136" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K136" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="42">
+      <c r="A137" s="8">
         <v>135</v>
       </c>
       <c r="B137" s="8">
@@ -16783,24 +16600,20 @@
         <v>45</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="H137" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J137" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K137" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="42">
+      <c r="A138" s="8">
         <v>136</v>
       </c>
       <c r="B138" s="8">
@@ -16816,24 +16629,20 @@
         <v>46</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G138" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="H138" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J138" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K138" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="42">
+      <c r="A139" s="8">
         <v>137</v>
       </c>
       <c r="B139" s="8">
@@ -16849,24 +16658,20 @@
         <v>46</v>
       </c>
       <c r="F139" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="H139" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J139" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K139" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="42">
+      <c r="A140" s="8">
         <v>138</v>
       </c>
       <c r="B140" s="8">
@@ -16882,24 +16687,20 @@
         <v>46</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G140" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="H140" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J140" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K140" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="42">
+      <c r="A141" s="8">
         <v>139</v>
       </c>
       <c r="B141" s="8">
@@ -16915,24 +16716,20 @@
         <v>47</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G141" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>349</v>
-      </c>
       <c r="H141" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J141" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K141" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="42">
+      <c r="A142" s="8">
         <v>140</v>
       </c>
       <c r="B142" s="8">
@@ -16948,24 +16745,20 @@
         <v>47</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="H142" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J142" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K142" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="42">
+      <c r="A143" s="8">
         <v>141</v>
       </c>
       <c r="B143" s="8">
@@ -16981,24 +16774,20 @@
         <v>47</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G143" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="H143" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J143" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K143" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="42">
+      <c r="A144" s="8">
         <v>142</v>
       </c>
       <c r="B144" s="8">
@@ -17014,24 +16803,20 @@
         <v>48</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="H144" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I144" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J144" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K144" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="42">
+      <c r="A145" s="8">
         <v>143</v>
       </c>
       <c r="B145" s="8">
@@ -17047,24 +16832,20 @@
         <v>48</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G145" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="H145" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J145" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K145" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="42">
+      <c r="A146" s="8">
         <v>144</v>
       </c>
       <c r="B146" s="8">
@@ -17080,24 +16861,20 @@
         <v>49</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G146" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="H146" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J146" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K146" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="42">
+      <c r="A147" s="8">
         <v>145</v>
       </c>
       <c r="B147" s="8">
@@ -17113,24 +16890,20 @@
         <v>49</v>
       </c>
       <c r="F147" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G147" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="H147" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J147" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K147" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="42">
+      <c r="A148" s="8">
         <v>146</v>
       </c>
       <c r="B148" s="8">
@@ -17146,24 +16919,20 @@
         <v>49</v>
       </c>
       <c r="F148" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>363</v>
-      </c>
       <c r="H148" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J148" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K148" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="42">
+      <c r="A149" s="8">
         <v>147</v>
       </c>
       <c r="B149" s="8">
@@ -17179,24 +16948,20 @@
         <v>49</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G149" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="H149" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J149" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K149" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="42">
+      <c r="A150" s="8">
         <v>148</v>
       </c>
       <c r="B150" s="8">
@@ -17212,24 +16977,20 @@
         <v>49</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G150" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="H150" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J150" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K150" s="27"/>
+        <v>617</v>
+      </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="42">
+      <c r="A151" s="8">
         <v>149</v>
       </c>
       <c r="B151" s="8">
@@ -17245,59 +17006,52 @@
         <v>50</v>
       </c>
       <c r="F151" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="H151" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="8">
+        <v>150</v>
+      </c>
+      <c r="B152" s="8">
+        <v>6</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F152" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H151" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="J151" s="17">
-        <v>43149</v>
-      </c>
-      <c r="K151" s="27"/>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="42">
-        <v>150</v>
-      </c>
-      <c r="B152" s="19">
-        <v>6</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="21">
-        <v>6.8</v>
-      </c>
-      <c r="E152" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F152" s="21" t="s">
+      <c r="G152" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="G152" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="H152" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="I152" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="J152" s="22">
-        <v>43149</v>
-      </c>
-      <c r="K152" s="28">
+      <c r="H152" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K152" s="8">
         <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="42">
+      <c r="A153" s="8">
         <v>151</v>
       </c>
       <c r="B153" s="8">
@@ -17313,18 +17067,17 @@
         <v>34</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G153" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="H153" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K153" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="42">
+      <c r="A154" s="8">
         <v>152</v>
       </c>
       <c r="B154" s="8">
@@ -17340,18 +17093,17 @@
         <v>34</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G154" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="H154" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K154" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="42">
+      <c r="A155" s="8">
         <v>153</v>
       </c>
       <c r="B155" s="8">
@@ -17367,18 +17119,17 @@
         <v>34</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G155" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G155" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="H155" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K155" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="42">
+      <c r="A156" s="8">
         <v>154</v>
       </c>
       <c r="B156" s="8">
@@ -17394,18 +17145,17 @@
         <v>34</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="H156" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K156" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="42">
+      <c r="A157" s="8">
         <v>155</v>
       </c>
       <c r="B157" s="8">
@@ -17421,18 +17171,17 @@
         <v>35</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G157" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="H157" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K157" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="42">
+      <c r="A158" s="8">
         <v>156</v>
       </c>
       <c r="B158" s="8">
@@ -17448,18 +17197,17 @@
         <v>36</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K158" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="42">
+      <c r="A159" s="8">
         <v>157</v>
       </c>
       <c r="B159" s="8">
@@ -17475,18 +17223,17 @@
         <v>36</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K159" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="42">
+      <c r="A160" s="8">
         <v>158</v>
       </c>
       <c r="B160" s="8">
@@ -17502,18 +17249,17 @@
         <v>36</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K160" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="42">
+      <c r="A161" s="8">
         <v>159</v>
       </c>
       <c r="B161" s="8">
@@ -17529,18 +17275,17 @@
         <v>36</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K161" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="42">
+      <c r="A162" s="8">
         <v>160</v>
       </c>
       <c r="B162" s="8">
@@ -17556,18 +17301,17 @@
         <v>37</v>
       </c>
       <c r="F162" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G162" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G162" s="4" t="s">
-        <v>391</v>
-      </c>
       <c r="H162" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K162" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="42">
+      <c r="A163" s="8">
         <v>161</v>
       </c>
       <c r="B163" s="8">
@@ -17583,18 +17327,17 @@
         <v>37</v>
       </c>
       <c r="F163" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G163" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G163" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="H163" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K163" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="42">
+      <c r="A164" s="8">
         <v>162</v>
       </c>
       <c r="B164" s="8">
@@ -17610,20 +17353,20 @@
         <v>37</v>
       </c>
       <c r="F164" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G164" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G164" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="H164" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K164" s="27">
+        <v>585</v>
+      </c>
+      <c r="K164" s="8">
         <v>527</v>
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="42">
+      <c r="A165" s="8">
         <v>163</v>
       </c>
       <c r="B165" s="8">
@@ -17639,18 +17382,17 @@
         <v>37</v>
       </c>
       <c r="F165" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G165" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="H165" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="K165" s="27"/>
+        <v>598</v>
+      </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="42">
+      <c r="A166" s="8">
         <v>164</v>
       </c>
       <c r="B166" s="8">
@@ -17666,18 +17408,17 @@
         <v>38</v>
       </c>
       <c r="F166" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G166" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G166" s="4" t="s">
-        <v>399</v>
-      </c>
       <c r="H166" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K166" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="42">
+      <c r="A167" s="8">
         <v>165</v>
       </c>
       <c r="B167" s="8">
@@ -17693,18 +17434,17 @@
         <v>38</v>
       </c>
       <c r="F167" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G167" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G167" s="4" t="s">
-        <v>401</v>
-      </c>
       <c r="H167" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="K167" s="27"/>
+        <v>599</v>
+      </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="42">
+      <c r="A168" s="8">
         <v>166</v>
       </c>
       <c r="B168" s="8">
@@ -17720,18 +17460,17 @@
         <v>38</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G168" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="H168" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K168" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="42">
+      <c r="A169" s="8">
         <v>167</v>
       </c>
       <c r="B169" s="8">
@@ -17747,18 +17486,17 @@
         <v>38</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G169" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G169" s="4" t="s">
-        <v>405</v>
-      </c>
       <c r="H169" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K169" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="42">
+      <c r="A170" s="8">
         <v>168</v>
       </c>
       <c r="B170" s="8">
@@ -17774,18 +17512,17 @@
         <v>38</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G170" s="4" t="s">
-        <v>407</v>
-      </c>
       <c r="H170" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K170" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="42">
+      <c r="A171" s="8">
         <v>169</v>
       </c>
       <c r="B171" s="8">
@@ -17801,18 +17538,17 @@
         <v>38</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G171" s="4" t="s">
-        <v>409</v>
-      </c>
       <c r="H171" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K171" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="42">
+      <c r="A172" s="8">
         <v>170</v>
       </c>
       <c r="B172" s="8">
@@ -17828,18 +17564,17 @@
         <v>39</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G172" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="H172" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K172" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="42">
+      <c r="A173" s="8">
         <v>171</v>
       </c>
       <c r="B173" s="8">
@@ -17855,18 +17590,17 @@
         <v>39</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G173" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H173" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="K173" s="27"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="42">
+      <c r="A174" s="8">
         <v>172</v>
       </c>
       <c r="B174" s="8">
@@ -17882,18 +17616,17 @@
         <v>40</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G174" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="H174" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K174" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="42">
+      <c r="A175" s="8">
         <v>173</v>
       </c>
       <c r="B175" s="8">
@@ -17909,18 +17642,17 @@
         <v>40</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G175" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="H175" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K175" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="42">
+      <c r="A176" s="8">
         <v>174</v>
       </c>
       <c r="B176" s="8">
@@ -17936,18 +17668,17 @@
         <v>40</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G176" s="4" t="s">
-        <v>419</v>
-      </c>
       <c r="H176" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="K176" s="27"/>
+        <v>601</v>
+      </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="42">
+      <c r="A177" s="8">
         <v>175</v>
       </c>
       <c r="B177" s="8">
@@ -17963,18 +17694,17 @@
         <v>40</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G177" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G177" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="H177" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="K177" s="27"/>
+        <v>602</v>
+      </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="42">
+      <c r="A178" s="8">
         <v>176</v>
       </c>
       <c r="B178" s="8">
@@ -17990,18 +17720,17 @@
         <v>40</v>
       </c>
       <c r="F178" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G178" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G178" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="H178" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="K178" s="27"/>
+        <v>603</v>
+      </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="42">
+      <c r="A179" s="8">
         <v>177</v>
       </c>
       <c r="B179" s="8">
@@ -18017,18 +17746,17 @@
         <v>41</v>
       </c>
       <c r="F179" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G179" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="G179" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="H179" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="K179" s="27"/>
+        <v>585</v>
+      </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="42">
+      <c r="A180" s="8">
         <v>178</v>
       </c>
       <c r="B180" s="8">
@@ -18044,18 +17772,17 @@
         <v>41</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G180" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="G180" s="4" t="s">
-        <v>427</v>
-      </c>
       <c r="H180" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K180" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="42">
+      <c r="A181" s="8">
         <v>179</v>
       </c>
       <c r="B181" s="8">
@@ -18071,18 +17798,17 @@
         <v>42</v>
       </c>
       <c r="F181" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G181" s="4" t="s">
-        <v>429</v>
-      </c>
       <c r="H181" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K181" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="42">
+      <c r="A182" s="8">
         <v>180</v>
       </c>
       <c r="B182" s="8">
@@ -18098,18 +17824,17 @@
         <v>42</v>
       </c>
       <c r="F182" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G182" s="4" t="s">
-        <v>431</v>
-      </c>
       <c r="H182" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="K182" s="27"/>
+        <v>600</v>
+      </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="42">
+      <c r="A183" s="8">
         <v>181</v>
       </c>
       <c r="B183" s="8">
@@ -18125,18 +17850,17 @@
         <v>42</v>
       </c>
       <c r="F183" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G183" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>433</v>
-      </c>
       <c r="H183" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K183" s="27"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="42">
+      <c r="A184" s="8">
         <v>182</v>
       </c>
       <c r="B184" s="8">
@@ -18152,49 +17876,46 @@
         <v>42</v>
       </c>
       <c r="F184" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G184" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G184" s="4" t="s">
+      <c r="H184" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="8">
+        <v>183</v>
+      </c>
+      <c r="B185" s="8">
+        <v>7</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="H184" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="K184" s="27"/>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185" s="42">
-        <v>183</v>
-      </c>
-      <c r="B185" s="19">
-        <v>7</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D185" s="21">
-        <v>7.9</v>
-      </c>
-      <c r="E185" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F185" s="21" t="s">
+      <c r="G185" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G185" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="H185" s="21" t="s">
-        <v>554</v>
-      </c>
-      <c r="I185" s="21"/>
-      <c r="J185" s="22"/>
-      <c r="K185" s="28">
+      <c r="H185" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K185" s="8">
         <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="42">
+      <c r="A186" s="8">
         <v>184</v>
       </c>
       <c r="B186" s="8">
@@ -18210,18 +17931,17 @@
         <v>30</v>
       </c>
       <c r="F186" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G186" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G186" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="H186" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K186" s="27"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="42">
+      <c r="A187" s="8">
         <v>185</v>
       </c>
       <c r="B187" s="8">
@@ -18237,18 +17957,17 @@
         <v>30</v>
       </c>
       <c r="F187" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G187" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G187" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="H187" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K187" s="27"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="42">
+      <c r="A188" s="8">
         <v>186</v>
       </c>
       <c r="B188" s="8">
@@ -18264,18 +17983,17 @@
         <v>32</v>
       </c>
       <c r="F188" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G188" s="4" t="s">
-        <v>443</v>
-      </c>
       <c r="H188" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K188" s="27"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="42">
+      <c r="A189" s="8">
         <v>187</v>
       </c>
       <c r="B189" s="8">
@@ -18291,18 +18009,17 @@
         <v>32</v>
       </c>
       <c r="F189" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G189" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="H189" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K189" s="27"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="42">
+      <c r="A190" s="8">
         <v>188</v>
       </c>
       <c r="B190" s="8">
@@ -18318,18 +18035,17 @@
         <v>31</v>
       </c>
       <c r="F190" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G190" s="4" t="s">
-        <v>447</v>
-      </c>
       <c r="H190" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K190" s="27"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="42">
+      <c r="A191" s="8">
         <v>189</v>
       </c>
       <c r="B191" s="8">
@@ -18345,18 +18061,17 @@
         <v>31</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K191" s="27"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="42">
+      <c r="A192" s="8">
         <v>190</v>
       </c>
       <c r="B192" s="8">
@@ -18372,18 +18087,17 @@
         <v>31</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="K192" s="27"/>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" s="42">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="8">
         <v>191</v>
       </c>
       <c r="B193" s="8">
@@ -18399,18 +18113,17 @@
         <v>33</v>
       </c>
       <c r="F193" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="G193" s="8" t="s">
-        <v>453</v>
-      </c>
       <c r="H193" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K193" s="27"/>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="8">
         <v>192</v>
       </c>
       <c r="B194" s="8">
@@ -18426,18 +18139,17 @@
         <v>33</v>
       </c>
       <c r="F194" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G194" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="G194" s="8" t="s">
-        <v>455</v>
-      </c>
       <c r="H194" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K194" s="27"/>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="8">
         <v>193</v>
       </c>
       <c r="B195" s="8">
@@ -18453,18 +18165,17 @@
         <v>33</v>
       </c>
       <c r="F195" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G195" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G195" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="H195" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K195" s="27"/>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="8">
         <v>194</v>
       </c>
       <c r="B196" s="8">
@@ -18480,18 +18191,17 @@
         <v>33</v>
       </c>
       <c r="F196" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G196" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="H196" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K196" s="27"/>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="8">
         <v>195</v>
       </c>
       <c r="B197" s="8">
@@ -18507,18 +18217,17 @@
         <v>33</v>
       </c>
       <c r="F197" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="G197" s="6" t="s">
-        <v>461</v>
-      </c>
       <c r="H197" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K197" s="27"/>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="8">
         <v>196</v>
       </c>
       <c r="B198" s="8">
@@ -18534,18 +18243,17 @@
         <v>23</v>
       </c>
       <c r="F198" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G198" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G198" s="4" t="s">
-        <v>463</v>
-      </c>
       <c r="H198" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K198" s="27"/>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="8">
         <v>197</v>
       </c>
       <c r="B199" s="8">
@@ -18561,18 +18269,17 @@
         <v>23</v>
       </c>
       <c r="F199" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G199" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G199" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="H199" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K199" s="27"/>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="8">
         <v>198</v>
       </c>
       <c r="B200" s="8">
@@ -18588,18 +18295,17 @@
         <v>23</v>
       </c>
       <c r="F200" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G200" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G200" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="H200" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K200" s="27"/>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="8">
         <v>199</v>
       </c>
       <c r="B201" s="8">
@@ -18615,18 +18321,17 @@
         <v>23</v>
       </c>
       <c r="F201" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G201" s="4" t="s">
-        <v>469</v>
-      </c>
       <c r="H201" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K201" s="27"/>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="8">
         <v>200</v>
       </c>
       <c r="B202" s="8">
@@ -18642,18 +18347,17 @@
         <v>23</v>
       </c>
       <c r="F202" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G202" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G202" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="H202" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K202" s="27"/>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="8">
         <v>201</v>
       </c>
       <c r="B203" s="8">
@@ -18669,18 +18373,17 @@
         <v>24</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K203" s="27"/>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="8">
         <v>202</v>
       </c>
       <c r="B204" s="8">
@@ -18696,18 +18399,17 @@
         <v>24</v>
       </c>
       <c r="F204" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G204" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="G204" s="4" t="s">
-        <v>474</v>
-      </c>
       <c r="H204" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K204" s="27"/>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="8">
         <v>203</v>
       </c>
       <c r="B205" s="8">
@@ -18723,18 +18425,17 @@
         <v>24</v>
       </c>
       <c r="F205" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G205" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="G205" s="4" t="s">
-        <v>477</v>
-      </c>
       <c r="H205" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K205" s="27"/>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="8">
         <v>204</v>
       </c>
       <c r="B206" s="8">
@@ -18750,18 +18451,17 @@
         <v>25</v>
       </c>
       <c r="F206" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G206" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="G206" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="H206" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K206" s="27"/>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="8">
         <v>205</v>
       </c>
       <c r="B207" s="8">
@@ -18777,18 +18477,17 @@
         <v>25</v>
       </c>
       <c r="F207" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G207" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="G207" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="H207" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K207" s="27"/>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="42">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="8">
         <v>206</v>
       </c>
       <c r="B208" s="8">
@@ -18804,18 +18503,17 @@
         <v>25</v>
       </c>
       <c r="F208" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G208" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="G208" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="H208" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K208" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="42">
+      <c r="A209" s="8">
         <v>207</v>
       </c>
       <c r="B209" s="8">
@@ -18831,18 +18529,17 @@
         <v>25</v>
       </c>
       <c r="F209" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G209" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G209" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="H209" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K209" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="42">
+      <c r="A210" s="8">
         <v>208</v>
       </c>
       <c r="B210" s="8">
@@ -18858,18 +18555,17 @@
         <v>25</v>
       </c>
       <c r="F210" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G210" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G210" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="H210" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K210" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="42">
+      <c r="A211" s="8">
         <v>209</v>
       </c>
       <c r="B211" s="8">
@@ -18885,18 +18581,17 @@
         <v>26</v>
       </c>
       <c r="F211" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G211" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="G211" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="H211" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K211" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="42">
+      <c r="A212" s="8">
         <v>210</v>
       </c>
       <c r="B212" s="8">
@@ -18912,18 +18607,17 @@
         <v>26</v>
       </c>
       <c r="F212" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K212" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="42">
+      <c r="A213" s="8">
         <v>211</v>
       </c>
       <c r="B213" s="8">
@@ -18939,18 +18633,17 @@
         <v>26</v>
       </c>
       <c r="F213" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G213" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="G213" s="4" t="s">
-        <v>492</v>
-      </c>
       <c r="H213" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K213" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="42">
+      <c r="A214" s="8">
         <v>212</v>
       </c>
       <c r="B214" s="8">
@@ -18966,18 +18659,17 @@
         <v>26</v>
       </c>
       <c r="F214" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G214" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G214" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="H214" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K214" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="42">
+      <c r="A215" s="8">
         <v>213</v>
       </c>
       <c r="B215" s="8">
@@ -18993,18 +18685,17 @@
         <v>28</v>
       </c>
       <c r="F215" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G215" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="H215" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K215" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="42">
+      <c r="A216" s="8">
         <v>214</v>
       </c>
       <c r="B216" s="8">
@@ -19020,18 +18711,17 @@
         <v>28</v>
       </c>
       <c r="F216" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G216" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="G216" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="H216" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K216" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="42">
+      <c r="A217" s="8">
         <v>215</v>
       </c>
       <c r="B217" s="8">
@@ -19047,18 +18737,17 @@
         <v>29</v>
       </c>
       <c r="F217" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G217" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G217" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="H217" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K217" s="27"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="42">
+      <c r="A218" s="8">
         <v>216</v>
       </c>
       <c r="B218" s="8">
@@ -19074,44 +18763,41 @@
         <v>29</v>
       </c>
       <c r="F218" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G218" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G218" s="4" t="s">
+      <c r="H218" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219" s="8">
+        <v>217</v>
+      </c>
+      <c r="B219" s="8">
+        <v>9</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D219" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F219" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="H218" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="K218" s="27"/>
-    </row>
-    <row r="219" spans="1:11" s="19" customFormat="1">
-      <c r="A219" s="43">
-        <v>217</v>
-      </c>
-      <c r="B219" s="19">
-        <v>9</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D219" s="21">
-        <v>9.6</v>
-      </c>
-      <c r="E219" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F219" s="21" t="s">
+      <c r="G219" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="G219" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="H219" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="I219" s="21"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="28">
+      <c r="H219" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K219" s="8">
         <v>722</v>
       </c>
     </row>
@@ -19134,13 +18820,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -19244,7 +18930,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B11" s="3">
         <f>SUM(B2:B10)</f>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -11728,7 +11728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11738,12 +11738,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11777,7 +11771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11853,25 +11847,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -12169,8 +12145,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14684,7 +14660,7 @@
       <c r="J77" s="21">
         <v>43142</v>
       </c>
-      <c r="K77" s="32">
+      <c r="K77" s="26">
         <v>223</v>
       </c>
     </row>
@@ -14719,7 +14695,7 @@
       <c r="J78" s="21">
         <v>43142</v>
       </c>
-      <c r="K78" s="32"/>
+      <c r="K78" s="26"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="14">
@@ -15563,909 +15539,913 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="22">
+      <c r="A104" s="14">
         <v>102</v>
       </c>
-      <c r="B104" s="22">
+      <c r="B104" s="14">
         <v>5</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C104" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="12">
         <v>5.2</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="F104" s="24" t="s">
+      <c r="F104" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="G104" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H104" s="24" t="s">
+      <c r="H104" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="I104" s="24" t="s">
+      <c r="I104" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="J104" s="26"/>
-      <c r="K104" s="22"/>
+      <c r="J104" s="16">
+        <v>43146</v>
+      </c>
+      <c r="K104" s="14"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="27">
+      <c r="A105" s="14">
         <v>103</v>
       </c>
-      <c r="B105" s="27">
+      <c r="B105" s="14">
         <v>5</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="12">
         <v>5.2</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E105" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G105" s="30" t="s">
+      <c r="G105" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="J105" s="31"/>
-      <c r="K105" s="27"/>
+      <c r="J105" s="16">
+        <v>43146</v>
+      </c>
+      <c r="K105" s="14"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="27">
+      <c r="A106" s="22">
         <v>104</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="22">
         <v>5</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="24">
         <v>5.3</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="29" t="s">
+      <c r="F106" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G106" s="28" t="s">
+      <c r="G106" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="29" t="s">
+      <c r="H106" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="I106" s="29" t="s">
+      <c r="I106" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J106" s="31"/>
-      <c r="K106" s="27"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="22"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="27">
+      <c r="A107" s="22">
         <v>105</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="22">
         <v>5</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="24">
         <v>5.3</v>
       </c>
-      <c r="E107" s="28" t="s">
+      <c r="E107" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="29" t="s">
+      <c r="F107" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G107" s="28" t="s">
+      <c r="G107" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="H107" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="I107" s="29" t="s">
+      <c r="I107" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J107" s="31"/>
-      <c r="K107" s="27"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="22"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="27">
+      <c r="A108" s="22">
         <v>106</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="22">
         <v>5</v>
       </c>
-      <c r="C108" s="28" t="s">
+      <c r="C108" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="29">
+      <c r="D108" s="24">
         <v>5.3</v>
       </c>
-      <c r="E108" s="28" t="s">
+      <c r="E108" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G108" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="I108" s="29" t="s">
+      <c r="I108" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J108" s="31"/>
-      <c r="K108" s="27"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="22"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="27">
+      <c r="A109" s="22">
         <v>107</v>
       </c>
-      <c r="B109" s="27">
+      <c r="B109" s="22">
         <v>5</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="24">
         <v>5.4</v>
       </c>
-      <c r="E109" s="28" t="s">
+      <c r="E109" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G109" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="H109" s="29" t="s">
+      <c r="H109" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="I109" s="29" t="s">
+      <c r="I109" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J109" s="31"/>
-      <c r="K109" s="27">
+      <c r="J109" s="25"/>
+      <c r="K109" s="22">
         <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="27">
+      <c r="A110" s="22">
         <v>108</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="22">
         <v>5</v>
       </c>
-      <c r="C110" s="28" t="s">
+      <c r="C110" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="24">
         <v>5.5</v>
       </c>
-      <c r="E110" s="28" t="s">
+      <c r="E110" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F110" s="29" t="s">
+      <c r="F110" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="G110" s="28" t="s">
+      <c r="G110" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I110" s="29" t="s">
+      <c r="I110" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J110" s="31"/>
-      <c r="K110" s="27">
+      <c r="J110" s="25"/>
+      <c r="K110" s="22">
         <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="27">
+      <c r="A111" s="22">
         <v>109</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111" s="22">
         <v>5</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D111" s="24">
         <v>5.5</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E111" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F111" s="29" t="s">
+      <c r="F111" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="G111" s="28" t="s">
+      <c r="G111" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I111" s="29" t="s">
+      <c r="I111" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J111" s="31"/>
-      <c r="K111" s="27"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="22"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="27">
+      <c r="A112" s="22">
         <v>110</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="22">
         <v>5</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="29">
+      <c r="D112" s="24">
         <v>5.5</v>
       </c>
-      <c r="E112" s="28" t="s">
+      <c r="E112" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F112" s="29" t="s">
+      <c r="F112" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="G112" s="28" t="s">
+      <c r="G112" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="H112" s="29" t="s">
+      <c r="H112" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I112" s="29" t="s">
+      <c r="I112" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J112" s="31"/>
-      <c r="K112" s="27"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="22"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="27">
+      <c r="A113" s="22">
         <v>111</v>
       </c>
-      <c r="B113" s="27">
+      <c r="B113" s="22">
         <v>5</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="29">
+      <c r="D113" s="24">
         <v>5.5</v>
       </c>
-      <c r="E113" s="28" t="s">
+      <c r="E113" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G113" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="H113" s="29" t="s">
+      <c r="H113" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I113" s="29" t="s">
+      <c r="I113" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J113" s="31"/>
-      <c r="K113" s="27"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="22"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="27">
+      <c r="A114" s="22">
         <v>112</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="22">
         <v>5</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="24">
         <v>5.5</v>
       </c>
-      <c r="E114" s="28" t="s">
+      <c r="E114" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="G114" s="28" t="s">
+      <c r="G114" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="H114" s="29" t="s">
+      <c r="H114" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I114" s="29" t="s">
+      <c r="I114" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J114" s="31"/>
-      <c r="K114" s="27"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="22"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="27">
+      <c r="A115" s="22">
         <v>113</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="22">
         <v>5</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="24">
         <v>5.5</v>
       </c>
-      <c r="E115" s="28" t="s">
+      <c r="E115" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="G115" s="28" t="s">
+      <c r="G115" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I115" s="29" t="s">
+      <c r="I115" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J115" s="31"/>
-      <c r="K115" s="27"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="22"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="27">
+      <c r="A116" s="22">
         <v>114</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="22">
         <v>5</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D116" s="24">
         <v>5.6</v>
       </c>
-      <c r="E116" s="28" t="s">
+      <c r="E116" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F116" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="G116" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H116" s="29" t="s">
+      <c r="H116" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I116" s="29" t="s">
+      <c r="I116" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J116" s="31"/>
-      <c r="K116" s="27">
+      <c r="J116" s="25"/>
+      <c r="K116" s="22">
         <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="27">
+      <c r="A117" s="22">
         <v>115</v>
       </c>
-      <c r="B117" s="27">
+      <c r="B117" s="22">
         <v>5</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D117" s="24">
         <v>5.6</v>
       </c>
-      <c r="E117" s="28" t="s">
+      <c r="E117" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F117" s="29" t="s">
+      <c r="F117" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="G117" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="H117" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I117" s="29" t="s">
+      <c r="I117" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J117" s="31"/>
-      <c r="K117" s="27"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="22"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="27">
+      <c r="A118" s="22">
         <v>116</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="22">
         <v>5</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="29">
+      <c r="D118" s="24">
         <v>5.6</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E118" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F118" s="29" t="s">
+      <c r="F118" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="G118" s="28" t="s">
+      <c r="G118" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H118" s="29" t="s">
+      <c r="H118" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I118" s="29" t="s">
+      <c r="I118" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J118" s="31"/>
-      <c r="K118" s="27"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="22"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="27">
+      <c r="A119" s="22">
         <v>117</v>
       </c>
-      <c r="B119" s="27">
+      <c r="B119" s="22">
         <v>5</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="24">
         <v>5.6</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="H119" s="29" t="s">
+      <c r="H119" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I119" s="29" t="s">
+      <c r="I119" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J119" s="31"/>
-      <c r="K119" s="27"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="22"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="27">
+      <c r="A120" s="22">
         <v>118</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="22">
         <v>5</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="29">
+      <c r="D120" s="24">
         <v>5.6</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="E120" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F120" s="29" t="s">
+      <c r="F120" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G120" s="28" t="s">
+      <c r="G120" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="H120" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I120" s="29" t="s">
+      <c r="I120" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J120" s="31"/>
-      <c r="K120" s="27"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="22"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="27">
+      <c r="A121" s="22">
         <v>119</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B121" s="22">
         <v>5</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="29">
+      <c r="D121" s="24">
         <v>5.6</v>
       </c>
-      <c r="E121" s="28" t="s">
+      <c r="E121" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F121" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="G121" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="H121" s="29" t="s">
+      <c r="H121" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I121" s="29" t="s">
+      <c r="I121" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J121" s="31"/>
-      <c r="K121" s="27"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="22"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="27">
+      <c r="A122" s="22">
         <v>120</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B122" s="22">
         <v>5</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E122" s="28" t="s">
+      <c r="E122" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="G122" s="28" t="s">
+      <c r="G122" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="H122" s="29" t="s">
+      <c r="H122" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I122" s="29" t="s">
+      <c r="I122" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J122" s="31"/>
-      <c r="K122" s="27"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="22"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="27">
+      <c r="A123" s="22">
         <v>121</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B123" s="22">
         <v>5</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E123" s="28" t="s">
+      <c r="E123" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F123" s="29" t="s">
+      <c r="F123" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="G123" s="28" t="s">
+      <c r="G123" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I123" s="29" t="s">
+      <c r="I123" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J123" s="31"/>
-      <c r="K123" s="27"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="22"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="27">
+      <c r="A124" s="22">
         <v>122</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B124" s="22">
         <v>5</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F124" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="G124" s="28" t="s">
+      <c r="G124" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I124" s="29" t="s">
+      <c r="I124" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J124" s="31"/>
-      <c r="K124" s="27"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="22"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="27">
+      <c r="A125" s="22">
         <v>123</v>
       </c>
-      <c r="B125" s="27">
+      <c r="B125" s="22">
         <v>5</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="29">
+      <c r="D125" s="24">
         <v>5.7</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="F125" s="29" t="s">
+      <c r="F125" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="G125" s="27" t="s">
+      <c r="G125" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="H125" s="29" t="s">
+      <c r="H125" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I125" s="29" t="s">
+      <c r="I125" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J125" s="31"/>
-      <c r="K125" s="27"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="22"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="27">
+      <c r="A126" s="22">
         <v>124</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B126" s="22">
         <v>5</v>
       </c>
-      <c r="C126" s="28" t="s">
+      <c r="C126" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F126" s="29" t="s">
+      <c r="F126" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H126" s="29" t="s">
+      <c r="H126" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I126" s="29" t="s">
+      <c r="I126" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J126" s="31"/>
-      <c r="K126" s="27"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="22"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="27">
+      <c r="A127" s="22">
         <v>125</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B127" s="22">
         <v>5</v>
       </c>
-      <c r="C127" s="28" t="s">
+      <c r="C127" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F127" s="29" t="s">
+      <c r="F127" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="G127" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="H127" s="29" t="s">
+      <c r="H127" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I127" s="29" t="s">
+      <c r="I127" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J127" s="31"/>
-      <c r="K127" s="27"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="22"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="27">
+      <c r="A128" s="22">
         <v>126</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="22">
         <v>5</v>
       </c>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="E128" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="G128" s="28" t="s">
+      <c r="G128" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="H128" s="29" t="s">
+      <c r="H128" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I128" s="29" t="s">
+      <c r="I128" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J128" s="31"/>
-      <c r="K128" s="27"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="22"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="27">
+      <c r="A129" s="22">
         <v>127</v>
       </c>
-      <c r="B129" s="27">
+      <c r="B129" s="22">
         <v>5</v>
       </c>
-      <c r="C129" s="28" t="s">
+      <c r="C129" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F129" s="29" t="s">
+      <c r="F129" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="G129" s="28" t="s">
+      <c r="G129" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="H129" s="29" t="s">
+      <c r="H129" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I129" s="29" t="s">
+      <c r="I129" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J129" s="31"/>
-      <c r="K129" s="27"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="22"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="27">
+      <c r="A130" s="22">
         <v>128</v>
       </c>
-      <c r="B130" s="27">
+      <c r="B130" s="22">
         <v>5</v>
       </c>
-      <c r="C130" s="28" t="s">
+      <c r="C130" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="27">
+      <c r="D130" s="22">
         <v>5.9</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F130" s="29" t="s">
+      <c r="F130" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="G130" s="28" t="s">
+      <c r="G130" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H130" s="29" t="s">
+      <c r="H130" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I130" s="29" t="s">
+      <c r="I130" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J130" s="31"/>
-      <c r="K130" s="27"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="22"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="27">
+      <c r="A131" s="22">
         <v>129</v>
       </c>
-      <c r="B131" s="27">
+      <c r="B131" s="22">
         <v>5</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D131" s="27">
+      <c r="D131" s="22">
         <v>5.9</v>
       </c>
-      <c r="E131" s="28" t="s">
+      <c r="E131" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F131" s="29" t="s">
+      <c r="F131" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G131" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="H131" s="29" t="s">
+      <c r="H131" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I131" s="29" t="s">
+      <c r="I131" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J131" s="31"/>
-      <c r="K131" s="27"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="22"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="27">
+      <c r="A132" s="22">
         <v>130</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="22">
         <v>5</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="C132" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="27">
+      <c r="D132" s="22">
         <v>5.9</v>
       </c>
-      <c r="E132" s="28" t="s">
+      <c r="E132" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F132" s="29" t="s">
+      <c r="F132" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="G132" s="28" t="s">
+      <c r="G132" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="H132" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I132" s="29" t="s">
+      <c r="I132" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="J132" s="31"/>
-      <c r="K132" s="27"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="22"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="8">
@@ -17037,7 +17017,7 @@
       <c r="F152" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G152" s="33" t="s">
+      <c r="G152" s="27" t="s">
         <v>370</v>
       </c>
       <c r="H152" s="7" t="s">

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -11728,7 +11728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11744,6 +11744,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11771,7 +11777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11854,6 +11860,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12145,8 +12163,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
+      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15605,128 +15623,128 @@
       <c r="K105" s="14"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="22">
+      <c r="A106" s="28">
         <v>104</v>
       </c>
-      <c r="B106" s="22">
+      <c r="B106" s="28">
         <v>5</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="30">
         <v>5.3</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="24" t="s">
+      <c r="F106" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="H106" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="I106" s="24" t="s">
+      <c r="I106" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="J106" s="25"/>
-      <c r="K106" s="22"/>
+      <c r="J106" s="31"/>
+      <c r="K106" s="28"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="22">
+      <c r="A107" s="28">
         <v>105</v>
       </c>
-      <c r="B107" s="22">
+      <c r="B107" s="28">
         <v>5</v>
       </c>
-      <c r="C107" s="23" t="s">
+      <c r="C107" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="30">
         <v>5.3</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="24" t="s">
+      <c r="F107" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H107" s="24" t="s">
+      <c r="H107" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="I107" s="24" t="s">
+      <c r="I107" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="J107" s="25"/>
-      <c r="K107" s="22"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="28"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="22">
+      <c r="A108" s="28">
         <v>106</v>
       </c>
-      <c r="B108" s="22">
+      <c r="B108" s="28">
         <v>5</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="30">
         <v>5.3</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="24" t="s">
+      <c r="F108" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="G108" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H108" s="24" t="s">
+      <c r="H108" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="I108" s="24" t="s">
+      <c r="I108" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="J108" s="25"/>
-      <c r="K108" s="22"/>
+      <c r="J108" s="31"/>
+      <c r="K108" s="28"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="22">
+      <c r="A109" s="28">
         <v>107</v>
       </c>
-      <c r="B109" s="22">
+      <c r="B109" s="28">
         <v>5</v>
       </c>
-      <c r="C109" s="23" t="s">
+      <c r="C109" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="30">
         <v>5.4</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="24" t="s">
+      <c r="F109" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="G109" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="H109" s="24" t="s">
+      <c r="H109" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="I109" s="24" t="s">
+      <c r="I109" s="30" t="s">
         <v>617</v>
       </c>
-      <c r="J109" s="25"/>
-      <c r="K109" s="22">
+      <c r="J109" s="31"/>
+      <c r="K109" s="28">
         <v>340</v>
       </c>
     </row>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="611">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -10505,582 +10505,1094 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>실제주</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>클라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>컴퓨팅과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가상화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클라이언트와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VDI</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어플리케이션에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명령을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행시키는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>부정한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립트나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>명령을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실행시키는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공격의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>크로스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스크립팅</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>7</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>웹 서버의 구현와 설정실수에 의한 취약점과 대책</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어플리케이션의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구조와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구현에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취약점과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대책</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보보안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취약점</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어플리케이션의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취약점과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대책</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어플리케이션의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>구조</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>세션관리의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>취약점과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대책</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>리스크의 개념 및 리스크 어세스먼트</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>넘버링</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>달성률</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>정보자산의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>클라이언트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>보안</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>정보보안관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실천</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">호스트의 요새화 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>8</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>실제주</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>페이지</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>일자</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>클라우드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>컴퓨팅과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가상화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기술</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>신</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>클라이언트와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> VDI</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>어플리케이션에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>부정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스크립트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>명령을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실행시키는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공격</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>부정한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스크립트나</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>명령을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실행시키는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공격의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>종류</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>크로스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>스크립팅</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>9</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
+    <t>10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -11097,558 +11609,6 @@
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>웹 서버의 구현와 설정실수에 의한 취약점과 대책</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>어플리케이션의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>구조와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>구현에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>의한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>취약점과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대책</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>정보보안에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>취약점</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HTTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>어플리케이션의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>취약점과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대책</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>어플리케이션의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>구조</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>세션관리의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>취약점과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대책</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>리스크의 개념 및 리스크 어세스먼트</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>넘버링</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>달성률</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>정보자산의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>클라이언트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>보안</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>정보보안관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실천</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">호스트의 요새화 </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11728,7 +11688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11747,14 +11707,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -11771,13 +11725,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11856,22 +11881,109 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12163,8 +12275,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E156" sqref="E156"/>
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12177,21 +12289,22 @@
     <col min="7" max="7" width="47.875" style="8" customWidth="1"/>
     <col min="8" max="9" width="9" style="7"/>
     <col min="10" max="10" width="5.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="11" max="11" width="9" style="28"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="9" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="C1" s="8" t="str">
-        <f>ROUND(100/217*100,0)&amp;"%"</f>
-        <v>46%</v>
+        <f>ROUND(108/217*100,0)&amp;"%"</f>
+        <v>50%</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="13" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -12215,13 +12328,13 @@
         <v>27</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>561</v>
       </c>
       <c r="L2" s="9"/>
     </row>
@@ -12251,10 +12364,10 @@
         <v>538</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="14">
@@ -12282,10 +12395,10 @@
         <v>538</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14">
@@ -12313,10 +12426,10 @@
         <v>538</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="14">
@@ -12344,10 +12457,10 @@
         <v>538</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="14">
@@ -12375,10 +12488,10 @@
         <v>538</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="14">
@@ -12406,10 +12519,10 @@
         <v>538</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="14">
@@ -12437,10 +12550,10 @@
         <v>538</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="14">
@@ -12468,10 +12581,10 @@
         <v>538</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="14">
@@ -12499,10 +12612,10 @@
         <v>538</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J11" s="16"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14">
@@ -12530,44 +12643,44 @@
         <v>538</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14">
+      <c r="A13" s="46">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="47">
         <v>1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14">
+      <c r="A14" s="53">
         <v>12</v>
       </c>
       <c r="B14" s="14">
@@ -12592,13 +12705,13 @@
         <v>538</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="J14" s="16"/>
-      <c r="K14" s="14"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14">
+      <c r="A15" s="53">
         <v>13</v>
       </c>
       <c r="B15" s="14">
@@ -12623,13 +12736,13 @@
         <v>538</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J15" s="16"/>
-      <c r="K15" s="14"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14">
+      <c r="A16" s="53">
         <v>14</v>
       </c>
       <c r="B16" s="14">
@@ -12654,15 +12767,15 @@
         <v>538</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J16" s="16"/>
-      <c r="K16" s="14">
+      <c r="K16" s="38">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="14">
+      <c r="A17" s="53">
         <v>15</v>
       </c>
       <c r="B17" s="14">
@@ -12687,13 +12800,13 @@
         <v>539</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="14">
+      <c r="A18" s="53">
         <v>16</v>
       </c>
       <c r="B18" s="14">
@@ -12718,13 +12831,13 @@
         <v>539</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="14">
+      <c r="A19" s="53">
         <v>17</v>
       </c>
       <c r="B19" s="14">
@@ -12749,13 +12862,13 @@
         <v>539</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="14">
+      <c r="A20" s="53">
         <v>18</v>
       </c>
       <c r="B20" s="14">
@@ -12780,13 +12893,13 @@
         <v>539</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J20" s="16"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="14">
+      <c r="A21" s="53">
         <v>19</v>
       </c>
       <c r="B21" s="14">
@@ -12799,25 +12912,25 @@
         <v>105</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>539</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="14">
+      <c r="A22" s="53">
         <v>20</v>
       </c>
       <c r="B22" s="14">
@@ -12842,13 +12955,13 @@
         <v>539</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J22" s="16"/>
-      <c r="K22" s="14"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="14">
+      <c r="A23" s="53">
         <v>21</v>
       </c>
       <c r="B23" s="14">
@@ -12873,13 +12986,13 @@
         <v>540</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J23" s="16"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="14">
+      <c r="A24" s="53">
         <v>22</v>
       </c>
       <c r="B24" s="14">
@@ -12904,13 +13017,13 @@
         <v>539</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J24" s="16"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="14">
+      <c r="A25" s="53">
         <v>23</v>
       </c>
       <c r="B25" s="14">
@@ -12935,77 +13048,77 @@
         <v>539</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J25" s="16"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="14">
+      <c r="A26" s="54">
         <v>24</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="55">
         <v>2</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="14">
+      <c r="A27" s="46">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="47">
         <v>2</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="49" t="s">
         <v>539</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="J27" s="16">
+      <c r="I27" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="J27" s="51">
         <v>43109</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="52"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="14">
+      <c r="A28" s="53">
         <v>26</v>
       </c>
       <c r="B28" s="14">
@@ -13030,15 +13143,15 @@
         <v>539</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J28" s="16">
         <v>43109</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="14">
+      <c r="A29" s="53">
         <v>27</v>
       </c>
       <c r="B29" s="14">
@@ -13063,15 +13176,15 @@
         <v>539</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J29" s="16">
         <v>43110</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="14">
+      <c r="A30" s="53">
         <v>28</v>
       </c>
       <c r="B30" s="14">
@@ -13096,83 +13209,83 @@
         <v>539</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J30" s="16">
         <v>43110</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="38">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="14">
+      <c r="A31" s="54">
         <v>29</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="55">
         <v>2</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="J31" s="16">
+      <c r="I31" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="J31" s="59">
         <v>43111</v>
       </c>
-      <c r="K31" s="14"/>
+      <c r="K31" s="60"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="14">
+      <c r="A32" s="46">
         <v>30</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="47">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="J32" s="16">
+      <c r="I32" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="J32" s="51">
         <v>43116</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="14">
+      <c r="A33" s="53">
         <v>31</v>
       </c>
       <c r="B33" s="14">
@@ -13197,15 +13310,15 @@
         <v>541</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J33" s="16">
         <v>43116</v>
       </c>
-      <c r="K33" s="14"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="14">
+      <c r="A34" s="53">
         <v>32</v>
       </c>
       <c r="B34" s="14">
@@ -13230,15 +13343,15 @@
         <v>541</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J34" s="16">
         <v>43117</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="14">
+      <c r="A35" s="53">
         <v>33</v>
       </c>
       <c r="B35" s="14">
@@ -13263,15 +13376,15 @@
         <v>541</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J35" s="16">
         <v>43117</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="14">
+      <c r="A36" s="53">
         <v>34</v>
       </c>
       <c r="B36" s="14">
@@ -13296,15 +13409,15 @@
         <v>541</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J36" s="16">
         <v>43117</v>
       </c>
-      <c r="K36" s="14"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="14">
+      <c r="A37" s="53">
         <v>35</v>
       </c>
       <c r="B37" s="14">
@@ -13329,15 +13442,15 @@
         <v>543</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J37" s="16">
         <v>43117</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="14">
+      <c r="A38" s="53">
         <v>36</v>
       </c>
       <c r="B38" s="14">
@@ -13362,17 +13475,17 @@
         <v>541</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J38" s="16">
         <v>43117</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="38">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="14">
+      <c r="A39" s="53">
         <v>37</v>
       </c>
       <c r="B39" s="14">
@@ -13397,15 +13510,15 @@
         <v>541</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J39" s="16">
         <v>43118</v>
       </c>
-      <c r="K39" s="14"/>
+      <c r="K39" s="38"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="14">
+      <c r="A40" s="53">
         <v>38</v>
       </c>
       <c r="B40" s="14">
@@ -13430,15 +13543,15 @@
         <v>541</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J40" s="16">
         <v>43118</v>
       </c>
-      <c r="K40" s="14"/>
+      <c r="K40" s="38"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="14">
+      <c r="A41" s="53">
         <v>39</v>
       </c>
       <c r="B41" s="14">
@@ -13463,17 +13576,17 @@
         <v>541</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J41" s="16">
         <v>43118</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="38">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="14">
+      <c r="A42" s="53">
         <v>40</v>
       </c>
       <c r="B42" s="14">
@@ -13498,15 +13611,15 @@
         <v>541</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J42" s="16">
         <v>43119</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="38"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="14">
+      <c r="A43" s="53">
         <v>41</v>
       </c>
       <c r="B43" s="14">
@@ -13531,17 +13644,17 @@
         <v>541</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J43" s="16">
         <v>43119</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="38">
         <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="14">
+      <c r="A44" s="53">
         <v>42</v>
       </c>
       <c r="B44" s="14">
@@ -13566,85 +13679,85 @@
         <v>541</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="J44" s="16">
         <v>43120</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="38">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="14">
+      <c r="A45" s="54">
         <v>43</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="55">
         <v>2</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="J45" s="59">
+        <v>43121</v>
+      </c>
+      <c r="K45" s="60">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="47">
+        <v>2</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>569</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="50" t="s">
         <v>570</v>
       </c>
-      <c r="J45" s="16">
-        <v>43121</v>
-      </c>
-      <c r="K45" s="14">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="14">
-        <v>44</v>
-      </c>
-      <c r="B46" s="14">
-        <v>2</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="18" t="s">
+      <c r="H46" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="I46" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="J46" s="16">
+      <c r="J46" s="51">
         <v>43123</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="52"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="14">
+      <c r="A47" s="53">
         <v>45</v>
       </c>
       <c r="B47" s="14">
@@ -13663,7 +13776,7 @@
         <v>161</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>545</v>
@@ -13674,10 +13787,10 @@
       <c r="J47" s="16">
         <v>43123</v>
       </c>
-      <c r="K47" s="14"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="14">
+      <c r="A48" s="53">
         <v>46</v>
       </c>
       <c r="B48" s="14">
@@ -13702,83 +13815,83 @@
         <v>545</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J48" s="16">
         <v>43124</v>
       </c>
-      <c r="K48" s="14"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="14">
+      <c r="A49" s="54">
         <v>47</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="55">
         <v>2</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="57" t="s">
         <v>545</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="J49" s="16">
+      <c r="I49" s="57" t="s">
+        <v>573</v>
+      </c>
+      <c r="J49" s="59">
         <v>43125</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="60">
         <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="14">
+      <c r="A50" s="46">
         <v>48</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="47">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="I50" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="J50" s="16">
+      <c r="I50" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="J50" s="51">
         <v>43132</v>
       </c>
-      <c r="K50" s="14"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="14">
+      <c r="A51" s="53">
         <v>49</v>
       </c>
       <c r="B51" s="14">
@@ -13803,15 +13916,15 @@
         <v>545</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J51" s="16">
         <v>43132</v>
       </c>
-      <c r="K51" s="14"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="14">
+      <c r="A52" s="53">
         <v>50</v>
       </c>
       <c r="B52" s="14">
@@ -13836,17 +13949,17 @@
         <v>545</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J52" s="16">
         <v>43132</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="38">
         <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="14">
+      <c r="A53" s="53">
         <v>51</v>
       </c>
       <c r="B53" s="14">
@@ -13871,15 +13984,15 @@
         <v>545</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J53" s="16">
         <v>43132</v>
       </c>
-      <c r="K53" s="14"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="14">
+      <c r="A54" s="53">
         <v>52</v>
       </c>
       <c r="B54" s="14">
@@ -13904,15 +14017,15 @@
         <v>545</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J54" s="16">
         <v>43132</v>
       </c>
-      <c r="K54" s="14"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="14">
+      <c r="A55" s="53">
         <v>53</v>
       </c>
       <c r="B55" s="14">
@@ -13937,15 +14050,15 @@
         <v>545</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J55" s="16">
         <v>43133</v>
       </c>
-      <c r="K55" s="14"/>
+      <c r="K55" s="38"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="14">
+      <c r="A56" s="53">
         <v>54</v>
       </c>
       <c r="B56" s="14">
@@ -13970,15 +14083,15 @@
         <v>545</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J56" s="16">
         <v>43133</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="38"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="14">
+      <c r="A57" s="53">
         <v>55</v>
       </c>
       <c r="B57" s="14">
@@ -14003,15 +14116,15 @@
         <v>545</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J57" s="16">
         <v>43133</v>
       </c>
-      <c r="K57" s="14"/>
+      <c r="K57" s="38"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="14">
+      <c r="A58" s="53">
         <v>56</v>
       </c>
       <c r="B58" s="14">
@@ -14036,17 +14149,17 @@
         <v>544</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J58" s="16">
         <v>43133</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="38">
         <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="14">
+      <c r="A59" s="53">
         <v>57</v>
       </c>
       <c r="B59" s="14">
@@ -14071,15 +14184,15 @@
         <v>544</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J59" s="16">
         <v>43134</v>
       </c>
-      <c r="K59" s="14"/>
+      <c r="K59" s="38"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="14">
+      <c r="A60" s="53">
         <v>58</v>
       </c>
       <c r="B60" s="14">
@@ -14104,17 +14217,17 @@
         <v>544</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J60" s="16">
         <v>43134</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="38">
         <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="14">
+      <c r="A61" s="53">
         <v>59</v>
       </c>
       <c r="B61" s="14">
@@ -14139,15 +14252,15 @@
         <v>547</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J61" s="16">
         <v>43134</v>
       </c>
-      <c r="K61" s="14"/>
+      <c r="K61" s="38"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="14">
+      <c r="A62" s="53">
         <v>60</v>
       </c>
       <c r="B62" s="14">
@@ -14172,15 +14285,15 @@
         <v>547</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J62" s="16">
         <v>43134</v>
       </c>
-      <c r="K62" s="14"/>
+      <c r="K62" s="38"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="14">
+      <c r="A63" s="53">
         <v>61</v>
       </c>
       <c r="B63" s="14">
@@ -14205,15 +14318,15 @@
         <v>547</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J63" s="16">
         <v>43135</v>
       </c>
-      <c r="K63" s="14"/>
+      <c r="K63" s="38"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="14">
+      <c r="A64" s="53">
         <v>62</v>
       </c>
       <c r="B64" s="14">
@@ -14238,15 +14351,15 @@
         <v>547</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J64" s="16">
         <v>43135</v>
       </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="38"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="14">
+      <c r="A65" s="53">
         <v>63</v>
       </c>
       <c r="B65" s="14">
@@ -14271,15 +14384,15 @@
         <v>548</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J65" s="16">
         <v>43135</v>
       </c>
-      <c r="K65" s="14"/>
+      <c r="K65" s="38"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="14">
+      <c r="A66" s="53">
         <v>64</v>
       </c>
       <c r="B66" s="14">
@@ -14304,83 +14417,83 @@
         <v>547</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J66" s="16">
         <v>43135</v>
       </c>
-      <c r="K66" s="14"/>
+      <c r="K66" s="38"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="14">
+      <c r="A67" s="54">
         <v>65</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="55">
         <v>3</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="I67" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="J67" s="16">
+      <c r="I67" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="J67" s="59">
         <v>43135</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="60">
         <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="14">
+      <c r="A68" s="46">
         <v>66</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="47">
         <v>3</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="J68" s="16">
+      <c r="I68" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="J68" s="51">
         <v>43138</v>
       </c>
-      <c r="K68" s="14"/>
+      <c r="K68" s="52"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="14">
+      <c r="A69" s="53">
         <v>67</v>
       </c>
       <c r="B69" s="14">
@@ -14405,15 +14518,15 @@
         <v>547</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J69" s="16">
         <v>43138</v>
       </c>
-      <c r="K69" s="14"/>
+      <c r="K69" s="38"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="14">
+      <c r="A70" s="53">
         <v>68</v>
       </c>
       <c r="B70" s="14">
@@ -14438,15 +14551,15 @@
         <v>549</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J70" s="16">
         <v>43138</v>
       </c>
-      <c r="K70" s="14"/>
+      <c r="K70" s="38"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="14">
+      <c r="A71" s="53">
         <v>69</v>
       </c>
       <c r="B71" s="14">
@@ -14471,15 +14584,15 @@
         <v>546</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J71" s="16">
         <v>43138</v>
       </c>
-      <c r="K71" s="14"/>
+      <c r="K71" s="38"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="14">
+      <c r="A72" s="53">
         <v>70</v>
       </c>
       <c r="B72" s="14">
@@ -14504,17 +14617,17 @@
         <v>547</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J72" s="16">
         <v>43138</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="38">
         <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="14">
+      <c r="A73" s="53">
         <v>71</v>
       </c>
       <c r="B73" s="14">
@@ -14539,17 +14652,17 @@
         <v>546</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J73" s="16">
         <v>43138</v>
       </c>
-      <c r="K73" s="14">
+      <c r="K73" s="38">
         <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="14">
+      <c r="A74" s="53">
         <v>72</v>
       </c>
       <c r="B74" s="14">
@@ -14574,15 +14687,15 @@
         <v>546</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J74" s="16">
         <v>43142</v>
       </c>
-      <c r="K74" s="14"/>
+      <c r="K74" s="38"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="14">
+      <c r="A75" s="53">
         <v>73</v>
       </c>
       <c r="B75" s="14">
@@ -14607,15 +14720,15 @@
         <v>546</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J75" s="16">
         <v>43142</v>
       </c>
-      <c r="K75" s="14"/>
+      <c r="K75" s="38"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="14">
+      <c r="A76" s="53">
         <v>74</v>
       </c>
       <c r="B76" s="14">
@@ -14637,86 +14750,86 @@
         <v>220</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J76" s="16">
         <v>43142</v>
       </c>
-      <c r="K76" s="14"/>
+      <c r="K76" s="38"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="14">
+      <c r="A77" s="53">
         <v>75</v>
       </c>
       <c r="B77" s="19">
         <v>3</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>222</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="H77" s="20" t="s">
         <v>550</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J77" s="21">
         <v>43142</v>
       </c>
-      <c r="K77" s="26">
+      <c r="K77" s="39">
         <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="14">
+      <c r="A78" s="53">
         <v>76</v>
       </c>
       <c r="B78" s="19">
         <v>3</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>82</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="F78" s="20" t="s">
         <v>223</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="H78" s="20" t="s">
         <v>550</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J78" s="21">
         <v>43142</v>
       </c>
-      <c r="K78" s="26"/>
+      <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="14">
+      <c r="A79" s="53">
         <v>77</v>
       </c>
       <c r="B79" s="14">
@@ -14741,15 +14854,15 @@
         <v>551</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="J79" s="16">
         <v>43142</v>
       </c>
-      <c r="K79" s="14"/>
+      <c r="K79" s="38"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="14">
+      <c r="A80" s="53">
         <v>78</v>
       </c>
       <c r="B80" s="14">
@@ -14768,21 +14881,21 @@
         <v>226</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>550</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J80" s="16">
         <v>43142</v>
       </c>
-      <c r="K80" s="14"/>
+      <c r="K80" s="38"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="14">
+      <c r="A81" s="53">
         <v>79</v>
       </c>
       <c r="B81" s="14">
@@ -14801,21 +14914,21 @@
         <v>227</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>550</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J81" s="16">
         <v>43142</v>
       </c>
-      <c r="K81" s="14"/>
+      <c r="K81" s="38"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="14">
+      <c r="A82" s="53">
         <v>80</v>
       </c>
       <c r="B82" s="14">
@@ -14828,7 +14941,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>228</v>
@@ -14840,17 +14953,17 @@
         <v>551</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J82" s="16">
         <v>43142</v>
       </c>
-      <c r="K82" s="14">
+      <c r="K82" s="38">
         <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="14">
+      <c r="A83" s="53">
         <v>81</v>
       </c>
       <c r="B83" s="14">
@@ -14863,7 +14976,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>230</v>
@@ -14875,15 +14988,15 @@
         <v>550</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J83" s="16">
         <v>43142</v>
       </c>
-      <c r="K83" s="14"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="14">
+      <c r="A84" s="53">
         <v>82</v>
       </c>
       <c r="B84" s="14">
@@ -14896,7 +15009,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>232</v>
@@ -14908,15 +15021,15 @@
         <v>551</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J84" s="16">
         <v>43142</v>
       </c>
-      <c r="K84" s="14"/>
+      <c r="K84" s="38"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="14">
+      <c r="A85" s="53">
         <v>83</v>
       </c>
       <c r="B85" s="14">
@@ -14929,7 +15042,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>234</v>
@@ -14941,15 +15054,15 @@
         <v>551</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="J85" s="16">
         <v>43142</v>
       </c>
-      <c r="K85" s="14"/>
+      <c r="K85" s="38"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="14">
+      <c r="A86" s="53">
         <v>84</v>
       </c>
       <c r="B86" s="14">
@@ -14974,17 +15087,17 @@
         <v>550</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J86" s="16">
         <v>43142</v>
       </c>
-      <c r="K86" s="14">
+      <c r="K86" s="38">
         <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="14">
+      <c r="A87" s="53">
         <v>85</v>
       </c>
       <c r="B87" s="14">
@@ -15009,15 +15122,15 @@
         <v>550</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J87" s="16">
         <v>43142</v>
       </c>
-      <c r="K87" s="14"/>
+      <c r="K87" s="38"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="14">
+      <c r="A88" s="53">
         <v>86</v>
       </c>
       <c r="B88" s="14">
@@ -15042,15 +15155,15 @@
         <v>550</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J88" s="16">
         <v>43142</v>
       </c>
-      <c r="K88" s="14"/>
+      <c r="K88" s="38"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="14">
+      <c r="A89" s="53">
         <v>87</v>
       </c>
       <c r="B89" s="14">
@@ -15075,17 +15188,17 @@
         <v>550</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J89" s="16">
         <v>43142</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K89" s="38">
         <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="14">
+      <c r="A90" s="53">
         <v>88</v>
       </c>
       <c r="B90" s="14">
@@ -15110,85 +15223,85 @@
         <v>550</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="J90" s="16">
         <v>43142</v>
       </c>
-      <c r="K90" s="14"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="14">
+      <c r="A91" s="54">
         <v>89</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="55">
         <v>4</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="57">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="F91" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="H91" s="12" t="s">
+      <c r="H91" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="I91" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="J91" s="16">
+      <c r="I91" s="57" t="s">
+        <v>579</v>
+      </c>
+      <c r="J91" s="59">
         <v>43142</v>
       </c>
-      <c r="K91" s="14">
+      <c r="K91" s="60">
         <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="14">
+      <c r="A92" s="46">
         <v>90</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="47">
         <v>4</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="49">
         <v>4.5</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="F92" s="12" t="s">
+      <c r="E92" s="48" t="s">
+        <v>592</v>
+      </c>
+      <c r="F92" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="H92" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="J92" s="16">
+      <c r="H92" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="I92" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="J92" s="51">
         <v>43143</v>
       </c>
-      <c r="K92" s="14">
+      <c r="K92" s="52">
         <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="14">
+      <c r="A93" s="53">
         <v>91</v>
       </c>
       <c r="B93" s="14">
@@ -15210,18 +15323,18 @@
         <v>252</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J93" s="16">
         <v>43143</v>
       </c>
-      <c r="K93" s="14"/>
+      <c r="K93" s="38"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="14">
+      <c r="A94" s="53">
         <v>92</v>
       </c>
       <c r="B94" s="14">
@@ -15243,18 +15356,18 @@
         <v>254</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J94" s="16">
         <v>43143</v>
       </c>
-      <c r="K94" s="14"/>
+      <c r="K94" s="38"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="14">
+      <c r="A95" s="53">
         <v>93</v>
       </c>
       <c r="B95" s="14">
@@ -15276,20 +15389,20 @@
         <v>256</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J95" s="16">
         <v>43143</v>
       </c>
-      <c r="K95" s="14">
+      <c r="K95" s="38">
         <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="14">
+      <c r="A96" s="53">
         <v>94</v>
       </c>
       <c r="B96" s="14">
@@ -15311,18 +15424,18 @@
         <v>258</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J96" s="16">
         <v>43143</v>
       </c>
-      <c r="K96" s="14"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="14">
+      <c r="K96" s="38"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="53">
         <v>95</v>
       </c>
       <c r="B97" s="14">
@@ -15344,18 +15457,18 @@
         <v>260</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J97" s="16">
         <v>43143</v>
       </c>
-      <c r="K97" s="14"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="14">
+      <c r="K97" s="38"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="53">
         <v>96</v>
       </c>
       <c r="B98" s="14">
@@ -15377,18 +15490,18 @@
         <v>262</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J98" s="16">
         <v>43143</v>
       </c>
-      <c r="K98" s="14"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="14">
+      <c r="K98" s="38"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="53">
         <v>97</v>
       </c>
       <c r="B99" s="14">
@@ -15410,20 +15523,20 @@
         <v>264</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J99" s="16">
         <v>43144</v>
       </c>
-      <c r="K99" s="14">
+      <c r="K99" s="38">
         <v>306</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="14">
+    <row r="100" spans="1:12">
+      <c r="A100" s="53">
         <v>98</v>
       </c>
       <c r="B100" s="14">
@@ -15445,25 +15558,25 @@
         <v>266</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>550</v>
+        <v>602</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J100" s="16">
         <v>43144</v>
       </c>
-      <c r="K100" s="14"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="14">
+      <c r="K100" s="38"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="53">
         <v>99</v>
       </c>
       <c r="B101" s="14">
         <v>4</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>70</v>
@@ -15478,18 +15591,18 @@
         <v>269</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J101" s="16">
         <v>43145</v>
       </c>
-      <c r="K101" s="14"/>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="14">
+      <c r="K101" s="38"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="53">
         <v>100</v>
       </c>
       <c r="B102" s="14">
@@ -15511,18 +15624,18 @@
         <v>271</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J102" s="16">
         <v>43145</v>
       </c>
-      <c r="K102" s="14"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="14">
+      <c r="K102" s="38"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="53">
         <v>101</v>
       </c>
       <c r="B103" s="14">
@@ -15544,20 +15657,20 @@
         <v>273</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J103" s="16">
         <v>43145</v>
       </c>
-      <c r="K103" s="14">
+      <c r="K103" s="38">
         <v>320</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="14">
+    <row r="104" spans="1:12">
+      <c r="A104" s="53">
         <v>102</v>
       </c>
       <c r="B104" s="14">
@@ -15570,7 +15683,7 @@
         <v>5.2</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="F104" s="12" t="s">
         <v>274</v>
@@ -15579,210 +15692,223 @@
         <v>275</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="J104" s="16">
         <v>43146</v>
       </c>
-      <c r="K104" s="14"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="14">
+      <c r="K104" s="38"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="54">
         <v>103</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105" s="55">
         <v>5</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="57">
         <v>5.2</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="F105" s="12" t="s">
+      <c r="E105" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="F105" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="H105" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="I105" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="J105" s="16">
+      <c r="H105" s="57" t="s">
+        <v>597</v>
+      </c>
+      <c r="I105" s="57" t="s">
+        <v>591</v>
+      </c>
+      <c r="J105" s="59">
         <v>43146</v>
       </c>
-      <c r="K105" s="14"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="28">
+      <c r="K105" s="60">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="46">
         <v>104</v>
       </c>
-      <c r="B106" s="28">
+      <c r="B106" s="47">
         <v>5</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D106" s="49">
         <v>5.3</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="H106" s="30" t="s">
+      <c r="H106" s="49" t="s">
         <v>595</v>
       </c>
-      <c r="I106" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="J106" s="31"/>
-      <c r="K106" s="28"/>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="28">
+      <c r="I106" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="J106" s="51">
+        <v>43150</v>
+      </c>
+      <c r="K106" s="52"/>
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="53">
         <v>105</v>
       </c>
-      <c r="B107" s="28">
+      <c r="B107" s="14">
         <v>5</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="30">
+      <c r="D107" s="12">
         <v>5.3</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="30" t="s">
+      <c r="F107" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G107" s="29" t="s">
+      <c r="G107" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H107" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="I107" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="J107" s="31"/>
-      <c r="K107" s="28"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="28">
+      <c r="H107" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="J107" s="16">
+        <v>43150</v>
+      </c>
+      <c r="K107" s="38"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="53">
         <v>106</v>
       </c>
-      <c r="B108" s="28">
+      <c r="B108" s="14">
         <v>5</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D108" s="12">
         <v>5.3</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H108" s="30" t="s">
+      <c r="H108" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="I108" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="J108" s="31"/>
-      <c r="K108" s="28"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="28">
+      <c r="I108" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="J108" s="16">
+        <v>43150</v>
+      </c>
+      <c r="K108" s="38"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="53">
         <v>107</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B109" s="14">
         <v>5</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D109" s="12">
         <v>5.4</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F109" s="30" t="s">
+      <c r="F109" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H109" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="I109" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="J109" s="31"/>
-      <c r="K109" s="28">
+      <c r="H109" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="J109" s="16">
+        <v>43150</v>
+      </c>
+      <c r="K109" s="38">
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="22">
+    <row r="110" spans="1:12">
+      <c r="A110" s="53">
         <v>108</v>
       </c>
-      <c r="B110" s="22">
+      <c r="B110" s="14">
         <v>5</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="12">
         <v>5.5</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F110" s="24" t="s">
+      <c r="F110" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G110" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="H110" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J110" s="25"/>
-      <c r="K110" s="22">
+      <c r="H110" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="J110" s="16">
+        <v>43150</v>
+      </c>
+      <c r="K110" s="38">
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="22">
+    <row r="111" spans="1:12">
+      <c r="A111" s="35">
         <v>109</v>
       </c>
       <c r="B111" s="22">
@@ -15804,16 +15930,16 @@
         <v>283</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I111" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J111" s="25"/>
-      <c r="K111" s="22"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="22">
+        <v>596</v>
+      </c>
+      <c r="I111" s="24"/>
+      <c r="J111" s="25">
+        <v>43151</v>
+      </c>
+      <c r="K111" s="36"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="35">
         <v>110</v>
       </c>
       <c r="B112" s="22">
@@ -15835,16 +15961,16 @@
         <v>285</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I112" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J112" s="25"/>
-      <c r="K112" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I112" s="24"/>
+      <c r="J112" s="25">
+        <v>43151</v>
+      </c>
+      <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="22">
+      <c r="A113" s="35">
         <v>111</v>
       </c>
       <c r="B113" s="22">
@@ -15866,16 +15992,18 @@
         <v>287</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I113" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J113" s="25"/>
-      <c r="K113" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I113" s="24"/>
+      <c r="J113" s="25">
+        <v>43152</v>
+      </c>
+      <c r="K113" s="36">
+        <v>359</v>
+      </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="22">
+      <c r="A114" s="35">
         <v>112</v>
       </c>
       <c r="B114" s="22">
@@ -15897,16 +16025,16 @@
         <v>289</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I114" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J114" s="25"/>
-      <c r="K114" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I114" s="24"/>
+      <c r="J114" s="25">
+        <v>43152</v>
+      </c>
+      <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="22">
+      <c r="A115" s="35">
         <v>113</v>
       </c>
       <c r="B115" s="22">
@@ -15928,16 +16056,16 @@
         <v>291</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I115" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J115" s="25"/>
-      <c r="K115" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I115" s="24"/>
+      <c r="J115" s="25">
+        <v>43152</v>
+      </c>
+      <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="22">
+      <c r="A116" s="35">
         <v>114</v>
       </c>
       <c r="B116" s="22">
@@ -15959,18 +16087,18 @@
         <v>294</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I116" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J116" s="25"/>
-      <c r="K116" s="22">
+        <v>596</v>
+      </c>
+      <c r="I116" s="24"/>
+      <c r="J116" s="25">
+        <v>43154</v>
+      </c>
+      <c r="K116" s="36">
         <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="22">
+      <c r="A117" s="35">
         <v>115</v>
       </c>
       <c r="B117" s="22">
@@ -15992,16 +16120,16 @@
         <v>295</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I117" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J117" s="25"/>
-      <c r="K117" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I117" s="24"/>
+      <c r="J117" s="25">
+        <v>43154</v>
+      </c>
+      <c r="K117" s="36"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="22">
+      <c r="A118" s="35">
         <v>116</v>
       </c>
       <c r="B118" s="22">
@@ -16023,16 +16151,18 @@
         <v>297</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I118" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J118" s="25"/>
-      <c r="K118" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I118" s="24"/>
+      <c r="J118" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K118" s="36">
+        <v>383</v>
+      </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="22">
+      <c r="A119" s="35">
         <v>117</v>
       </c>
       <c r="B119" s="22">
@@ -16054,16 +16184,16 @@
         <v>299</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I119" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J119" s="25"/>
-      <c r="K119" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I119" s="24"/>
+      <c r="J119" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="22">
+      <c r="A120" s="35">
         <v>118</v>
       </c>
       <c r="B120" s="22">
@@ -16085,16 +16215,16 @@
         <v>301</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I120" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J120" s="25"/>
-      <c r="K120" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I120" s="24"/>
+      <c r="J120" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="22">
+      <c r="A121" s="35">
         <v>119</v>
       </c>
       <c r="B121" s="22">
@@ -16116,16 +16246,16 @@
         <v>303</v>
       </c>
       <c r="H121" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I121" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J121" s="25"/>
-      <c r="K121" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I121" s="24"/>
+      <c r="J121" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="22">
+      <c r="A122" s="35">
         <v>120</v>
       </c>
       <c r="B122" s="22">
@@ -16147,16 +16277,16 @@
         <v>305</v>
       </c>
       <c r="H122" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I122" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J122" s="25"/>
-      <c r="K122" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I122" s="24"/>
+      <c r="J122" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="22">
+      <c r="A123" s="35">
         <v>121</v>
       </c>
       <c r="B123" s="22">
@@ -16178,16 +16308,16 @@
         <v>309</v>
       </c>
       <c r="H123" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I123" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J123" s="25"/>
-      <c r="K123" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I123" s="24"/>
+      <c r="J123" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="22">
+      <c r="A124" s="35">
         <v>122</v>
       </c>
       <c r="B124" s="22">
@@ -16209,16 +16339,16 @@
         <v>311</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J124" s="25"/>
-      <c r="K124" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I124" s="24"/>
+      <c r="J124" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="22">
+      <c r="A125" s="35">
         <v>123</v>
       </c>
       <c r="B125" s="22">
@@ -16240,16 +16370,16 @@
         <v>313</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J125" s="25"/>
-      <c r="K125" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I125" s="24"/>
+      <c r="J125" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="22">
+      <c r="A126" s="35">
         <v>124</v>
       </c>
       <c r="B126" s="22">
@@ -16271,16 +16401,16 @@
         <v>317</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J126" s="25"/>
-      <c r="K126" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I126" s="24"/>
+      <c r="J126" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="22">
+      <c r="A127" s="35">
         <v>125</v>
       </c>
       <c r="B127" s="22">
@@ -16302,16 +16432,16 @@
         <v>319</v>
       </c>
       <c r="H127" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I127" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J127" s="25"/>
-      <c r="K127" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I127" s="24"/>
+      <c r="J127" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="22">
+      <c r="A128" s="35">
         <v>126</v>
       </c>
       <c r="B128" s="22">
@@ -16333,16 +16463,16 @@
         <v>321</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J128" s="25"/>
-      <c r="K128" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I128" s="24"/>
+      <c r="J128" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="22">
+      <c r="A129" s="35">
         <v>127</v>
       </c>
       <c r="B129" s="22">
@@ -16364,16 +16494,16 @@
         <v>323</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J129" s="25"/>
-      <c r="K129" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I129" s="24"/>
+      <c r="J129" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="22">
+      <c r="A130" s="35">
         <v>128</v>
       </c>
       <c r="B130" s="22">
@@ -16395,16 +16525,16 @@
         <v>326</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J130" s="25"/>
-      <c r="K130" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I130" s="24"/>
+      <c r="J130" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="22">
+      <c r="A131" s="35">
         <v>129</v>
       </c>
       <c r="B131" s="22">
@@ -16426,16 +16556,16 @@
         <v>328</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J131" s="25"/>
-      <c r="K131" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I131" s="24"/>
+      <c r="J131" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="22">
+      <c r="A132" s="35">
         <v>130</v>
       </c>
       <c r="B132" s="22">
@@ -16457,74 +16587,80 @@
         <v>330</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I132" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="J132" s="25"/>
-      <c r="K132" s="22"/>
+        <v>596</v>
+      </c>
+      <c r="I132" s="24"/>
+      <c r="J132" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="8">
+      <c r="A133" s="35">
         <v>131</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="22">
         <v>6</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="24">
         <v>6.1</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>617</v>
+      <c r="H133" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="I133" s="24"/>
+      <c r="J133" s="25">
+        <v>43156</v>
+      </c>
+      <c r="K133" s="36">
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="8">
+      <c r="A134" s="45">
         <v>132</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="40">
         <v>6</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="42">
         <v>6.1</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="H134" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>617</v>
-      </c>
+      <c r="H134" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="I134" s="42"/>
+      <c r="J134" s="43">
+        <v>43156</v>
+      </c>
+      <c r="K134" s="44"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="8">
+      <c r="A135" s="27">
         <v>133</v>
       </c>
       <c r="B135" s="8">
@@ -16546,14 +16682,14 @@
         <v>336</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
+      </c>
+      <c r="K135" s="28">
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="8">
+      <c r="A136" s="27">
         <v>134</v>
       </c>
       <c r="B136" s="8">
@@ -16575,14 +16711,11 @@
         <v>338</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="8">
+      <c r="A137" s="27">
         <v>135</v>
       </c>
       <c r="B137" s="8">
@@ -16604,14 +16737,11 @@
         <v>340</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="8">
+      <c r="A138" s="27">
         <v>136</v>
       </c>
       <c r="B138" s="8">
@@ -16633,14 +16763,11 @@
         <v>342</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="8">
+      <c r="A139" s="27">
         <v>137</v>
       </c>
       <c r="B139" s="8">
@@ -16662,14 +16789,11 @@
         <v>344</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="8">
+      <c r="A140" s="27">
         <v>138</v>
       </c>
       <c r="B140" s="8">
@@ -16691,14 +16815,11 @@
         <v>346</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="8">
+      <c r="A141" s="27">
         <v>139</v>
       </c>
       <c r="B141" s="8">
@@ -16720,14 +16841,11 @@
         <v>348</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="8">
+      <c r="A142" s="27">
         <v>140</v>
       </c>
       <c r="B142" s="8">
@@ -16749,14 +16867,11 @@
         <v>350</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="8">
+      <c r="A143" s="27">
         <v>141</v>
       </c>
       <c r="B143" s="8">
@@ -16778,14 +16893,11 @@
         <v>352</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="8">
+      <c r="A144" s="27">
         <v>142</v>
       </c>
       <c r="B144" s="8">
@@ -16807,14 +16919,11 @@
         <v>354</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="8">
+      <c r="A145" s="27">
         <v>143</v>
       </c>
       <c r="B145" s="8">
@@ -16836,14 +16945,11 @@
         <v>356</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="8">
+      <c r="A146" s="27">
         <v>144</v>
       </c>
       <c r="B146" s="8">
@@ -16865,14 +16971,11 @@
         <v>358</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="8">
+      <c r="A147" s="27">
         <v>145</v>
       </c>
       <c r="B147" s="8">
@@ -16894,14 +16997,11 @@
         <v>360</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="8">
+      <c r="A148" s="27">
         <v>146</v>
       </c>
       <c r="B148" s="8">
@@ -16923,14 +17023,11 @@
         <v>362</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I148" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="8">
+      <c r="A149" s="27">
         <v>147</v>
       </c>
       <c r="B149" s="8">
@@ -16952,14 +17049,11 @@
         <v>364</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="8">
+      <c r="A150" s="27">
         <v>148</v>
       </c>
       <c r="B150" s="8">
@@ -16981,14 +17075,11 @@
         <v>366</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="I150" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="8">
+      <c r="A151" s="27">
         <v>149</v>
       </c>
       <c r="B151" s="8">
@@ -17010,14 +17101,11 @@
         <v>368</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="8">
+      <c r="A152" s="27">
         <v>150</v>
       </c>
       <c r="B152" s="8">
@@ -17035,21 +17123,18 @@
       <c r="F152" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G152" s="27" t="s">
+      <c r="G152" s="26" t="s">
         <v>370</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="K152" s="8">
+        <v>603</v>
+      </c>
+      <c r="K152" s="28">
         <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="8">
+      <c r="A153" s="27">
         <v>151</v>
       </c>
       <c r="B153" s="8">
@@ -17071,11 +17156,11 @@
         <v>372</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="8">
+      <c r="A154" s="27">
         <v>152</v>
       </c>
       <c r="B154" s="8">
@@ -17097,11 +17182,11 @@
         <v>374</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="8">
+      <c r="A155" s="27">
         <v>153</v>
       </c>
       <c r="B155" s="8">
@@ -17123,11 +17208,11 @@
         <v>376</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="8">
+      <c r="A156" s="27">
         <v>154</v>
       </c>
       <c r="B156" s="8">
@@ -17149,11 +17234,11 @@
         <v>378</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="8">
+      <c r="A157" s="27">
         <v>155</v>
       </c>
       <c r="B157" s="8">
@@ -17175,11 +17260,11 @@
         <v>380</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="8">
+      <c r="A158" s="27">
         <v>156</v>
       </c>
       <c r="B158" s="8">
@@ -17201,11 +17286,11 @@
         <v>383</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="8">
+      <c r="A159" s="27">
         <v>157</v>
       </c>
       <c r="B159" s="8">
@@ -17227,7 +17312,7 @@
         <v>386</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -17253,11 +17338,11 @@
         <v>387</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="8">
+      <c r="A161" s="27">
         <v>159</v>
       </c>
       <c r="B161" s="8">
@@ -17279,11 +17364,14 @@
         <v>388</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
+      </c>
+      <c r="K161" s="28">
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="8">
+      <c r="A162" s="27">
         <v>160</v>
       </c>
       <c r="B162" s="8">
@@ -17305,37 +17393,40 @@
         <v>390</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="8">
+      <c r="A163" s="29">
         <v>161</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163" s="30">
         <v>7</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D163" s="32">
         <v>7.4</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="G163" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="H163" s="7" t="s">
-        <v>585</v>
-      </c>
+      <c r="H163" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="I163" s="32"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="34"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="8">
+      <c r="A164" s="27">
         <v>162</v>
       </c>
       <c r="B164" s="8">
@@ -17357,14 +17448,14 @@
         <v>394</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="K164" s="8">
-        <v>527</v>
+        <v>604</v>
+      </c>
+      <c r="K164" s="28">
+        <v>523</v>
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="8">
+      <c r="A165" s="27">
         <v>163</v>
       </c>
       <c r="B165" s="8">
@@ -17386,11 +17477,14 @@
         <v>396</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
+      </c>
+      <c r="K165" s="28">
+        <v>528</v>
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="8">
+      <c r="A166" s="27">
         <v>164</v>
       </c>
       <c r="B166" s="8">
@@ -17412,11 +17506,11 @@
         <v>398</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="8">
+      <c r="A167" s="27">
         <v>165</v>
       </c>
       <c r="B167" s="8">
@@ -17438,11 +17532,11 @@
         <v>400</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="8">
+      <c r="A168" s="27">
         <v>166</v>
       </c>
       <c r="B168" s="8">
@@ -17464,11 +17558,11 @@
         <v>402</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="8">
+      <c r="A169" s="27">
         <v>167</v>
       </c>
       <c r="B169" s="8">
@@ -17490,11 +17584,11 @@
         <v>404</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="8">
+      <c r="A170" s="27">
         <v>168</v>
       </c>
       <c r="B170" s="8">
@@ -17516,11 +17610,11 @@
         <v>406</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="8">
+      <c r="A171" s="27">
         <v>169</v>
       </c>
       <c r="B171" s="8">
@@ -17542,11 +17636,11 @@
         <v>408</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="8">
+      <c r="A172" s="27">
         <v>170</v>
       </c>
       <c r="B172" s="8">
@@ -17568,11 +17662,11 @@
         <v>410</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="8">
+      <c r="A173" s="27">
         <v>171</v>
       </c>
       <c r="B173" s="8">
@@ -17594,11 +17688,11 @@
         <v>412</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="8">
+      <c r="A174" s="27">
         <v>172</v>
       </c>
       <c r="B174" s="8">
@@ -17620,11 +17714,11 @@
         <v>414</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="8">
+      <c r="A175" s="27">
         <v>173</v>
       </c>
       <c r="B175" s="8">
@@ -17646,11 +17740,11 @@
         <v>416</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="8">
+      <c r="A176" s="27">
         <v>174</v>
       </c>
       <c r="B176" s="8">
@@ -17672,11 +17766,11 @@
         <v>418</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="8">
+      <c r="A177" s="27">
         <v>175</v>
       </c>
       <c r="B177" s="8">
@@ -17698,11 +17792,11 @@
         <v>420</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="8">
+      <c r="A178" s="27">
         <v>176</v>
       </c>
       <c r="B178" s="8">
@@ -17724,11 +17818,11 @@
         <v>422</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="8">
+      <c r="A179" s="27">
         <v>177</v>
       </c>
       <c r="B179" s="8">
@@ -17750,11 +17844,11 @@
         <v>424</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="8">
+      <c r="A180" s="27">
         <v>178</v>
       </c>
       <c r="B180" s="8">
@@ -17776,11 +17870,11 @@
         <v>426</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="8">
+      <c r="A181" s="27">
         <v>179</v>
       </c>
       <c r="B181" s="8">
@@ -17802,11 +17896,11 @@
         <v>428</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="8">
+      <c r="A182" s="27">
         <v>180</v>
       </c>
       <c r="B182" s="8">
@@ -17828,11 +17922,11 @@
         <v>430</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="8">
+      <c r="A183" s="27">
         <v>181</v>
       </c>
       <c r="B183" s="8">
@@ -17854,11 +17948,11 @@
         <v>432</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="8">
+      <c r="A184" s="27">
         <v>182</v>
       </c>
       <c r="B184" s="8">
@@ -17880,11 +17974,11 @@
         <v>434</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="8">
+      <c r="A185" s="27">
         <v>183</v>
       </c>
       <c r="B185" s="8">
@@ -17906,14 +18000,14 @@
         <v>436</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="K185" s="8">
+        <v>604</v>
+      </c>
+      <c r="K185" s="28">
         <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="8">
+      <c r="A186" s="27">
         <v>184</v>
       </c>
       <c r="B186" s="8">
@@ -17935,11 +18029,11 @@
         <v>438</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="8">
+      <c r="A187" s="27">
         <v>185</v>
       </c>
       <c r="B187" s="8">
@@ -17961,11 +18055,11 @@
         <v>440</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="8">
+      <c r="A188" s="27">
         <v>186</v>
       </c>
       <c r="B188" s="8">
@@ -17987,11 +18081,11 @@
         <v>442</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="8">
+      <c r="A189" s="27">
         <v>187</v>
       </c>
       <c r="B189" s="8">
@@ -18013,11 +18107,11 @@
         <v>444</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="8">
+      <c r="A190" s="27">
         <v>188</v>
       </c>
       <c r="B190" s="8">
@@ -18039,11 +18133,11 @@
         <v>446</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="8">
+      <c r="A191" s="27">
         <v>189</v>
       </c>
       <c r="B191" s="8">
@@ -18065,37 +18159,42 @@
         <v>447</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="8">
+      <c r="A192" s="30">
         <v>190</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192" s="30">
         <v>8</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D192" s="32">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E192" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="G192" s="4" t="s">
+      <c r="G192" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="H192" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="8">
+      <c r="H192" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I192" s="32"/>
+      <c r="J192" s="33"/>
+      <c r="K192" s="34">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="27">
         <v>191</v>
       </c>
       <c r="B193" s="8">
@@ -18117,11 +18216,14 @@
         <v>452</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="8">
+        <v>605</v>
+      </c>
+      <c r="K193" s="28">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="27">
         <v>192</v>
       </c>
       <c r="B194" s="8">
@@ -18143,11 +18245,11 @@
         <v>454</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="27">
         <v>193</v>
       </c>
       <c r="B195" s="8">
@@ -18169,11 +18271,11 @@
         <v>456</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="27">
         <v>194</v>
       </c>
       <c r="B196" s="8">
@@ -18195,11 +18297,11 @@
         <v>458</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="27">
         <v>195</v>
       </c>
       <c r="B197" s="8">
@@ -18221,11 +18323,11 @@
         <v>460</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="27">
         <v>196</v>
       </c>
       <c r="B198" s="8">
@@ -18247,11 +18349,11 @@
         <v>462</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="27">
         <v>197</v>
       </c>
       <c r="B199" s="8">
@@ -18273,11 +18375,11 @@
         <v>464</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="27">
         <v>198</v>
       </c>
       <c r="B200" s="8">
@@ -18299,11 +18401,11 @@
         <v>466</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201" s="27">
         <v>199</v>
       </c>
       <c r="B201" s="8">
@@ -18325,11 +18427,11 @@
         <v>468</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="27">
         <v>200</v>
       </c>
       <c r="B202" s="8">
@@ -18351,11 +18453,11 @@
         <v>470</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="27">
         <v>201</v>
       </c>
       <c r="B203" s="8">
@@ -18377,11 +18479,11 @@
         <v>474</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="27">
         <v>202</v>
       </c>
       <c r="B204" s="8">
@@ -18403,11 +18505,11 @@
         <v>473</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="27">
         <v>203</v>
       </c>
       <c r="B205" s="8">
@@ -18429,11 +18531,11 @@
         <v>476</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="27">
         <v>204</v>
       </c>
       <c r="B206" s="8">
@@ -18455,11 +18557,11 @@
         <v>478</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="27">
         <v>205</v>
       </c>
       <c r="B207" s="8">
@@ -18481,11 +18583,11 @@
         <v>480</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="27">
         <v>206</v>
       </c>
       <c r="B208" s="8">
@@ -18507,11 +18609,11 @@
         <v>482</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="8">
+      <c r="A209" s="27">
         <v>207</v>
       </c>
       <c r="B209" s="8">
@@ -18533,11 +18635,11 @@
         <v>484</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="8">
+      <c r="A210" s="27">
         <v>208</v>
       </c>
       <c r="B210" s="8">
@@ -18559,11 +18661,11 @@
         <v>486</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="8">
+      <c r="A211" s="27">
         <v>209</v>
       </c>
       <c r="B211" s="8">
@@ -18585,11 +18687,11 @@
         <v>488</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="8">
+      <c r="A212" s="27">
         <v>210</v>
       </c>
       <c r="B212" s="8">
@@ -18611,11 +18713,11 @@
         <v>492</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="8">
+      <c r="A213" s="27">
         <v>211</v>
       </c>
       <c r="B213" s="8">
@@ -18637,11 +18739,11 @@
         <v>491</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="8">
+      <c r="A214" s="27">
         <v>212</v>
       </c>
       <c r="B214" s="8">
@@ -18663,11 +18765,11 @@
         <v>494</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="8">
+      <c r="A215" s="27">
         <v>213</v>
       </c>
       <c r="B215" s="8">
@@ -18689,11 +18791,11 @@
         <v>496</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="8">
+      <c r="A216" s="27">
         <v>214</v>
       </c>
       <c r="B216" s="8">
@@ -18715,11 +18817,11 @@
         <v>498</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="8">
+      <c r="A217" s="27">
         <v>215</v>
       </c>
       <c r="B217" s="8">
@@ -18741,11 +18843,11 @@
         <v>500</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="8">
+      <c r="A218" s="27">
         <v>216</v>
       </c>
       <c r="B218" s="8">
@@ -18767,35 +18869,37 @@
         <v>502</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="8">
+      <c r="A219" s="29">
         <v>217</v>
       </c>
-      <c r="B219" s="8">
+      <c r="B219" s="30">
         <v>9</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D219" s="7">
+      <c r="D219" s="32">
         <v>9.6</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="E219" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="F219" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="G219" s="8" t="s">
+      <c r="G219" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="H219" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="K219" s="8">
+      <c r="H219" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="I219" s="32"/>
+      <c r="J219" s="33"/>
+      <c r="K219" s="34">
         <v>722</v>
       </c>
     </row>

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -12275,8 +12275,8 @@
   <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15933,9 +15933,7 @@
         <v>596</v>
       </c>
       <c r="I111" s="24"/>
-      <c r="J111" s="25">
-        <v>43151</v>
-      </c>
+      <c r="J111" s="25"/>
       <c r="K111" s="36"/>
     </row>
     <row r="112" spans="1:12">
@@ -15964,9 +15962,7 @@
         <v>596</v>
       </c>
       <c r="I112" s="24"/>
-      <c r="J112" s="25">
-        <v>43151</v>
-      </c>
+      <c r="J112" s="25"/>
       <c r="K112" s="36"/>
     </row>
     <row r="113" spans="1:11">
@@ -15995,9 +15991,7 @@
         <v>596</v>
       </c>
       <c r="I113" s="24"/>
-      <c r="J113" s="25">
-        <v>43152</v>
-      </c>
+      <c r="J113" s="25"/>
       <c r="K113" s="36">
         <v>359</v>
       </c>
@@ -16028,9 +16022,7 @@
         <v>596</v>
       </c>
       <c r="I114" s="24"/>
-      <c r="J114" s="25">
-        <v>43152</v>
-      </c>
+      <c r="J114" s="25"/>
       <c r="K114" s="36"/>
     </row>
     <row r="115" spans="1:11">
@@ -16059,9 +16051,7 @@
         <v>596</v>
       </c>
       <c r="I115" s="24"/>
-      <c r="J115" s="25">
-        <v>43152</v>
-      </c>
+      <c r="J115" s="25"/>
       <c r="K115" s="36"/>
     </row>
     <row r="116" spans="1:11">
@@ -16090,9 +16080,7 @@
         <v>596</v>
       </c>
       <c r="I116" s="24"/>
-      <c r="J116" s="25">
-        <v>43154</v>
-      </c>
+      <c r="J116" s="25"/>
       <c r="K116" s="36">
         <v>371</v>
       </c>
@@ -16123,9 +16111,7 @@
         <v>596</v>
       </c>
       <c r="I117" s="24"/>
-      <c r="J117" s="25">
-        <v>43154</v>
-      </c>
+      <c r="J117" s="25"/>
       <c r="K117" s="36"/>
     </row>
     <row r="118" spans="1:11">
@@ -16154,9 +16140,7 @@
         <v>596</v>
       </c>
       <c r="I118" s="24"/>
-      <c r="J118" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J118" s="25"/>
       <c r="K118" s="36">
         <v>383</v>
       </c>
@@ -16187,9 +16171,7 @@
         <v>596</v>
       </c>
       <c r="I119" s="24"/>
-      <c r="J119" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J119" s="25"/>
       <c r="K119" s="36"/>
     </row>
     <row r="120" spans="1:11">
@@ -16218,9 +16200,7 @@
         <v>596</v>
       </c>
       <c r="I120" s="24"/>
-      <c r="J120" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J120" s="25"/>
       <c r="K120" s="36"/>
     </row>
     <row r="121" spans="1:11">
@@ -16249,9 +16229,7 @@
         <v>596</v>
       </c>
       <c r="I121" s="24"/>
-      <c r="J121" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J121" s="25"/>
       <c r="K121" s="36"/>
     </row>
     <row r="122" spans="1:11">
@@ -16280,9 +16258,7 @@
         <v>596</v>
       </c>
       <c r="I122" s="24"/>
-      <c r="J122" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J122" s="25"/>
       <c r="K122" s="36"/>
     </row>
     <row r="123" spans="1:11">
@@ -16311,9 +16287,7 @@
         <v>596</v>
       </c>
       <c r="I123" s="24"/>
-      <c r="J123" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J123" s="25"/>
       <c r="K123" s="36"/>
     </row>
     <row r="124" spans="1:11">
@@ -16342,9 +16316,7 @@
         <v>596</v>
       </c>
       <c r="I124" s="24"/>
-      <c r="J124" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J124" s="25"/>
       <c r="K124" s="36"/>
     </row>
     <row r="125" spans="1:11">
@@ -16373,9 +16345,7 @@
         <v>596</v>
       </c>
       <c r="I125" s="24"/>
-      <c r="J125" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J125" s="25"/>
       <c r="K125" s="36"/>
     </row>
     <row r="126" spans="1:11">
@@ -16404,9 +16374,7 @@
         <v>596</v>
       </c>
       <c r="I126" s="24"/>
-      <c r="J126" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J126" s="25"/>
       <c r="K126" s="36"/>
     </row>
     <row r="127" spans="1:11">
@@ -16435,9 +16403,7 @@
         <v>596</v>
       </c>
       <c r="I127" s="24"/>
-      <c r="J127" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J127" s="25"/>
       <c r="K127" s="36"/>
     </row>
     <row r="128" spans="1:11">
@@ -16466,9 +16432,7 @@
         <v>596</v>
       </c>
       <c r="I128" s="24"/>
-      <c r="J128" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J128" s="25"/>
       <c r="K128" s="36"/>
     </row>
     <row r="129" spans="1:11">
@@ -16497,9 +16461,7 @@
         <v>596</v>
       </c>
       <c r="I129" s="24"/>
-      <c r="J129" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J129" s="25"/>
       <c r="K129" s="36"/>
     </row>
     <row r="130" spans="1:11">
@@ -16528,9 +16490,7 @@
         <v>596</v>
       </c>
       <c r="I130" s="24"/>
-      <c r="J130" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J130" s="25"/>
       <c r="K130" s="36"/>
     </row>
     <row r="131" spans="1:11">
@@ -16559,9 +16519,7 @@
         <v>596</v>
       </c>
       <c r="I131" s="24"/>
-      <c r="J131" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J131" s="25"/>
       <c r="K131" s="36"/>
     </row>
     <row r="132" spans="1:11">
@@ -16590,9 +16548,7 @@
         <v>596</v>
       </c>
       <c r="I132" s="24"/>
-      <c r="J132" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J132" s="25"/>
       <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11">
@@ -16621,9 +16577,7 @@
         <v>603</v>
       </c>
       <c r="I133" s="24"/>
-      <c r="J133" s="25">
-        <v>43156</v>
-      </c>
+      <c r="J133" s="25"/>
       <c r="K133" s="36">
         <v>419</v>
       </c>
@@ -16654,9 +16608,7 @@
         <v>603</v>
       </c>
       <c r="I134" s="42"/>
-      <c r="J134" s="43">
-        <v>43156</v>
-      </c>
+      <c r="J134" s="43"/>
       <c r="K134" s="44"/>
     </row>
     <row r="135" spans="1:11">

--- a/certificate/sc-japan/수험서주제정리.xlsx
+++ b/certificate/sc-japan/수험서주제정리.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="618">
   <si>
     <t>장</t>
     <phoneticPr fontId="2"/>
@@ -13297,6 +13297,317 @@
         <scheme val="minor"/>
       </rPr>
       <t>법제도</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>단계</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>형광펜</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>배경색</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>분홍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>노랑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>파랑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>키워드, 중요 내용</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>장,절,주제 (대/중/소 제목) 정리</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 217</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주제</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -13308,7 +13619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13376,8 +13687,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13399,6 +13725,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13426,7 +13770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13511,16 +13855,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13531,6 +13905,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFE8B9FF"/>
       <color rgb="FFCC66FF"/>
     </mruColors>
@@ -13812,8 +14188,8 @@
   <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16099,7 +16475,7 @@
       <c r="I77" s="19">
         <v>43142</v>
       </c>
-      <c r="J77" s="30">
+      <c r="J77" s="28">
         <v>223</v>
       </c>
     </row>
@@ -16131,7 +16507,7 @@
       <c r="I78" s="19">
         <v>43142</v>
       </c>
-      <c r="J78" s="30"/>
+      <c r="J78" s="28"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="12">
@@ -17251,1210 +17627,1210 @@
       <c r="J115" s="27"/>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="20">
+      <c r="A116" s="27">
         <v>114</v>
       </c>
-      <c r="B116" s="20">
+      <c r="B116" s="27">
         <v>5</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="24">
         <v>5.6</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E116" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="G116" s="21" t="s">
+      <c r="G116" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="H116" s="22"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="20">
+      <c r="H116" s="24"/>
+      <c r="I116" s="26"/>
+      <c r="J116" s="27">
         <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="20">
+      <c r="A117" s="27">
         <v>115</v>
       </c>
-      <c r="B117" s="20">
+      <c r="B117" s="27">
         <v>5</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="22">
+      <c r="D117" s="24">
         <v>5.6</v>
       </c>
-      <c r="E117" s="21" t="s">
+      <c r="E117" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F117" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="G117" s="21" t="s">
+      <c r="G117" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="H117" s="22"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="20"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="27"/>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="20">
+      <c r="A118" s="27">
         <v>116</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="27">
         <v>5</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="22">
+      <c r="D118" s="24">
         <v>5.6</v>
       </c>
-      <c r="E118" s="21" t="s">
+      <c r="E118" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F118" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="G118" s="21" t="s">
+      <c r="G118" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="H118" s="22"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="20">
+      <c r="H118" s="24"/>
+      <c r="I118" s="26"/>
+      <c r="J118" s="27">
         <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="20">
+      <c r="A119" s="27">
         <v>117</v>
       </c>
-      <c r="B119" s="20">
+      <c r="B119" s="27">
         <v>5</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="22">
+      <c r="D119" s="24">
         <v>5.6</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E119" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="F119" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="G119" s="21" t="s">
+      <c r="G119" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="H119" s="22"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="20"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="26"/>
+      <c r="J119" s="27"/>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="20">
+      <c r="A120" s="27">
         <v>118</v>
       </c>
-      <c r="B120" s="20">
+      <c r="B120" s="27">
         <v>5</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="22">
+      <c r="D120" s="24">
         <v>5.6</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="F120" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="G120" s="21" t="s">
+      <c r="G120" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="H120" s="22"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="20"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="26"/>
+      <c r="J120" s="27"/>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="20">
+      <c r="A121" s="27">
         <v>119</v>
       </c>
-      <c r="B121" s="20">
+      <c r="B121" s="27">
         <v>5</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="22">
+      <c r="D121" s="24">
         <v>5.6</v>
       </c>
-      <c r="E121" s="21" t="s">
+      <c r="E121" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="F121" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="G121" s="21" t="s">
+      <c r="G121" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="H121" s="22"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="20"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="27"/>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="20">
+      <c r="A122" s="27">
         <v>120</v>
       </c>
-      <c r="B122" s="20">
+      <c r="B122" s="27">
         <v>5</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="E122" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="F122" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G122" s="21" t="s">
+      <c r="G122" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="H122" s="22"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="20"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="27"/>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="20">
+      <c r="A123" s="27">
         <v>121</v>
       </c>
-      <c r="B123" s="20">
+      <c r="B123" s="27">
         <v>5</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F123" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="G123" s="21" t="s">
+      <c r="G123" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="23"/>
-      <c r="J123" s="20"/>
+      <c r="H123" s="24"/>
+      <c r="I123" s="26"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="20">
+      <c r="A124" s="27">
         <v>122</v>
       </c>
-      <c r="B124" s="20">
+      <c r="B124" s="27">
         <v>5</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="E124" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="F124" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="G124" s="21" t="s">
+      <c r="G124" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="23"/>
-      <c r="J124" s="20"/>
+      <c r="H124" s="24"/>
+      <c r="I124" s="26"/>
+      <c r="J124" s="27"/>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="20">
+      <c r="A125" s="27">
         <v>123</v>
       </c>
-      <c r="B125" s="20">
+      <c r="B125" s="27">
         <v>5</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="22">
+      <c r="D125" s="24">
         <v>5.7</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E125" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F125" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="H125" s="22"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="20"/>
+      <c r="H125" s="24"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="27"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="20">
+      <c r="A126" s="27">
         <v>124</v>
       </c>
-      <c r="B126" s="20">
+      <c r="B126" s="27">
         <v>5</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E126" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="F126" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="G126" s="21" t="s">
+      <c r="G126" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="20"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="27"/>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="20">
+      <c r="A127" s="27">
         <v>125</v>
       </c>
-      <c r="B127" s="20">
+      <c r="B127" s="27">
         <v>5</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E127" s="21" t="s">
+      <c r="E127" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="F127" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="G127" s="21" t="s">
+      <c r="G127" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="20"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="26"/>
+      <c r="J127" s="27"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="20">
+      <c r="A128" s="27">
         <v>126</v>
       </c>
-      <c r="B128" s="20">
+      <c r="B128" s="27">
         <v>5</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="E128" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F128" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="G128" s="21" t="s">
+      <c r="G128" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="H128" s="22"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="20"/>
+      <c r="H128" s="24"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="27"/>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="20">
+      <c r="A129" s="27">
         <v>127</v>
       </c>
-      <c r="B129" s="20">
+      <c r="B129" s="27">
         <v>5</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D129" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E129" s="21" t="s">
+      <c r="E129" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="F129" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="G129" s="21" t="s">
+      <c r="G129" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="H129" s="22"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="20"/>
+      <c r="H129" s="24"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="20">
+      <c r="A130" s="27">
         <v>128</v>
       </c>
-      <c r="B130" s="20">
+      <c r="B130" s="27">
         <v>5</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="20">
+      <c r="D130" s="27">
         <v>5.9</v>
       </c>
-      <c r="E130" s="21" t="s">
+      <c r="E130" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F130" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="G130" s="21" t="s">
+      <c r="G130" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="H130" s="22"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="20"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="27"/>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="20">
+      <c r="A131" s="27">
         <v>129</v>
       </c>
-      <c r="B131" s="20">
+      <c r="B131" s="27">
         <v>5</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D131" s="20">
+      <c r="D131" s="27">
         <v>5.9</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E131" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F131" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G131" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="H131" s="22"/>
-      <c r="I131" s="23"/>
-      <c r="J131" s="20"/>
+      <c r="H131" s="24"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="27"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="20">
+      <c r="A132" s="27">
         <v>130</v>
       </c>
-      <c r="B132" s="20">
+      <c r="B132" s="27">
         <v>5</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="20">
+      <c r="D132" s="27">
         <v>5.9</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="E132" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="F132" s="22" t="s">
+      <c r="F132" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="G132" s="21" t="s">
+      <c r="G132" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="H132" s="22"/>
-      <c r="I132" s="23"/>
-      <c r="J132" s="20"/>
+      <c r="H132" s="24"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="27"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="20">
+      <c r="A133" s="27">
         <v>131</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="27">
         <v>6</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="24">
         <v>6.1</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E133" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="F133" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="G133" s="21" t="s">
+      <c r="G133" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="H133" s="22"/>
-      <c r="I133" s="23"/>
-      <c r="J133" s="20">
+      <c r="H133" s="24"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="27">
         <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="20">
+      <c r="A134" s="27">
         <v>132</v>
       </c>
-      <c r="B134" s="20">
+      <c r="B134" s="27">
         <v>6</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="22">
+      <c r="D134" s="24">
         <v>6.1</v>
       </c>
-      <c r="E134" s="21" t="s">
+      <c r="E134" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="F134" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G134" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="H134" s="22"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="20"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="27"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="20">
+      <c r="A135" s="27">
         <v>133</v>
       </c>
-      <c r="B135" s="20">
+      <c r="B135" s="27">
         <v>6</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E135" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F135" s="22" t="s">
+      <c r="F135" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="G135" s="21" t="s">
+      <c r="G135" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="H135" s="22"/>
-      <c r="I135" s="23"/>
-      <c r="J135" s="20">
+      <c r="H135" s="24"/>
+      <c r="I135" s="26"/>
+      <c r="J135" s="27">
         <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="20">
+      <c r="A136" s="27">
         <v>134</v>
       </c>
-      <c r="B136" s="20">
+      <c r="B136" s="27">
         <v>6</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="E136" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F136" s="22" t="s">
+      <c r="F136" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G136" s="21" t="s">
+      <c r="G136" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="H136" s="22"/>
-      <c r="I136" s="23"/>
-      <c r="J136" s="20"/>
+      <c r="H136" s="24"/>
+      <c r="I136" s="26"/>
+      <c r="J136" s="27"/>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="20">
+      <c r="A137" s="27">
         <v>135</v>
       </c>
-      <c r="B137" s="20">
+      <c r="B137" s="27">
         <v>6</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D137" s="22">
+      <c r="D137" s="24">
         <v>6.3</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E137" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F137" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="G137" s="21" t="s">
+      <c r="G137" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="H137" s="22"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="20"/>
+      <c r="H137" s="24"/>
+      <c r="I137" s="26"/>
+      <c r="J137" s="27"/>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="20">
+      <c r="A138" s="27">
         <v>136</v>
       </c>
-      <c r="B138" s="20">
+      <c r="B138" s="27">
         <v>6</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="22">
+      <c r="D138" s="24">
         <v>6.4</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="F138" s="22" t="s">
+      <c r="F138" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="G138" s="21" t="s">
+      <c r="G138" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="H138" s="22"/>
-      <c r="I138" s="23"/>
-      <c r="J138" s="20"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="27"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="20">
+      <c r="A139" s="27">
         <v>137</v>
       </c>
-      <c r="B139" s="20">
+      <c r="B139" s="27">
         <v>6</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D139" s="22">
+      <c r="D139" s="24">
         <v>6.4</v>
       </c>
-      <c r="E139" s="21" t="s">
+      <c r="E139" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F139" s="22" t="s">
+      <c r="F139" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="G139" s="21" t="s">
+      <c r="G139" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="H139" s="22"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="20"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="27"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="20">
+      <c r="A140" s="27">
         <v>138</v>
       </c>
-      <c r="B140" s="20">
+      <c r="B140" s="27">
         <v>6</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="22">
+      <c r="D140" s="24">
         <v>6.4</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E140" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F140" s="22" t="s">
+      <c r="F140" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="G140" s="21" t="s">
+      <c r="G140" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="H140" s="22"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="20"/>
+      <c r="H140" s="24"/>
+      <c r="I140" s="26"/>
+      <c r="J140" s="27"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="20">
+      <c r="A141" s="27">
         <v>139</v>
       </c>
-      <c r="B141" s="20">
+      <c r="B141" s="27">
         <v>6</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D141" s="22">
+      <c r="D141" s="24">
         <v>6.5</v>
       </c>
-      <c r="E141" s="21" t="s">
+      <c r="E141" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="F141" s="22" t="s">
+      <c r="F141" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="G141" s="21" t="s">
+      <c r="G141" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="H141" s="22"/>
-      <c r="I141" s="23"/>
-      <c r="J141" s="20"/>
+      <c r="H141" s="24"/>
+      <c r="I141" s="26"/>
+      <c r="J141" s="27"/>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="20">
+      <c r="A142" s="27">
         <v>140</v>
       </c>
-      <c r="B142" s="20">
+      <c r="B142" s="27">
         <v>6</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="22">
+      <c r="D142" s="24">
         <v>6.5</v>
       </c>
-      <c r="E142" s="21" t="s">
+      <c r="E142" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F142" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="G142" s="21" t="s">
+      <c r="G142" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="H142" s="22"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="20"/>
+      <c r="H142" s="24"/>
+      <c r="I142" s="26"/>
+      <c r="J142" s="27"/>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="20">
+      <c r="A143" s="27">
         <v>141</v>
       </c>
-      <c r="B143" s="20">
+      <c r="B143" s="27">
         <v>6</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="22">
+      <c r="D143" s="24">
         <v>6.5</v>
       </c>
-      <c r="E143" s="21" t="s">
+      <c r="E143" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="F143" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="G143" s="21" t="s">
+      <c r="G143" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="H143" s="22"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="20"/>
+      <c r="H143" s="24"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="27"/>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="20">
+      <c r="A144" s="27">
         <v>142</v>
       </c>
-      <c r="B144" s="20">
+      <c r="B144" s="27">
         <v>6</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="22">
+      <c r="D144" s="24">
         <v>6.6</v>
       </c>
-      <c r="E144" s="21" t="s">
+      <c r="E144" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="F144" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="G144" s="21" t="s">
+      <c r="G144" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="H144" s="22"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="20"/>
+      <c r="H144" s="24"/>
+      <c r="I144" s="26"/>
+      <c r="J144" s="27"/>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="20">
+      <c r="A145" s="27">
         <v>143</v>
       </c>
-      <c r="B145" s="20">
+      <c r="B145" s="27">
         <v>6</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D145" s="22">
+      <c r="D145" s="24">
         <v>6.6</v>
       </c>
-      <c r="E145" s="21" t="s">
+      <c r="E145" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="F145" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="G145" s="21" t="s">
+      <c r="G145" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="H145" s="22"/>
-      <c r="I145" s="23"/>
-      <c r="J145" s="20"/>
+      <c r="H145" s="24"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="27"/>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="20">
+      <c r="A146" s="27">
         <v>144</v>
       </c>
-      <c r="B146" s="20">
+      <c r="B146" s="27">
         <v>6</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="24">
         <v>6.7</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="E146" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="F146" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="G146" s="21" t="s">
+      <c r="G146" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="H146" s="22"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="20"/>
+      <c r="H146" s="24"/>
+      <c r="I146" s="26"/>
+      <c r="J146" s="27"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="20">
+      <c r="A147" s="27">
         <v>145</v>
       </c>
-      <c r="B147" s="20">
+      <c r="B147" s="27">
         <v>6</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="24">
         <v>6.7</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E147" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F147" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="G147" s="21" t="s">
+      <c r="G147" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="H147" s="22"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="20"/>
+      <c r="H147" s="24"/>
+      <c r="I147" s="26"/>
+      <c r="J147" s="27"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="20">
+      <c r="A148" s="27">
         <v>146</v>
       </c>
-      <c r="B148" s="20">
+      <c r="B148" s="27">
         <v>6</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="22">
+      <c r="D148" s="24">
         <v>6.7</v>
       </c>
-      <c r="E148" s="21" t="s">
+      <c r="E148" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="F148" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="G148" s="21" t="s">
+      <c r="G148" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="H148" s="22"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="20"/>
+      <c r="H148" s="24"/>
+      <c r="I148" s="26"/>
+      <c r="J148" s="27"/>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="20">
+      <c r="A149" s="27">
         <v>147</v>
       </c>
-      <c r="B149" s="20">
+      <c r="B149" s="27">
         <v>6</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="24">
         <v>6.7</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="F149" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="G149" s="21" t="s">
+      <c r="G149" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="H149" s="22"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="20"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="27"/>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="20">
+      <c r="A150" s="27">
         <v>148</v>
       </c>
-      <c r="B150" s="20">
+      <c r="B150" s="27">
         <v>6</v>
       </c>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="24">
         <v>6.7</v>
       </c>
-      <c r="E150" s="21" t="s">
+      <c r="E150" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="F150" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="G150" s="21" t="s">
+      <c r="G150" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="H150" s="22"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="20"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="26"/>
+      <c r="J150" s="27"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="20">
+      <c r="A151" s="27">
         <v>149</v>
       </c>
-      <c r="B151" s="20">
+      <c r="B151" s="27">
         <v>6</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="24">
         <v>6.8</v>
       </c>
-      <c r="E151" s="21" t="s">
+      <c r="E151" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="F151" s="28" t="s">
+      <c r="F151" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="G151" s="21" t="s">
+      <c r="G151" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="H151" s="22"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="20"/>
+      <c r="H151" s="24"/>
+      <c r="I151" s="26"/>
+      <c r="J151" s="27"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="20">
+      <c r="A152" s="27">
         <v>150</v>
       </c>
-      <c r="B152" s="20">
+      <c r="B152" s="27">
         <v>6</v>
       </c>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="22">
+      <c r="D152" s="24">
         <v>6.8</v>
       </c>
-      <c r="E152" s="21" t="s">
+      <c r="E152" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F152" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="G152" s="29" t="s">
+      <c r="G152" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="H152" s="22"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="20">
+      <c r="H152" s="24"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="27">
         <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="20">
+      <c r="A153" s="27">
         <v>151</v>
       </c>
-      <c r="B153" s="20">
+      <c r="B153" s="27">
         <v>7</v>
       </c>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D153" s="22">
+      <c r="D153" s="24">
         <v>7.1</v>
       </c>
-      <c r="E153" s="21" t="s">
+      <c r="E153" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="F153" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="G153" s="21" t="s">
+      <c r="G153" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="H153" s="22"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="20"/>
+      <c r="H153" s="24"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="27"/>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="20">
+      <c r="A154" s="27">
         <v>152</v>
       </c>
-      <c r="B154" s="20">
+      <c r="B154" s="27">
         <v>7</v>
       </c>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="22">
+      <c r="D154" s="24">
         <v>7.1</v>
       </c>
-      <c r="E154" s="21" t="s">
+      <c r="E154" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="F154" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="G154" s="21" t="s">
+      <c r="G154" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="H154" s="22"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="20"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="27"/>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="20">
+      <c r="A155" s="27">
         <v>153</v>
       </c>
-      <c r="B155" s="20">
+      <c r="B155" s="27">
         <v>7</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D155" s="22">
+      <c r="D155" s="24">
         <v>7.1</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F155" s="22" t="s">
+      <c r="F155" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="G155" s="21" t="s">
+      <c r="G155" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="H155" s="22"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="20"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="27"/>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="20">
+      <c r="A156" s="27">
         <v>154</v>
       </c>
-      <c r="B156" s="20">
+      <c r="B156" s="27">
         <v>7</v>
       </c>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="22">
+      <c r="D156" s="24">
         <v>7.1</v>
       </c>
-      <c r="E156" s="21" t="s">
+      <c r="E156" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F156" s="22" t="s">
+      <c r="F156" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="G156" s="21" t="s">
+      <c r="G156" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H156" s="22"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="20"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="27"/>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="20">
+      <c r="A157" s="27">
         <v>155</v>
       </c>
-      <c r="B157" s="20">
+      <c r="B157" s="27">
         <v>7</v>
       </c>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D157" s="22">
+      <c r="D157" s="24">
         <v>7.2</v>
       </c>
-      <c r="E157" s="20" t="s">
+      <c r="E157" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="F157" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="G157" s="21" t="s">
+      <c r="G157" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="H157" s="22"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="20"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="27"/>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="20">
+      <c r="A158" s="27">
         <v>156</v>
       </c>
-      <c r="B158" s="20">
+      <c r="B158" s="27">
         <v>7</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D158" s="22">
+      <c r="D158" s="24">
         <v>7.3</v>
       </c>
-      <c r="E158" s="21" t="s">
+      <c r="E158" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F158" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="G158" s="21" t="s">
+      <c r="G158" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H158" s="22"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="20"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="27"/>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="20">
+      <c r="A159" s="27">
         <v>157</v>
       </c>
-      <c r="B159" s="20">
+      <c r="B159" s="27">
         <v>7</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="22">
+      <c r="D159" s="24">
         <v>7.3</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="E159" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="F159" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="G159" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="H159" s="22"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="20"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="27"/>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="20">
+      <c r="A160" s="27">
         <v>158</v>
       </c>
-      <c r="B160" s="20">
+      <c r="B160" s="27">
         <v>7</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D160" s="22">
+      <c r="D160" s="24">
         <v>7.3</v>
       </c>
-      <c r="E160" s="21" t="s">
+      <c r="E160" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F160" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="G160" s="21" t="s">
+      <c r="G160" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="H160" s="22"/>
-      <c r="I160" s="23"/>
-      <c r="J160" s="20"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="27"/>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="20">
+      <c r="A161" s="27">
         <v>159</v>
       </c>
-      <c r="B161" s="20">
+      <c r="B161" s="27">
         <v>7</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="22">
+      <c r="D161" s="24">
         <v>7.3</v>
       </c>
-      <c r="E161" s="21" t="s">
+      <c r="E161" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F161" s="22" t="s">
+      <c r="F161" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="G161" s="21" t="s">
+      <c r="G161" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="H161" s="22"/>
-      <c r="I161" s="23"/>
-      <c r="J161" s="20">
+      <c r="H161" s="24"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="27">
         <v>502</v>
       </c>
     </row>
@@ -19345,7 +19721,7 @@
       <c r="F195" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="G195" s="31" t="s">
+      <c r="G195" s="29" t="s">
         <v>452</v>
       </c>
       <c r="H195" s="22"/>
@@ -19371,7 +19747,7 @@
       <c r="F196" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="G196" s="31" t="s">
+      <c r="G196" s="29" t="s">
         <v>454</v>
       </c>
       <c r="H196" s="22"/>
@@ -19397,7 +19773,7 @@
       <c r="F197" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="G197" s="31" t="s">
+      <c r="G197" s="29" t="s">
         <v>456</v>
       </c>
       <c r="H197" s="22"/>
@@ -19987,15 +20363,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>530</v>
       </c>
@@ -20006,7 +20382,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20017,7 +20393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20028,7 +20404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20039,7 +20415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20050,7 +20426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20061,7 +20437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20072,7 +20448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20083,7 +20459,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20094,7 +20470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20105,7 +20481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>529</v>
       </c>
@@ -20118,6 +20494,76 @@
         <v>217</v>
       </c>
       <c r="D11" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="F13" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" t="s">
+        <v>601</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>616</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="30" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>603</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="G17" s="36"/>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="39" t="s">
+        <v>617</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
